--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_006.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_006.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>24.84170668608158</v>
+        <v>20.29128355453849</v>
       </c>
       <c r="D2" t="n">
-        <v>23.28042988539843</v>
+        <v>47.32633018671658</v>
       </c>
       <c r="E2" t="n">
-        <v>49.81084351675889</v>
+        <v>20.69728964635975</v>
       </c>
       <c r="F2" t="n">
-        <v>39.59536705424488</v>
+        <v>11.34556126746252</v>
       </c>
       <c r="G2" t="n">
-        <v>24.42895790241543</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>30.3309462856275</v>
+        <v>22.45487706383366</v>
       </c>
       <c r="I2" t="n">
-        <v>19.19067304348746</v>
+        <v>4.774282404128893</v>
       </c>
       <c r="J2" t="n">
-        <v>150.9524336961718</v>
+        <v>84.69838043647081</v>
       </c>
       <c r="K2" t="n">
-        <v>45.96055279039457</v>
+        <v>5.221352696974682</v>
       </c>
       <c r="L2" t="n">
-        <v>111.8195695081913</v>
+        <v>57.23927248404681</v>
       </c>
       <c r="M2" t="n">
-        <v>105.2739220732457</v>
+        <v>93.67378748992519</v>
       </c>
       <c r="N2" t="n">
-        <v>51.3006371337095</v>
+        <v>283.549312032958</v>
       </c>
       <c r="O2" t="n">
-        <v>76.23137320033189</v>
+        <v>63.82998035332233</v>
       </c>
       <c r="P2" t="n">
-        <v>69.75559183904147</v>
+        <v>57.20052057285492</v>
       </c>
       <c r="Q2" t="n">
-        <v>81.00052242133563</v>
+        <v>50.67165428026488</v>
       </c>
       <c r="R2" t="n">
-        <v>22.17607600027952</v>
+        <v>58.68205684128275</v>
       </c>
       <c r="S2" t="n">
-        <v>65.42757326222241</v>
+        <v>41.43832072646799</v>
       </c>
       <c r="T2" t="n">
-        <v>88.95185418469039</v>
+        <v>43.97025917912669</v>
       </c>
       <c r="U2" t="n">
-        <v>44.63822648734551</v>
+        <v>44.44559507579242</v>
       </c>
       <c r="V2" t="n">
-        <v>134.6253470878292</v>
+        <v>41.04973685919501</v>
       </c>
       <c r="W2" t="n">
-        <v>83.32609902308262</v>
+        <v>42.59941378275188</v>
       </c>
       <c r="X2" t="n">
-        <v>70.64535487021712</v>
+        <v>85.54168480519749</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.38950640617544</v>
+        <v>76.38254675751966</v>
       </c>
       <c r="Z2" t="n">
-        <v>49.12066541375565</v>
+        <v>99.85697835717104</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.24467138477797</v>
+        <v>83.48916318216182</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.28431280106379</v>
+        <v>26.41857446239515</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.83089971951173</v>
+        <v>128.4514909485272</v>
       </c>
       <c r="AD2" t="n">
-        <v>73.01285798989871</v>
+        <v>154.691804227657</v>
       </c>
       <c r="AE2" t="n">
-        <v>71.56656729905818</v>
+        <v>161.6822167817024</v>
       </c>
       <c r="AF2" t="n">
-        <v>137.4647599843886</v>
+        <v>177.1317850863682</v>
       </c>
       <c r="AG2" t="n">
-        <v>200.6659174025106</v>
+        <v>77.56329897512978</v>
       </c>
       <c r="AH2" t="n">
-        <v>36.20018322658942</v>
+        <v>80.04078582459117</v>
       </c>
       <c r="AI2" t="n">
-        <v>75.88063681025511</v>
+        <v>25.55419218653829</v>
       </c>
       <c r="AJ2" t="n">
-        <v>82.54803909751828</v>
+        <v>87.5792117684819</v>
       </c>
       <c r="AK2" t="n">
-        <v>94.7258908964086</v>
+        <v>55.82397491675992</v>
       </c>
       <c r="AL2" t="n">
-        <v>56.83012104945485</v>
+        <v>84.29318063576684</v>
       </c>
       <c r="AM2" t="n">
-        <v>29.30746353849973</v>
+        <v>16.20795943972929</v>
       </c>
       <c r="AN2" t="n">
-        <v>23.9567172676161</v>
+        <v>26.93276124647591</v>
       </c>
       <c r="AO2" t="n">
-        <v>42.87710187311205</v>
+        <v>35.59520472670509</v>
       </c>
       <c r="AP2" t="n">
-        <v>26.92873950977599</v>
+        <v>20.80234253635463</v>
       </c>
       <c r="AQ2" t="n">
-        <v>11.00285845907014</v>
+        <v>40.85051449956757</v>
       </c>
       <c r="AR2" t="n">
-        <v>16.74696499486127</v>
+        <v>37.89218585519024</v>
       </c>
       <c r="AS2" t="n">
-        <v>11.42186124719147</v>
+        <v>16.16031906377423</v>
       </c>
       <c r="AT2" t="n">
-        <v>25.89685990974608</v>
+        <v>29.66314460968227</v>
       </c>
       <c r="AU2" t="n">
-        <v>29.13234890121156</v>
+        <v>24.58929091012638</v>
       </c>
       <c r="AV2" t="n">
-        <v>29.1472492239249</v>
+        <v>22.23764346429663</v>
       </c>
       <c r="AW2" t="n">
-        <v>25.93257217835619</v>
+        <v>21.333355701592</v>
       </c>
       <c r="AX2" t="n">
-        <v>21.82607941908801</v>
+        <v>24.48097145181256</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5696818693177226</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.998391004373043</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.095449111542394</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6540128783417121</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.962110740555818</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.40762291321452</v>
+        <v>4.850854144789956</v>
       </c>
       <c r="I3" t="n">
-        <v>1.990851689054415</v>
+        <v>4.205303106218797</v>
       </c>
       <c r="J3" t="n">
-        <v>11.81277805872481</v>
+        <v>2.59837498977949</v>
       </c>
       <c r="K3" t="n">
-        <v>6.332013579588705</v>
+        <v>1.274755252382207</v>
       </c>
       <c r="L3" t="n">
-        <v>3.869547388249108</v>
+        <v>3.135888372714705</v>
       </c>
       <c r="M3" t="n">
-        <v>5.778556239822359</v>
+        <v>1.471544607589011</v>
       </c>
       <c r="N3" t="n">
-        <v>1.818692859487928</v>
+        <v>0.9268618170290912</v>
       </c>
       <c r="O3" t="n">
-        <v>6.639887092530116</v>
+        <v>5.890016689986766</v>
       </c>
       <c r="P3" t="n">
-        <v>6.63500359070287</v>
+        <v>2.962971091953464</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.893340035042933</v>
+        <v>0.7063828751068375</v>
       </c>
       <c r="R3" t="n">
-        <v>5.598254695154268</v>
+        <v>4.597014953363387</v>
       </c>
       <c r="S3" t="n">
-        <v>4.550207707503335</v>
+        <v>3.489915801458454</v>
       </c>
       <c r="T3" t="n">
-        <v>2.469004137200693</v>
+        <v>2.165913641588493</v>
       </c>
       <c r="U3" t="n">
-        <v>4.770699567687202</v>
+        <v>5.419156660258839</v>
       </c>
       <c r="V3" t="n">
-        <v>5.717241748385808</v>
+        <v>2.54353787452763</v>
       </c>
       <c r="W3" t="n">
-        <v>3.103589118933965</v>
+        <v>4.493137400783768</v>
       </c>
       <c r="X3" t="n">
-        <v>10.21689952274492</v>
+        <v>4.54857321482821</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.26853440308017</v>
+        <v>1.474029981691898</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.254029284287778</v>
+        <v>1.816729400414131</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.825257082278313</v>
+        <v>6.122323193016781</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.194699232783893</v>
+        <v>2.513009533060765</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.683925615133071</v>
+        <v>5.041443623180112</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.188270258221567</v>
+        <v>1.854091860865082</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.343462784924462</v>
+        <v>4.919339391290676</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.109202600078146</v>
+        <v>0.6950193537304328</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.048663419569712</v>
+        <v>3.754056255629199</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.199986280997002</v>
+        <v>3.682689997212264</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.90340109153324</v>
+        <v>6.544939054142652</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.60445820838396</v>
+        <v>6.614623330809328</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.041391672594875</v>
+        <v>3.172565139892046</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.921449418998326</v>
+        <v>2.801041759078461</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.492865565434972</v>
+        <v>5.99620110019678</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.422696480542193</v>
+        <v>5.5657747068983</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.85877893297188</v>
+        <v>5.880049331608192</v>
       </c>
       <c r="AP3" t="n">
-        <v>7.082873535630235</v>
+        <v>6.872255498326689</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.788717618510141</v>
+        <v>2.306554340717965</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.183953373787377</v>
+        <v>2.539350528551842</v>
       </c>
       <c r="AS3" t="n">
-        <v>4.152016619555143</v>
+        <v>2.562906466523085</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.075989110412641</v>
+        <v>5.502078087205274</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.224988541278819</v>
+        <v>1.998431916488258</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.735841031852513</v>
+        <v>3.145984455909791</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.272124208756135</v>
+        <v>2.077881496914334</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.289741633279792</v>
+        <v>1.579703226526664</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>7.144486203340394</v>
+        <v>11.16937055676182</v>
       </c>
       <c r="D4" t="n">
-        <v>10.4276712985495</v>
+        <v>13.60754690281939</v>
       </c>
       <c r="E4" t="n">
-        <v>12.87137989992203</v>
+        <v>14.27320610312306</v>
       </c>
       <c r="F4" t="n">
-        <v>24.36388795942459</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.51334763843091</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.381512181894738</v>
+        <v>1.429874795593702</v>
       </c>
       <c r="I4" t="n">
-        <v>132.5948342617942</v>
+        <v>29.06295205591112</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>135.5607219955135</v>
       </c>
       <c r="K4" t="n">
-        <v>9.248083353005992</v>
+        <v>19.31478819417333</v>
       </c>
       <c r="L4" t="n">
-        <v>50.32730392011112</v>
+        <v>80.79062630433647</v>
       </c>
       <c r="M4" t="n">
-        <v>72.30939243407828</v>
+        <v>47.69356020953791</v>
       </c>
       <c r="N4" t="n">
-        <v>210.3031623766739</v>
+        <v>92.49343493428798</v>
       </c>
       <c r="O4" t="n">
-        <v>10.36341794522007</v>
+        <v>57.29820137672122</v>
       </c>
       <c r="P4" t="n">
-        <v>34.98335357370836</v>
+        <v>48.99562196422507</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.60272804192429</v>
+        <v>0.4021908050205845</v>
       </c>
       <c r="R4" t="n">
-        <v>15.19165223111551</v>
+        <v>47.5219588231172</v>
       </c>
       <c r="S4" t="n">
-        <v>80.70943394792285</v>
+        <v>29.70350449511466</v>
       </c>
       <c r="T4" t="n">
-        <v>50.11311693699415</v>
+        <v>58.45168763927086</v>
       </c>
       <c r="U4" t="n">
-        <v>52.06852294853495</v>
+        <v>54.97105147165455</v>
       </c>
       <c r="V4" t="n">
-        <v>164.0185501666495</v>
+        <v>3.938108056632608</v>
       </c>
       <c r="W4" t="n">
-        <v>14.81204542741975</v>
+        <v>92.38050064822586</v>
       </c>
       <c r="X4" t="n">
-        <v>69.23073096767922</v>
+        <v>100.3360336972801</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.78684606053117</v>
+        <v>48.11392928815963</v>
       </c>
       <c r="Z4" t="n">
-        <v>137.3739073095614</v>
+        <v>83.39550865350964</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.1572933778521</v>
+        <v>56.97849132822822</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.76972924445991</v>
+        <v>53.99411495661072</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.9496464504468</v>
+        <v>67.51121803509719</v>
       </c>
       <c r="AD4" t="n">
-        <v>95.20123405783387</v>
+        <v>88.67930720297079</v>
       </c>
       <c r="AE4" t="n">
-        <v>36.06566459031359</v>
+        <v>39.94572233515421</v>
       </c>
       <c r="AF4" t="n">
-        <v>85.07402492685117</v>
+        <v>84.74285719116131</v>
       </c>
       <c r="AG4" t="n">
-        <v>132.187520605323</v>
+        <v>36.03178224728719</v>
       </c>
       <c r="AH4" t="n">
-        <v>55.16232917547845</v>
+        <v>37.52967291238397</v>
       </c>
       <c r="AI4" t="n">
-        <v>39.87680668745558</v>
+        <v>41.01056383094172</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25.90143828740814</v>
+        <v>92.47393521730191</v>
       </c>
       <c r="AK4" t="n">
-        <v>34.43274808639311</v>
+        <v>22.83076970367124</v>
       </c>
       <c r="AL4" t="n">
-        <v>27.06126169729693</v>
+        <v>16.01014617955204</v>
       </c>
       <c r="AM4" t="n">
-        <v>14.42074910511682</v>
+        <v>40.14684894227863</v>
       </c>
       <c r="AN4" t="n">
-        <v>43.13857974732945</v>
+        <v>32.29388211501518</v>
       </c>
       <c r="AO4" t="n">
-        <v>24.2899072512182</v>
+        <v>20.80913617879451</v>
       </c>
       <c r="AP4" t="n">
-        <v>17.20889591422714</v>
+        <v>9.61254475168893</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16.65371179144026</v>
+        <v>13.0027983212912</v>
       </c>
       <c r="AR4" t="n">
-        <v>7.613810504479179</v>
+        <v>25.79304319359258</v>
       </c>
       <c r="AS4" t="n">
-        <v>19.66568693713771</v>
+        <v>15.35927375723094</v>
       </c>
       <c r="AT4" t="n">
-        <v>21.31062486514533</v>
+        <v>18.79030931697124</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.341034538495386</v>
+        <v>11.06082103460164</v>
       </c>
       <c r="AV4" t="n">
-        <v>11.63889392007279</v>
+        <v>6.257507662269148</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.896289938259239</v>
+        <v>12.62565977409231</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.240138352730446</v>
+        <v>11.91456071404452</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.8954769258657</v>
+        <v>10.75142409159652</v>
       </c>
       <c r="D5" t="n">
-        <v>21.01388356426206</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>19.04905408644592</v>
+        <v>15.95197841021986</v>
       </c>
       <c r="F5" t="n">
-        <v>55.23191198498407</v>
+        <v>15.12698520799647</v>
       </c>
       <c r="G5" t="n">
-        <v>48.35418032361314</v>
+        <v>10.57542584668002</v>
       </c>
       <c r="H5" t="n">
-        <v>45.95428723565918</v>
+        <v>112.4667109480765</v>
       </c>
       <c r="I5" t="n">
-        <v>4.862540461670097</v>
+        <v>36.68588444903092</v>
       </c>
       <c r="J5" t="n">
-        <v>76.75148114982288</v>
+        <v>50.74780213633945</v>
       </c>
       <c r="K5" t="n">
-        <v>134.7764763587383</v>
+        <v>20.08636248691184</v>
       </c>
       <c r="L5" t="n">
-        <v>17.08791017240108</v>
+        <v>91.19737093974636</v>
       </c>
       <c r="M5" t="n">
-        <v>53.8899114687161</v>
+        <v>27.58042332422178</v>
       </c>
       <c r="N5" t="n">
-        <v>51.58190333114691</v>
+        <v>78.87536636799314</v>
       </c>
       <c r="O5" t="n">
-        <v>31.21265210153726</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>47.54395910104046</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>78.1061047439442</v>
       </c>
       <c r="R5" t="n">
-        <v>34.82214284287231</v>
+        <v>29.804649499812</v>
       </c>
       <c r="S5" t="n">
-        <v>87.86205545617815</v>
+        <v>5.533169400235214</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>58.98471014403088</v>
       </c>
       <c r="U5" t="n">
-        <v>115.7915831668717</v>
+        <v>156.8732111590461</v>
       </c>
       <c r="V5" t="n">
-        <v>34.71025869094719</v>
+        <v>85.85213712953686</v>
       </c>
       <c r="W5" t="n">
-        <v>15.7766282785018</v>
+        <v>48.41914099520955</v>
       </c>
       <c r="X5" t="n">
-        <v>58.14044569171721</v>
+        <v>31.23559531774936</v>
       </c>
       <c r="Y5" t="n">
-        <v>24.0316038437665</v>
+        <v>73.52297291816566</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.65466135255014</v>
+        <v>33.9273586554866</v>
       </c>
       <c r="AA5" t="n">
-        <v>43.22699879605533</v>
+        <v>32.91375894784268</v>
       </c>
       <c r="AB5" t="n">
-        <v>43.39401130725693</v>
+        <v>7.156168971298923</v>
       </c>
       <c r="AC5" t="n">
-        <v>16.07031119233892</v>
+        <v>35.35854216753949</v>
       </c>
       <c r="AD5" t="n">
-        <v>32.70550413957903</v>
+        <v>29.21150944318423</v>
       </c>
       <c r="AE5" t="n">
-        <v>50.9008636913693</v>
+        <v>63.69147520981597</v>
       </c>
       <c r="AF5" t="n">
-        <v>22.20809236833678</v>
+        <v>32.61195915602474</v>
       </c>
       <c r="AG5" t="n">
-        <v>64.6800826821635</v>
+        <v>6.526365175163675</v>
       </c>
       <c r="AH5" t="n">
-        <v>11.78636247202103</v>
+        <v>120.8159194911604</v>
       </c>
       <c r="AI5" t="n">
-        <v>58.87920427272697</v>
+        <v>25.70942810790537</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19.63824724724906</v>
+        <v>12.06346697217468</v>
       </c>
       <c r="AK5" t="n">
-        <v>20.99114123218397</v>
+        <v>24.90064565098638</v>
       </c>
       <c r="AL5" t="n">
-        <v>27.34348034315143</v>
+        <v>30.37654483133221</v>
       </c>
       <c r="AM5" t="n">
-        <v>5.292081184951588</v>
+        <v>7.781401052699975</v>
       </c>
       <c r="AN5" t="n">
-        <v>28.81529737634785</v>
+        <v>25.15085898072602</v>
       </c>
       <c r="AO5" t="n">
-        <v>35.76435545765471</v>
+        <v>19.90798574541268</v>
       </c>
       <c r="AP5" t="n">
-        <v>30.54856495802598</v>
+        <v>32.14586226521412</v>
       </c>
       <c r="AQ5" t="n">
-        <v>12.90330533349501</v>
+        <v>1.983212202939264</v>
       </c>
       <c r="AR5" t="n">
-        <v>13.91826529593529</v>
+        <v>22.19819105903358</v>
       </c>
       <c r="AS5" t="n">
-        <v>4.644043651021376</v>
+        <v>17.07116944257349</v>
       </c>
       <c r="AT5" t="n">
-        <v>24.67601644482233</v>
+        <v>37.98846811620245</v>
       </c>
       <c r="AU5" t="n">
-        <v>23.66252131870955</v>
+        <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>32.09087484908877</v>
+        <v>24.60937470372965</v>
       </c>
       <c r="AW5" t="n">
-        <v>15.00306870340255</v>
+        <v>30.06426631939872</v>
       </c>
       <c r="AX5" t="n">
-        <v>10.57791256157298</v>
+        <v>26.69032487932911</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.108541830412602</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.702552318842306</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.071673243655086</v>
+        <v>17.59258028609849</v>
       </c>
       <c r="F6" t="n">
-        <v>8.43422488729094</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9.847561678880494</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>5.075101670878159</v>
+        <v>4.555138463388917</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.072003441344417</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>11.70240256655913</v>
       </c>
       <c r="K6" t="n">
-        <v>23.65654333171044</v>
+        <v>10.57672958889569</v>
       </c>
       <c r="L6" t="n">
-        <v>28.35659160778986</v>
+        <v>9.8551375823572</v>
       </c>
       <c r="M6" t="n">
-        <v>38.32286847324441</v>
+        <v>24.30183563785918</v>
       </c>
       <c r="N6" t="n">
-        <v>14.45748907483888</v>
+        <v>15.98902232574414</v>
       </c>
       <c r="O6" t="n">
-        <v>7.333390802523481</v>
+        <v>24.24533884018962</v>
       </c>
       <c r="P6" t="n">
-        <v>89.42840771846208</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.067613327404366</v>
+        <v>28.62279272219806</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2783651942879</v>
+        <v>16.83580614581364</v>
       </c>
       <c r="S6" t="n">
-        <v>21.38724152301564</v>
+        <v>60.61522062175329</v>
       </c>
       <c r="T6" t="n">
-        <v>10.89544972475987</v>
+        <v>4.558802324450934</v>
       </c>
       <c r="U6" t="n">
-        <v>13.62834283396186</v>
+        <v>21.27380913162379</v>
       </c>
       <c r="V6" t="n">
-        <v>21.05740444269522</v>
+        <v>10.68140332860465</v>
       </c>
       <c r="W6" t="n">
-        <v>19.19093625060794</v>
+        <v>31.96600845416508</v>
       </c>
       <c r="X6" t="n">
-        <v>27.09195472362588</v>
+        <v>17.41641376054539</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.3826174117109</v>
+        <v>20.99874539742732</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.75153164054407</v>
+        <v>12.10695943641201</v>
       </c>
       <c r="AA6" t="n">
-        <v>24.6890824430326</v>
+        <v>11.22687401953526</v>
       </c>
       <c r="AB6" t="n">
-        <v>26.25883596592775</v>
+        <v>41.04980003349382</v>
       </c>
       <c r="AC6" t="n">
-        <v>15.27129125470733</v>
+        <v>16.15633148392808</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.289133051023898</v>
+        <v>10.05982926979262</v>
       </c>
       <c r="AE6" t="n">
-        <v>27.07883774319271</v>
+        <v>11.23024086418352</v>
       </c>
       <c r="AF6" t="n">
-        <v>19.41706956984732</v>
+        <v>14.71770354583353</v>
       </c>
       <c r="AG6" t="n">
-        <v>35.38569441315407</v>
+        <v>12.55467102936563</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.78418233100411</v>
+        <v>19.82847218603071</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.259043914467917</v>
+        <v>8.727767605855874</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>6.747778380628972</v>
       </c>
       <c r="AK6" t="n">
-        <v>5.244936026696405</v>
+        <v>1.691549072519506</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.231400263266099</v>
+        <v>3.124006094475521</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.433461684565822</v>
+        <v>7.103007697689667</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.621146507914842</v>
+        <v>7.457175047368681</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.087985894771271</v>
+        <v>4.618098275361409</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.444014185742264</v>
+        <v>6.030905119123013</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9.206374635366522</v>
+        <v>3.184211413386837</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.129872561414672</v>
+        <v>0.5714497085436768</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.231501685636956</v>
+        <v>12.75088252135837</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.141473892736267</v>
+        <v>1.032778407997001</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.533115459194011</v>
+        <v>3.86358467792283</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.183628313175797</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.070891784880648</v>
+        <v>3.327764290198297</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.096711964483014</v>
+        <v>3.539781947759308</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.07431425670875</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>23.50183041759735</v>
+        <v>7.722229410904676</v>
       </c>
       <c r="E7" t="n">
-        <v>17.63576116589303</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.86266478952791</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>21.63856255675925</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.017419749494123</v>
+        <v>24.86452543859546</v>
       </c>
       <c r="I7" t="n">
-        <v>16.18145036790399</v>
+        <v>19.42214712209919</v>
       </c>
       <c r="J7" t="n">
-        <v>35.66616489694844</v>
+        <v>17.55707617772764</v>
       </c>
       <c r="K7" t="n">
-        <v>49.40994165254425</v>
+        <v>0.6422961817085726</v>
       </c>
       <c r="L7" t="n">
-        <v>44.70541321832255</v>
+        <v>112.4558454010092</v>
       </c>
       <c r="M7" t="n">
-        <v>64.79463299809377</v>
+        <v>35.08533727680209</v>
       </c>
       <c r="N7" t="n">
-        <v>45.35027191095206</v>
+        <v>5.244776071992181</v>
       </c>
       <c r="O7" t="n">
-        <v>37.59713218210013</v>
+        <v>10.17187760184662</v>
       </c>
       <c r="P7" t="n">
-        <v>25.07824184950166</v>
+        <v>18.17391502401267</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.16393029596944</v>
+        <v>39.54017590257877</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>34.34574033407919</v>
       </c>
       <c r="S7" t="n">
-        <v>1.288153539451576</v>
+        <v>57.72472882106356</v>
       </c>
       <c r="T7" t="n">
-        <v>23.62780835888462</v>
+        <v>14.67400271289991</v>
       </c>
       <c r="U7" t="n">
-        <v>51.87164433870227</v>
+        <v>10.29926062995721</v>
       </c>
       <c r="V7" t="n">
-        <v>23.30623467094637</v>
+        <v>12.22543743203033</v>
       </c>
       <c r="W7" t="n">
-        <v>4.937469272056155</v>
+        <v>17.36372163766632</v>
       </c>
       <c r="X7" t="n">
-        <v>66.81652068454295</v>
+        <v>71.45643340219266</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.549435193200139</v>
+        <v>27.75837874185795</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.78079453770027</v>
+        <v>37.91120041190482</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.25807940907218</v>
+        <v>4.757546713103343</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>21.87016527099934</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.897065888898141</v>
+        <v>21.95183974276564</v>
       </c>
       <c r="AD7" t="n">
-        <v>23.22720727605635</v>
+        <v>4.494448983889212</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.352205415312391</v>
+        <v>7.552141255495976</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.15967564810094</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.827873059939046</v>
+        <v>20.54918302786512</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.283518253616533</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.09778369795848</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5.545811215107497</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>22.0199169754786</v>
+        <v>3.721505521575095</v>
       </c>
       <c r="AL7" t="n">
-        <v>5.243771451218361</v>
+        <v>3.791463246699776</v>
       </c>
       <c r="AM7" t="n">
-        <v>10.3523171163257</v>
+        <v>6.235253520833967</v>
       </c>
       <c r="AN7" t="n">
-        <v>16.09243974383212</v>
+        <v>21.0905797477748</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.024688557382387</v>
+        <v>5.553364787455005</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.95115221849047</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>9.862034873281615</v>
+        <v>2.615707571737551</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>6.240020724297031</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.256671596258152</v>
+        <v>11.14556300948004</v>
       </c>
       <c r="AT7" t="n">
-        <v>10.87279133306858</v>
+        <v>3.832890035602869</v>
       </c>
       <c r="AU7" t="n">
-        <v>13.72380411457796</v>
+        <v>16.41950466093574</v>
       </c>
       <c r="AV7" t="n">
-        <v>57.86339511957564</v>
+        <v>5.833235150082776</v>
       </c>
       <c r="AW7" t="n">
-        <v>12.42779709470011</v>
+        <v>4.673549768177616</v>
       </c>
       <c r="AX7" t="n">
-        <v>24.64435805533147</v>
+        <v>2.150695041814306</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.55747274443081</v>
+        <v>13.78337542475368</v>
       </c>
       <c r="D8" t="n">
-        <v>18.63265058726832</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>26.8144867066185</v>
+        <v>4.43211713966879</v>
       </c>
       <c r="F8" t="n">
-        <v>19.8741459073997</v>
+        <v>12.75447646077402</v>
       </c>
       <c r="G8" t="n">
-        <v>28.52363906471722</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>20.91941010922244</v>
+        <v>23.81832440933522</v>
       </c>
       <c r="I8" t="n">
-        <v>49.4668863691291</v>
+        <v>53.26983613334039</v>
       </c>
       <c r="J8" t="n">
-        <v>46.52674317581771</v>
+        <v>34.70191578946569</v>
       </c>
       <c r="K8" t="n">
-        <v>129.5698045794929</v>
+        <v>29.21576448041897</v>
       </c>
       <c r="L8" t="n">
-        <v>8.842251085704632</v>
+        <v>192.2589919884511</v>
       </c>
       <c r="M8" t="n">
-        <v>68.55562938713425</v>
+        <v>81.339855418526</v>
       </c>
       <c r="N8" t="n">
-        <v>69.49235716854278</v>
+        <v>79.45763116210553</v>
       </c>
       <c r="O8" t="n">
-        <v>69.87112602422854</v>
+        <v>79.26072118857455</v>
       </c>
       <c r="P8" t="n">
-        <v>96.86180176107466</v>
+        <v>15.97030676753361</v>
       </c>
       <c r="Q8" t="n">
-        <v>68.925259671482</v>
+        <v>22.62784716790799</v>
       </c>
       <c r="R8" t="n">
-        <v>52.19315535340404</v>
+        <v>68.19385483818144</v>
       </c>
       <c r="S8" t="n">
-        <v>77.50079620251896</v>
+        <v>45.43111933867019</v>
       </c>
       <c r="T8" t="n">
-        <v>40.93994193442367</v>
+        <v>28.11384207051131</v>
       </c>
       <c r="U8" t="n">
-        <v>23.50535733627101</v>
+        <v>82.41270492393656</v>
       </c>
       <c r="V8" t="n">
-        <v>71.88802329545781</v>
+        <v>48.89655380607288</v>
       </c>
       <c r="W8" t="n">
-        <v>57.64346140053154</v>
+        <v>101.009686212923</v>
       </c>
       <c r="X8" t="n">
-        <v>27.12293261258025</v>
+        <v>187.0289145405193</v>
       </c>
       <c r="Y8" t="n">
-        <v>62.93051278670626</v>
+        <v>118.8644219280201</v>
       </c>
       <c r="Z8" t="n">
-        <v>60.83287145453321</v>
+        <v>126.8782596800677</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.61047138095699</v>
+        <v>66.47198240419625</v>
       </c>
       <c r="AB8" t="n">
-        <v>62.72601341070035</v>
+        <v>132.8179599914303</v>
       </c>
       <c r="AC8" t="n">
-        <v>117.617183694676</v>
+        <v>98.76489143121958</v>
       </c>
       <c r="AD8" t="n">
-        <v>137.6680956444839</v>
+        <v>96.05949047178152</v>
       </c>
       <c r="AE8" t="n">
-        <v>141.2154139071332</v>
+        <v>130.4689816298324</v>
       </c>
       <c r="AF8" t="n">
-        <v>148.3171057669257</v>
+        <v>172.3026187050501</v>
       </c>
       <c r="AG8" t="n">
-        <v>113.8770568925134</v>
+        <v>201.9428361020425</v>
       </c>
       <c r="AH8" t="n">
-        <v>95.90165498040705</v>
+        <v>160.7233126474601</v>
       </c>
       <c r="AI8" t="n">
-        <v>73.05967494306186</v>
+        <v>94.28938529012952</v>
       </c>
       <c r="AJ8" t="n">
-        <v>56.99762848786408</v>
+        <v>49.36299432793841</v>
       </c>
       <c r="AK8" t="n">
-        <v>7.677503365059973</v>
+        <v>62.99194931947202</v>
       </c>
       <c r="AL8" t="n">
-        <v>56.4415175589962</v>
+        <v>127.5805329092707</v>
       </c>
       <c r="AM8" t="n">
-        <v>39.81770793695883</v>
+        <v>37.32938506205464</v>
       </c>
       <c r="AN8" t="n">
-        <v>33.32504279101806</v>
+        <v>26.20414706782828</v>
       </c>
       <c r="AO8" t="n">
-        <v>26.98531631248784</v>
+        <v>25.21511814971671</v>
       </c>
       <c r="AP8" t="n">
-        <v>43.61140428758092</v>
+        <v>26.03874590974367</v>
       </c>
       <c r="AQ8" t="n">
-        <v>39.71940727913019</v>
+        <v>26.45125983310693</v>
       </c>
       <c r="AR8" t="n">
-        <v>33.23915731061859</v>
+        <v>10.76906796286091</v>
       </c>
       <c r="AS8" t="n">
-        <v>11.38596951985701</v>
+        <v>44.40918530705628</v>
       </c>
       <c r="AT8" t="n">
-        <v>24.56607653007234</v>
+        <v>14.52789172175668</v>
       </c>
       <c r="AU8" t="n">
-        <v>28.96181746646652</v>
+        <v>50.72861651111648</v>
       </c>
       <c r="AV8" t="n">
-        <v>22.61570817612773</v>
+        <v>29.89552525447563</v>
       </c>
       <c r="AW8" t="n">
-        <v>18.54186523693724</v>
+        <v>27.4500479152558</v>
       </c>
       <c r="AX8" t="n">
-        <v>20.32997011066466</v>
+        <v>33.18529402231016</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.845329346612077</v>
+        <v>0.0184695448805709</v>
       </c>
       <c r="D9" t="n">
-        <v>3.984852660091872</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.004279165159344</v>
+        <v>2.326604045376639</v>
       </c>
       <c r="F9" t="n">
-        <v>2.925374134907199</v>
+        <v>3.616166907472909</v>
       </c>
       <c r="G9" t="n">
-        <v>1.225252405737497</v>
+        <v>1.841394334459778</v>
       </c>
       <c r="H9" t="n">
-        <v>0.207981450276758</v>
+        <v>3.176931768695691</v>
       </c>
       <c r="I9" t="n">
-        <v>3.207297751528918</v>
+        <v>9.975479735826871</v>
       </c>
       <c r="J9" t="n">
-        <v>5.26580259388815</v>
+        <v>6.091541386982309</v>
       </c>
       <c r="K9" t="n">
-        <v>3.737608864444674</v>
+        <v>3.903407438075257</v>
       </c>
       <c r="L9" t="n">
-        <v>3.962837590988096</v>
+        <v>8.511251680665575</v>
       </c>
       <c r="M9" t="n">
-        <v>2.776850775354688</v>
+        <v>21.56048998545901</v>
       </c>
       <c r="N9" t="n">
-        <v>5.175244737893849</v>
+        <v>5.75610468798778</v>
       </c>
       <c r="O9" t="n">
-        <v>4.098279025038157</v>
+        <v>3.151143081332828</v>
       </c>
       <c r="P9" t="n">
-        <v>9.286006810009225</v>
+        <v>7.66503089117284</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.882423824212605</v>
+        <v>0.8382295537396296</v>
       </c>
       <c r="R9" t="n">
-        <v>5.912149237208208</v>
+        <v>2.742314250615677</v>
       </c>
       <c r="S9" t="n">
-        <v>1.184889446053385</v>
+        <v>5.517861088449558</v>
       </c>
       <c r="T9" t="n">
-        <v>7.438801543393978</v>
+        <v>1.778347826870754</v>
       </c>
       <c r="U9" t="n">
-        <v>0.4455731671436641</v>
+        <v>6.240440301410722</v>
       </c>
       <c r="V9" t="n">
-        <v>16.37859347685937</v>
+        <v>2.059922187049854</v>
       </c>
       <c r="W9" t="n">
-        <v>2.034765775267436</v>
+        <v>2.563227993305748</v>
       </c>
       <c r="X9" t="n">
-        <v>1.495027475334616</v>
+        <v>7.268050511235419</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.393362187502825</v>
+        <v>4.466626379588172</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.769659429761265</v>
+        <v>5.055761845057896</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.779379043094067</v>
+        <v>3.619035006454466</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.620159758471715</v>
+        <v>5.491140958698917</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.026451424393607</v>
+        <v>5.406759401134021</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.871260018889176</v>
+        <v>1.632268001370063</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.825655238479444</v>
+        <v>4.0746940574622</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.74053432528252</v>
+        <v>5.550170387580458</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.83857094452542</v>
+        <v>4.941829947862491</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.164684329103016</v>
+        <v>7.110850038799114</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.489103167208347</v>
+        <v>5.394776726478717</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.871365200657075</v>
+        <v>2.584698322698842</v>
       </c>
       <c r="AK9" t="n">
-        <v>5.753452997947708</v>
+        <v>4.920251414832064</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.732116748770729</v>
+        <v>4.733094011333585</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.022206130248607</v>
+        <v>3.657416249956211</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.398379898865933</v>
+        <v>5.216734889455505</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.014441769391713</v>
+        <v>4.003217578681233</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.636597642978004</v>
+        <v>6.559772240823626</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.283783199664997</v>
+        <v>10.2180224107254</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.644546685649665</v>
+        <v>4.981639378166493</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.599870971347876</v>
+        <v>2.417614476497717</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.623987330468712</v>
+        <v>6.487368930763496</v>
       </c>
       <c r="AU9" t="n">
-        <v>4.489000192353807</v>
+        <v>5.009793627493436</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.60525040726824</v>
+        <v>4.148228725929536</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.234237191176297</v>
+        <v>2.029809762993239</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.942733749678923</v>
+        <v>2.785363996657897</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>5.993248521385333</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>5.828942302194452</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>12.40116199279826</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10.2049183270209</v>
+        <v>23.17450774691555</v>
       </c>
       <c r="G10" t="n">
-        <v>6.490500888666819</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>36.98662057162638</v>
+        <v>2.059486078650341</v>
       </c>
       <c r="I10" t="n">
-        <v>53.45900970039973</v>
+        <v>103.3469652525056</v>
       </c>
       <c r="J10" t="n">
-        <v>33.50203046861884</v>
+        <v>45.71770615513225</v>
       </c>
       <c r="K10" t="n">
-        <v>44.93857417784194</v>
+        <v>8.75419402803378</v>
       </c>
       <c r="L10" t="n">
-        <v>8.867104954152069</v>
+        <v>106.2284885936685</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>48.23542316216486</v>
       </c>
       <c r="N10" t="n">
-        <v>72.41789693421418</v>
+        <v>44.90546880825322</v>
       </c>
       <c r="O10" t="n">
-        <v>60.46186490023483</v>
+        <v>69.11006944163107</v>
       </c>
       <c r="P10" t="n">
-        <v>55.98950617104491</v>
+        <v>13.93710103396162</v>
       </c>
       <c r="Q10" t="n">
-        <v>168.3955574930618</v>
+        <v>47.29776940152971</v>
       </c>
       <c r="R10" t="n">
-        <v>157.9336091475835</v>
+        <v>89.75923994202766</v>
       </c>
       <c r="S10" t="n">
-        <v>22.71291323435298</v>
+        <v>73.02168558280563</v>
       </c>
       <c r="T10" t="n">
-        <v>72.37114223800248</v>
+        <v>108.9643956675153</v>
       </c>
       <c r="U10" t="n">
-        <v>58.68279700702158</v>
+        <v>98.48294144537184</v>
       </c>
       <c r="V10" t="n">
-        <v>108.368331605024</v>
+        <v>64.83890233919281</v>
       </c>
       <c r="W10" t="n">
-        <v>37.52927795879585</v>
+        <v>86.61925384085511</v>
       </c>
       <c r="X10" t="n">
-        <v>77.71058501832441</v>
+        <v>46.8970944714205</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.70470038092694</v>
+        <v>28.50400857108443</v>
       </c>
       <c r="Z10" t="n">
-        <v>71.0952862024388</v>
+        <v>47.73762711457551</v>
       </c>
       <c r="AA10" t="n">
-        <v>50.43948861284431</v>
+        <v>89.474610929779</v>
       </c>
       <c r="AB10" t="n">
-        <v>53.95284370744039</v>
+        <v>53.04469561640919</v>
       </c>
       <c r="AC10" t="n">
-        <v>54.4996128502453</v>
+        <v>74.29489221626105</v>
       </c>
       <c r="AD10" t="n">
-        <v>91.17433014280959</v>
+        <v>77.30026489782294</v>
       </c>
       <c r="AE10" t="n">
-        <v>13.56146332096367</v>
+        <v>42.2639967126012</v>
       </c>
       <c r="AF10" t="n">
-        <v>54.88528074167894</v>
+        <v>87.88892351244746</v>
       </c>
       <c r="AG10" t="n">
-        <v>112.0910446809494</v>
+        <v>79.05273763782326</v>
       </c>
       <c r="AH10" t="n">
-        <v>44.57827935193654</v>
+        <v>59.85009900231085</v>
       </c>
       <c r="AI10" t="n">
-        <v>93.20984161630776</v>
+        <v>17.83176346202594</v>
       </c>
       <c r="AJ10" t="n">
-        <v>73.43975155833334</v>
+        <v>48.33497485754361</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.98216157325335</v>
+        <v>42.86448028309527</v>
       </c>
       <c r="AL10" t="n">
-        <v>57.28332420857662</v>
+        <v>26.46061481066539</v>
       </c>
       <c r="AM10" t="n">
-        <v>15.69363094908931</v>
+        <v>16.00421451441531</v>
       </c>
       <c r="AN10" t="n">
-        <v>20.96866046992075</v>
+        <v>12.31898806379293</v>
       </c>
       <c r="AO10" t="n">
-        <v>19.29678210346757</v>
+        <v>9.298491980957497</v>
       </c>
       <c r="AP10" t="n">
-        <v>13.45232574095404</v>
+        <v>16.78101164035438</v>
       </c>
       <c r="AQ10" t="n">
-        <v>40.10132283556959</v>
+        <v>8.199708801827242</v>
       </c>
       <c r="AR10" t="n">
-        <v>16.4745404939141</v>
+        <v>9.04517324247772</v>
       </c>
       <c r="AS10" t="n">
-        <v>12.1238151608423</v>
+        <v>23.25255452814693</v>
       </c>
       <c r="AT10" t="n">
-        <v>15.03968571142042</v>
+        <v>7.938688218822268</v>
       </c>
       <c r="AU10" t="n">
-        <v>17.04919134161719</v>
+        <v>1.467968793233778</v>
       </c>
       <c r="AV10" t="n">
-        <v>4.487989065672505</v>
+        <v>10.36786724680956</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.289269411615662</v>
+        <v>4.23903211071111</v>
       </c>
       <c r="AX10" t="n">
-        <v>19.21379326655981</v>
+        <v>8.702815597540681</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>8.215813669242422</v>
+        <v>23.50984660419897</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>26.19508964705084</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14.31256538036818</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>55.3150335485587</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>27.79710715171572</v>
+        <v>31.74071899747252</v>
       </c>
       <c r="I11" t="n">
-        <v>113.6827343483128</v>
+        <v>114.8229187883458</v>
       </c>
       <c r="J11" t="n">
-        <v>15.96065444580674</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>33.79006042485203</v>
+        <v>16.44849628617996</v>
       </c>
       <c r="L11" t="n">
-        <v>4.303627531065546</v>
+        <v>249.4611913823059</v>
       </c>
       <c r="M11" t="n">
-        <v>27.40742039186341</v>
+        <v>36.29015320715092</v>
       </c>
       <c r="N11" t="n">
-        <v>88.57697104951802</v>
+        <v>11.41833542379655</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51718210631043</v>
+        <v>35.86620870018807</v>
       </c>
       <c r="P11" t="n">
-        <v>53.88834108955434</v>
+        <v>36.10209571415849</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.6388538243103</v>
+        <v>23.85875169264394</v>
       </c>
       <c r="R11" t="n">
-        <v>114.3161492606352</v>
+        <v>136.5116466717353</v>
       </c>
       <c r="S11" t="n">
-        <v>55.22204703178243</v>
+        <v>88.91656889351917</v>
       </c>
       <c r="T11" t="n">
-        <v>52.95668347022479</v>
+        <v>64.34854857596737</v>
       </c>
       <c r="U11" t="n">
-        <v>32.92867428246635</v>
+        <v>87.31326438836192</v>
       </c>
       <c r="V11" t="n">
-        <v>26.43541971150087</v>
+        <v>39.38999914499731</v>
       </c>
       <c r="W11" t="n">
-        <v>181.8081192756778</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>93.0326729187541</v>
+        <v>16.44987894401855</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.219163361887752</v>
+        <v>36.41402620729512</v>
       </c>
       <c r="Z11" t="n">
-        <v>63.04366585920699</v>
+        <v>19.75452172416015</v>
       </c>
       <c r="AA11" t="n">
-        <v>48.67674561818193</v>
+        <v>38.71909054024595</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.92458778922365</v>
+        <v>75.85490002608751</v>
       </c>
       <c r="AC11" t="n">
-        <v>34.69863643720232</v>
+        <v>88.98297326838559</v>
       </c>
       <c r="AD11" t="n">
-        <v>28.58005456441669</v>
+        <v>9.715513427462398</v>
       </c>
       <c r="AE11" t="n">
-        <v>33.31106643444789</v>
+        <v>27.61573237536872</v>
       </c>
       <c r="AF11" t="n">
-        <v>61.58488566920516</v>
+        <v>22.14920892687673</v>
       </c>
       <c r="AG11" t="n">
-        <v>17.50787704031546</v>
+        <v>70.54072132443638</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.930039639841421</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>73.97631406076192</v>
+        <v>8.470054537931535</v>
       </c>
       <c r="AJ11" t="n">
-        <v>37.91686667255199</v>
+        <v>57.53932169757518</v>
       </c>
       <c r="AK11" t="n">
-        <v>31.91589185297079</v>
+        <v>33.44517386416277</v>
       </c>
       <c r="AL11" t="n">
-        <v>9.542244289610805</v>
+        <v>26.77316685819893</v>
       </c>
       <c r="AM11" t="n">
-        <v>28.18975269858897</v>
+        <v>26.19314217739521</v>
       </c>
       <c r="AN11" t="n">
-        <v>24.55787331216191</v>
+        <v>45.66242095897109</v>
       </c>
       <c r="AO11" t="n">
-        <v>4.357675323725387</v>
+        <v>10.00774651081743</v>
       </c>
       <c r="AP11" t="n">
-        <v>16.76583943502186</v>
+        <v>28.07052196844095</v>
       </c>
       <c r="AQ11" t="n">
-        <v>31.77452692196163</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>23.21042771628683</v>
+        <v>22.5164893229836</v>
       </c>
       <c r="AS11" t="n">
-        <v>15.61603716746459</v>
+        <v>17.75543104384148</v>
       </c>
       <c r="AT11" t="n">
-        <v>40.09222586307277</v>
+        <v>33.96864170612331</v>
       </c>
       <c r="AU11" t="n">
-        <v>22.13787064052504</v>
+        <v>35.08976252501287</v>
       </c>
       <c r="AV11" t="n">
-        <v>37.60189892082799</v>
+        <v>33.92505178163938</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.56705434859604</v>
+        <v>9.602206602836819</v>
       </c>
       <c r="AX11" t="n">
-        <v>29.17259922317684</v>
+        <v>35.39433049964732</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.291980201809592</v>
+        <v>5.452669023736979</v>
       </c>
       <c r="D12" t="n">
-        <v>10.90209406816128</v>
+        <v>0.8601829354174313</v>
       </c>
       <c r="E12" t="n">
-        <v>3.144107775101587</v>
+        <v>0.3946454569455041</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06093337646273511</v>
+        <v>12.58115463826467</v>
       </c>
       <c r="G12" t="n">
-        <v>4.145645574197546</v>
+        <v>5.713950150030538</v>
       </c>
       <c r="H12" t="n">
-        <v>4.973471775861646</v>
+        <v>32.4568676557671</v>
       </c>
       <c r="I12" t="n">
-        <v>5.379632249834224</v>
+        <v>22.93553477913957</v>
       </c>
       <c r="J12" t="n">
-        <v>80.56655019912125</v>
+        <v>19.95041201231145</v>
       </c>
       <c r="K12" t="n">
-        <v>15.61040700401822</v>
+        <v>31.04874227133544</v>
       </c>
       <c r="L12" t="n">
-        <v>4.815735168437286</v>
+        <v>43.8202857443957</v>
       </c>
       <c r="M12" t="n">
-        <v>36.5186150356645</v>
+        <v>48.71468954129864</v>
       </c>
       <c r="N12" t="n">
-        <v>13.36130668971821</v>
+        <v>13.78021381736817</v>
       </c>
       <c r="O12" t="n">
-        <v>23.49641040427835</v>
+        <v>32.70141431797455</v>
       </c>
       <c r="P12" t="n">
-        <v>22.57313196784752</v>
+        <v>88.84659986491623</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.57664832904953</v>
+        <v>17.13942215412735</v>
       </c>
       <c r="R12" t="n">
-        <v>73.23541454433538</v>
+        <v>14.65233947699953</v>
       </c>
       <c r="S12" t="n">
-        <v>24.98731130207581</v>
+        <v>0.2022236258516301</v>
       </c>
       <c r="T12" t="n">
-        <v>50.9937204881621</v>
+        <v>18.05237931688674</v>
       </c>
       <c r="U12" t="n">
-        <v>6.751083243751746</v>
+        <v>10.7701464646432</v>
       </c>
       <c r="V12" t="n">
-        <v>4.306021516360113</v>
+        <v>13.19551117999862</v>
       </c>
       <c r="W12" t="n">
-        <v>14.98247443572726</v>
+        <v>12.9039541512379</v>
       </c>
       <c r="X12" t="n">
-        <v>4.023924684830992</v>
+        <v>40.77953012771731</v>
       </c>
       <c r="Y12" t="n">
-        <v>86.71950659736311</v>
+        <v>16.07537915904068</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.03348413607979</v>
+        <v>11.90900336628569</v>
       </c>
       <c r="AA12" t="n">
-        <v>12.37835060377932</v>
+        <v>16.64985910962855</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.073515692355254</v>
+        <v>5.699655169861373</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.73720998825259</v>
+        <v>22.72858346040643</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.127574933854419</v>
+        <v>10.36811902324572</v>
       </c>
       <c r="AE12" t="n">
-        <v>8.502114410122397</v>
+        <v>28.03798696251406</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.65228677982125</v>
+        <v>8.750228573164943</v>
       </c>
       <c r="AG12" t="n">
-        <v>6.879277379178601</v>
+        <v>15.38158745132808</v>
       </c>
       <c r="AH12" t="n">
-        <v>24.9626757259711</v>
+        <v>30.17686469878997</v>
       </c>
       <c r="AI12" t="n">
-        <v>5.780885941623084</v>
+        <v>8.121659285703094</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.42482470190198</v>
+        <v>2.7072920109242</v>
       </c>
       <c r="AK12" t="n">
-        <v>7.067703172280932</v>
+        <v>5.36882416136812</v>
       </c>
       <c r="AL12" t="n">
-        <v>4.710298627203084</v>
+        <v>3.542967394991392</v>
       </c>
       <c r="AM12" t="n">
-        <v>6.418561552628004</v>
+        <v>7.860864697514379</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.686641871601732</v>
+        <v>8.727585936378359</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.766880940549697</v>
+        <v>5.837018924012799</v>
       </c>
       <c r="AP12" t="n">
-        <v>6.297328058541718</v>
+        <v>2.485708143060827</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.44976290475291</v>
+        <v>2.905580450414292</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>5.131006616353947</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.533998090094392</v>
+        <v>1.704467363546628</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.789854972666725</v>
+        <v>1.058977268301703</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.62576585365859</v>
+        <v>0.9704650965247368</v>
       </c>
       <c r="AV12" t="n">
-        <v>3.268082107887162</v>
+        <v>0.08477404604307687</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.286588136045991</v>
+        <v>5.009892865545601</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.7018423649195</v>
+        <v>1.949304139376187</v>
       </c>
     </row>
     <row r="13">
@@ -2368,145 +2368,145 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8.904263774461258</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.323979105945394</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>24.6777010623368</v>
+        <v>8.380819343582928</v>
       </c>
       <c r="H13" t="n">
-        <v>7.378130449414765</v>
+        <v>30.68066034133754</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>28.99561203079868</v>
       </c>
       <c r="J13" t="n">
-        <v>28.64062458817714</v>
+        <v>53.60105796232574</v>
       </c>
       <c r="K13" t="n">
-        <v>21.51286604957411</v>
+        <v>100.966683835394</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>33.14812536360209</v>
       </c>
       <c r="M13" t="n">
-        <v>28.31937292606042</v>
+        <v>57.82997621283333</v>
       </c>
       <c r="N13" t="n">
-        <v>5.37251127055557</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>19.50978404438973</v>
+        <v>115.9999314150718</v>
       </c>
       <c r="P13" t="n">
-        <v>98.44354966535944</v>
+        <v>18.28068213837331</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.42888097960208</v>
+        <v>97.93417386880296</v>
       </c>
       <c r="R13" t="n">
-        <v>69.75366834729731</v>
+        <v>11.60561951981356</v>
       </c>
       <c r="S13" t="n">
-        <v>17.838926793994</v>
+        <v>41.76072676804609</v>
       </c>
       <c r="T13" t="n">
-        <v>71.29100264161876</v>
+        <v>3.808474966507436</v>
       </c>
       <c r="U13" t="n">
-        <v>36.93938491054321</v>
+        <v>69.08603005767992</v>
       </c>
       <c r="V13" t="n">
-        <v>39.78570721456819</v>
+        <v>18.78222322509153</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>109.8268278210727</v>
       </c>
       <c r="X13" t="n">
-        <v>13.81912026067685</v>
+        <v>12.67752881326698</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.08301933323254</v>
+        <v>92.20784158361769</v>
       </c>
       <c r="Z13" t="n">
-        <v>51.17888187899699</v>
+        <v>19.13198431221012</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.299940329598254</v>
+        <v>8.760296629984664</v>
       </c>
       <c r="AB13" t="n">
-        <v>24.64021901553377</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.724238994049574</v>
+        <v>9.669729001050325</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.542671654555644</v>
+        <v>28.15134329615847</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>14.14008884765457</v>
       </c>
       <c r="AF13" t="n">
-        <v>16.95447522803462</v>
+        <v>13.05051512631857</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.555439685981169</v>
+        <v>3.99496784666234</v>
       </c>
       <c r="AH13" t="n">
-        <v>9.426674138788147</v>
+        <v>12.04967487537214</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.831076948026768</v>
+        <v>8.366562823559759</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>17.26020860563442</v>
       </c>
       <c r="AK13" t="n">
-        <v>16.50656070860524</v>
+        <v>11.05499406665069</v>
       </c>
       <c r="AL13" t="n">
-        <v>5.98119499940748</v>
+        <v>5.163504681309262</v>
       </c>
       <c r="AM13" t="n">
-        <v>3.530926275152457</v>
+        <v>5.777556257721041</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.489575403014036</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>25.93738701275448</v>
+        <v>9.871024160661097</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.51338207046563</v>
+        <v>12.30693502834532</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.694892783762604</v>
+        <v>16.50004742211424</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>8.130747151890358</v>
       </c>
       <c r="AS13" t="n">
-        <v>10.97209475603133</v>
+        <v>3.381603387194945</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.763256410021098</v>
+        <v>2.808401104297604</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.314594017851466</v>
+        <v>4.636529769423222</v>
       </c>
       <c r="AV13" t="n">
-        <v>13.0670196908788</v>
+        <v>4.629952999872325</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.862461642442061</v>
+        <v>9.93233913102805</v>
       </c>
       <c r="AX13" t="n">
-        <v>10.336551044969</v>
+        <v>0.5525017766102791</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>17.81697367632449</v>
+        <v>35.63776513515305</v>
       </c>
       <c r="D14" t="n">
-        <v>43.99680005919316</v>
+        <v>19.00465006875891</v>
       </c>
       <c r="E14" t="n">
-        <v>13.05720153039354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>26.3707510316391</v>
+        <v>57.01027883188377</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>73.34561975246991</v>
+        <v>64.35399145209234</v>
       </c>
       <c r="J14" t="n">
-        <v>15.47760893516161</v>
+        <v>69.53892661457948</v>
       </c>
       <c r="K14" t="n">
-        <v>48.80601335493145</v>
+        <v>61.96819170027791</v>
       </c>
       <c r="L14" t="n">
-        <v>39.81154516893197</v>
+        <v>88.92875851343371</v>
       </c>
       <c r="M14" t="n">
-        <v>7.683195807705097</v>
+        <v>48.82946749763269</v>
       </c>
       <c r="N14" t="n">
-        <v>33.04584024194087</v>
+        <v>101.6221666630698</v>
       </c>
       <c r="O14" t="n">
-        <v>96.20826237859833</v>
+        <v>46.86907736642023</v>
       </c>
       <c r="P14" t="n">
-        <v>21.67160406966673</v>
+        <v>95.52388316827853</v>
       </c>
       <c r="Q14" t="n">
-        <v>19.08458366103688</v>
+        <v>68.7149895071714</v>
       </c>
       <c r="R14" t="n">
-        <v>52.56087995248568</v>
+        <v>43.28934397536342</v>
       </c>
       <c r="S14" t="n">
-        <v>45.41389744878417</v>
+        <v>34.48582528689266</v>
       </c>
       <c r="T14" t="n">
-        <v>29.80222035868764</v>
+        <v>104.0531868356076</v>
       </c>
       <c r="U14" t="n">
-        <v>63.62858595868451</v>
+        <v>32.91104921345693</v>
       </c>
       <c r="V14" t="n">
-        <v>124.4076230359219</v>
+        <v>13.68494741497715</v>
       </c>
       <c r="W14" t="n">
-        <v>35.11121864603729</v>
+        <v>90.95419782327993</v>
       </c>
       <c r="X14" t="n">
-        <v>44.6650635668088</v>
+        <v>30.42222281218122</v>
       </c>
       <c r="Y14" t="n">
-        <v>72.20834618287176</v>
+        <v>91.49947697938504</v>
       </c>
       <c r="Z14" t="n">
-        <v>142.2897923586206</v>
+        <v>131.645639824587</v>
       </c>
       <c r="AA14" t="n">
-        <v>54.67958480336949</v>
+        <v>142.531292820252</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.4428497057473</v>
+        <v>264.2233109068004</v>
       </c>
       <c r="AC14" t="n">
-        <v>97.63217254555566</v>
+        <v>110.6399245006983</v>
       </c>
       <c r="AD14" t="n">
-        <v>136.4314953530805</v>
+        <v>181.5112205006178</v>
       </c>
       <c r="AE14" t="n">
-        <v>70.21125559578817</v>
+        <v>103.8367998549058</v>
       </c>
       <c r="AF14" t="n">
-        <v>150.4674268578557</v>
+        <v>145.8657458127251</v>
       </c>
       <c r="AG14" t="n">
-        <v>143.7925522349447</v>
+        <v>102.3590585314698</v>
       </c>
       <c r="AH14" t="n">
-        <v>60.4950670929566</v>
+        <v>134.8618147466181</v>
       </c>
       <c r="AI14" t="n">
-        <v>100.6515920560834</v>
+        <v>55.25113120423048</v>
       </c>
       <c r="AJ14" t="n">
-        <v>44.72376681085216</v>
+        <v>65.38735825232112</v>
       </c>
       <c r="AK14" t="n">
-        <v>42.9846407471729</v>
+        <v>76.26214557969465</v>
       </c>
       <c r="AL14" t="n">
-        <v>45.88509866611503</v>
+        <v>71.05356436891664</v>
       </c>
       <c r="AM14" t="n">
-        <v>22.37145806400451</v>
+        <v>33.02980535705196</v>
       </c>
       <c r="AN14" t="n">
-        <v>29.54428564857233</v>
+        <v>11.87258388223112</v>
       </c>
       <c r="AO14" t="n">
-        <v>38.89886754284612</v>
+        <v>30.51941622783699</v>
       </c>
       <c r="AP14" t="n">
-        <v>18.59803979436467</v>
+        <v>28.46484950168058</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19.09521453264909</v>
+        <v>19.17474140485125</v>
       </c>
       <c r="AR14" t="n">
-        <v>21.01518751740557</v>
+        <v>25.66195693700976</v>
       </c>
       <c r="AS14" t="n">
-        <v>13.44558701271785</v>
+        <v>19.76595247569443</v>
       </c>
       <c r="AT14" t="n">
-        <v>17.02678439681572</v>
+        <v>21.83775734628881</v>
       </c>
       <c r="AU14" t="n">
-        <v>19.22491721349316</v>
+        <v>20.62476731258076</v>
       </c>
       <c r="AV14" t="n">
-        <v>29.08042745939344</v>
+        <v>15.9165456459777</v>
       </c>
       <c r="AW14" t="n">
-        <v>22.27121748312702</v>
+        <v>21.20319078516403</v>
       </c>
       <c r="AX14" t="n">
-        <v>27.24988904955766</v>
+        <v>15.63791534511113</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>3.223592045733362</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.452984477613587</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>5.564497635931705</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>8.283531165609105</v>
+        <v>7.910238860071578</v>
       </c>
       <c r="H15" t="n">
-        <v>2.747601236276789</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.736638948782611</v>
+        <v>3.650303820185762</v>
       </c>
       <c r="J15" t="n">
-        <v>4.649771648627398</v>
+        <v>3.220820924525143</v>
       </c>
       <c r="K15" t="n">
-        <v>4.572621448834013</v>
+        <v>1.557051356183904</v>
       </c>
       <c r="L15" t="n">
-        <v>4.601800223912955</v>
+        <v>1.931023004099707</v>
       </c>
       <c r="M15" t="n">
-        <v>7.462100108296552</v>
+        <v>0.6446214167308261</v>
       </c>
       <c r="N15" t="n">
-        <v>3.88793219620023</v>
+        <v>3.916825881004844</v>
       </c>
       <c r="O15" t="n">
-        <v>13.65299440249277</v>
+        <v>3.181287878895587</v>
       </c>
       <c r="P15" t="n">
-        <v>1.100979104102217</v>
+        <v>7.129831346945501</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.290521624506325</v>
+        <v>1.392920961171277</v>
       </c>
       <c r="R15" t="n">
-        <v>8.725740752427315</v>
+        <v>3.310635617589439</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.90852623281167</v>
       </c>
       <c r="T15" t="n">
-        <v>5.092565293287048</v>
+        <v>1.978724171678545</v>
       </c>
       <c r="U15" t="n">
-        <v>4.633957708725151</v>
+        <v>3.951303137009226</v>
       </c>
       <c r="V15" t="n">
-        <v>5.371292513628944</v>
+        <v>2.972055272280534</v>
       </c>
       <c r="W15" t="n">
-        <v>2.48200942776497</v>
+        <v>2.458358311285606</v>
       </c>
       <c r="X15" t="n">
-        <v>8.578135269597469</v>
+        <v>8.33286957980987</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.078329072007273</v>
+        <v>8.215702795302301</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.756485223553526</v>
+        <v>9.730376291896206</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.52135952153775</v>
+        <v>4.085568451531209</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.077418726417275</v>
+        <v>4.614100540079851</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.865298881294674</v>
+        <v>4.801629021100509</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.953087739371755</v>
+        <v>5.648852618963018</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.367209797267602</v>
+        <v>6.210926731035221</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.846318683743802</v>
+        <v>5.569050007313161</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.10757128920242</v>
+        <v>5.706307994875273</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.526413315044185</v>
+        <v>8.735048765625219</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.832274807835228</v>
+        <v>3.375505243428762</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.59575540887899</v>
+        <v>6.759733040940617</v>
       </c>
       <c r="AK15" t="n">
-        <v>5.621769306852411</v>
+        <v>4.166759335993742</v>
       </c>
       <c r="AL15" t="n">
-        <v>6.593846769850511</v>
+        <v>6.770779487212825</v>
       </c>
       <c r="AM15" t="n">
-        <v>6.4778321872164</v>
+        <v>4.02678863937533</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.467263312228877</v>
+        <v>2.888153086738876</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.56745627431665</v>
+        <v>2.840963963927275</v>
       </c>
       <c r="AP15" t="n">
-        <v>6.19827497518288</v>
+        <v>5.531277533200504</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3.654700551215657</v>
+        <v>4.56600207722379</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>3.456594278679881</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.823105682734865</v>
+        <v>3.942174309203111</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.611235785020168</v>
+        <v>4.898595640612477</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.9633218575163318</v>
+        <v>3.018589039491569</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.994794894813207</v>
+        <v>4.992225334188483</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.85230433222442</v>
+        <v>3.709346092548211</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.579608291568595</v>
+        <v>4.913067758765521</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>11.66170537425351</v>
+        <v>11.30111960670984</v>
       </c>
       <c r="D16" t="n">
-        <v>9.095506913300381</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>39.1322495965048</v>
+        <v>11.32912567919439</v>
       </c>
       <c r="F16" t="n">
-        <v>22.8422369936925</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>21.28968280665006</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>70.72738123400515</v>
+        <v>37.02597526288903</v>
       </c>
       <c r="I16" t="n">
-        <v>6.619885052222203</v>
+        <v>33.08535554074417</v>
       </c>
       <c r="J16" t="n">
-        <v>221.0673280301628</v>
+        <v>163.9290478353138</v>
       </c>
       <c r="K16" t="n">
-        <v>18.54816558217349</v>
+        <v>36.30996692586079</v>
       </c>
       <c r="L16" t="n">
-        <v>83.46942549886609</v>
+        <v>47.42652171295097</v>
       </c>
       <c r="M16" t="n">
-        <v>15.95673777032943</v>
+        <v>55.28856825400655</v>
       </c>
       <c r="N16" t="n">
-        <v>3.327392417593892</v>
+        <v>42.99773071747512</v>
       </c>
       <c r="O16" t="n">
-        <v>108.8345485566313</v>
+        <v>10.45693029779584</v>
       </c>
       <c r="P16" t="n">
-        <v>26.02134328013583</v>
+        <v>25.88241830587983</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.31267374487072</v>
+        <v>28.34006631934388</v>
       </c>
       <c r="R16" t="n">
-        <v>71.09712316915656</v>
+        <v>35.41196649912317</v>
       </c>
       <c r="S16" t="n">
-        <v>34.49806487410418</v>
+        <v>67.04989800493179</v>
       </c>
       <c r="T16" t="n">
-        <v>84.16472332029342</v>
+        <v>74.77229092732102</v>
       </c>
       <c r="U16" t="n">
-        <v>73.14776868733291</v>
+        <v>47.13139768705958</v>
       </c>
       <c r="V16" t="n">
-        <v>32.6039818264317</v>
+        <v>56.98555122473524</v>
       </c>
       <c r="W16" t="n">
-        <v>28.7433589168269</v>
+        <v>109.8816773435073</v>
       </c>
       <c r="X16" t="n">
-        <v>98.03998170832385</v>
+        <v>65.63237167131547</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.91077519015838</v>
+        <v>95.74679674679051</v>
       </c>
       <c r="Z16" t="n">
-        <v>99.47278153589677</v>
+        <v>102.4458036553161</v>
       </c>
       <c r="AA16" t="n">
-        <v>45.43115948873579</v>
+        <v>97.34782126121523</v>
       </c>
       <c r="AB16" t="n">
-        <v>37.65124696263709</v>
+        <v>64.08444679043761</v>
       </c>
       <c r="AC16" t="n">
-        <v>54.05227875487552</v>
+        <v>52.34893100072374</v>
       </c>
       <c r="AD16" t="n">
-        <v>82.35595958487342</v>
+        <v>104.3826369870283</v>
       </c>
       <c r="AE16" t="n">
-        <v>86.7797777648</v>
+        <v>120.132569596968</v>
       </c>
       <c r="AF16" t="n">
-        <v>55.77869304134005</v>
+        <v>91.37748201194529</v>
       </c>
       <c r="AG16" t="n">
-        <v>62.88008718381032</v>
+        <v>69.71273005927866</v>
       </c>
       <c r="AH16" t="n">
-        <v>130.8218646426451</v>
+        <v>41.56069108958325</v>
       </c>
       <c r="AI16" t="n">
-        <v>93.11791593040606</v>
+        <v>125.7951088356908</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30.03204535780248</v>
+        <v>109.270414123093</v>
       </c>
       <c r="AK16" t="n">
-        <v>73.98162679230647</v>
+        <v>74.08558680981496</v>
       </c>
       <c r="AL16" t="n">
-        <v>32.86369474783672</v>
+        <v>38.59478323800028</v>
       </c>
       <c r="AM16" t="n">
-        <v>20.96102993578931</v>
+        <v>22.44057038130081</v>
       </c>
       <c r="AN16" t="n">
-        <v>35.93117955497133</v>
+        <v>9.291457379105097</v>
       </c>
       <c r="AO16" t="n">
-        <v>32.43142948571275</v>
+        <v>13.91949147891874</v>
       </c>
       <c r="AP16" t="n">
-        <v>15.8992667966675</v>
+        <v>9.544045882369701</v>
       </c>
       <c r="AQ16" t="n">
-        <v>27.98064551049353</v>
+        <v>19.98876906323381</v>
       </c>
       <c r="AR16" t="n">
-        <v>17.499225540495</v>
+        <v>18.79595166801136</v>
       </c>
       <c r="AS16" t="n">
-        <v>7.026765150649776</v>
+        <v>19.63067454700778</v>
       </c>
       <c r="AT16" t="n">
-        <v>19.74056610870568</v>
+        <v>5.552003665328074</v>
       </c>
       <c r="AU16" t="n">
-        <v>5.660080157100456</v>
+        <v>10.08964486214243</v>
       </c>
       <c r="AV16" t="n">
-        <v>5.758400300915929</v>
+        <v>7.328915852593716</v>
       </c>
       <c r="AW16" t="n">
-        <v>9.803413852295513</v>
+        <v>6.078898303122481</v>
       </c>
       <c r="AX16" t="n">
-        <v>11.98489969543215</v>
+        <v>12.57394177344223</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>8.427613667964788</v>
+        <v>33.60488818606571</v>
       </c>
       <c r="D17" t="n">
-        <v>21.42981912139463</v>
+        <v>6.272991313529647</v>
       </c>
       <c r="E17" t="n">
-        <v>16.23329987341309</v>
+        <v>1.672390470155086</v>
       </c>
       <c r="F17" t="n">
-        <v>93.57923775222532</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.64838652914126</v>
+        <v>65.71309035177194</v>
       </c>
       <c r="H17" t="n">
-        <v>29.82660869598389</v>
+        <v>22.97221636977496</v>
       </c>
       <c r="I17" t="n">
-        <v>32.35820357850809</v>
+        <v>42.44283382258409</v>
       </c>
       <c r="J17" t="n">
-        <v>108.652347306623</v>
+        <v>6.977414904380211</v>
       </c>
       <c r="K17" t="n">
-        <v>5.065977630397221</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>92.18867665286268</v>
+        <v>16.68654618454686</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>47.90524212803896</v>
       </c>
       <c r="N17" t="n">
-        <v>306.1084701494415</v>
+        <v>109.7994009731523</v>
       </c>
       <c r="O17" t="n">
-        <v>28.9161463805664</v>
+        <v>52.14336191048282</v>
       </c>
       <c r="P17" t="n">
-        <v>11.65544559858553</v>
+        <v>196.5112548225196</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.85021827710823</v>
+        <v>66.83472533518463</v>
       </c>
       <c r="R17" t="n">
-        <v>54.28108356618363</v>
+        <v>28.80156344062319</v>
       </c>
       <c r="S17" t="n">
-        <v>38.40929684779759</v>
+        <v>43.72971661777463</v>
       </c>
       <c r="T17" t="n">
-        <v>37.61879160426765</v>
+        <v>106.8925567789659</v>
       </c>
       <c r="U17" t="n">
-        <v>117.5427021238826</v>
+        <v>70.91312793524192</v>
       </c>
       <c r="V17" t="n">
-        <v>10.22846113513458</v>
+        <v>79.96259348152742</v>
       </c>
       <c r="W17" t="n">
-        <v>25.25480686600109</v>
+        <v>59.91159661665915</v>
       </c>
       <c r="X17" t="n">
-        <v>91.72527668512529</v>
+        <v>98.19299565369781</v>
       </c>
       <c r="Y17" t="n">
-        <v>49.88176248952115</v>
+        <v>87.55761332682283</v>
       </c>
       <c r="Z17" t="n">
-        <v>22.0280698083365</v>
+        <v>41.97837898580649</v>
       </c>
       <c r="AA17" t="n">
-        <v>16.57217277168438</v>
+        <v>17.28693074433385</v>
       </c>
       <c r="AB17" t="n">
-        <v>31.72289718372709</v>
+        <v>47.30792888185334</v>
       </c>
       <c r="AC17" t="n">
-        <v>45.43817081114134</v>
+        <v>21.70310231751917</v>
       </c>
       <c r="AD17" t="n">
-        <v>16.12458497824528</v>
+        <v>8.604393931249513</v>
       </c>
       <c r="AE17" t="n">
-        <v>21.06841463278016</v>
+        <v>42.86424159389696</v>
       </c>
       <c r="AF17" t="n">
-        <v>25.60701124474326</v>
+        <v>19.34035004488842</v>
       </c>
       <c r="AG17" t="n">
-        <v>39.86700305379539</v>
+        <v>29.60897074810087</v>
       </c>
       <c r="AH17" t="n">
-        <v>45.6300672443662</v>
+        <v>15.5240181343043</v>
       </c>
       <c r="AI17" t="n">
-        <v>11.72532779680289</v>
+        <v>28.33918072999527</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30.22620409884299</v>
+        <v>19.07159244490245</v>
       </c>
       <c r="AK17" t="n">
-        <v>49.2053651359781</v>
+        <v>18.07445530960023</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>18.72440871792311</v>
       </c>
       <c r="AM17" t="n">
-        <v>27.73538218249866</v>
+        <v>25.51802373680332</v>
       </c>
       <c r="AN17" t="n">
-        <v>35.87071806860629</v>
+        <v>11.64973481017384</v>
       </c>
       <c r="AO17" t="n">
-        <v>4.940061716598835</v>
+        <v>20.22042296675441</v>
       </c>
       <c r="AP17" t="n">
-        <v>27.30655615212503</v>
+        <v>26.96224358123</v>
       </c>
       <c r="AQ17" t="n">
-        <v>46.13590170236337</v>
+        <v>31.00297498946368</v>
       </c>
       <c r="AR17" t="n">
-        <v>44.68573016286247</v>
+        <v>10.04891346440076</v>
       </c>
       <c r="AS17" t="n">
-        <v>20.83024812031364</v>
+        <v>20.79666721388764</v>
       </c>
       <c r="AT17" t="n">
-        <v>8.775683558551787</v>
+        <v>43.60225759336582</v>
       </c>
       <c r="AU17" t="n">
-        <v>33.61385221138433</v>
+        <v>16.02224350711413</v>
       </c>
       <c r="AV17" t="n">
-        <v>34.84147718845798</v>
+        <v>9.674509218806026</v>
       </c>
       <c r="AW17" t="n">
-        <v>16.82101875236982</v>
+        <v>25.97078263480746</v>
       </c>
       <c r="AX17" t="n">
-        <v>34.76772506185434</v>
+        <v>37.90765795738577</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3332851726721878</v>
+        <v>10.37358063505314</v>
       </c>
       <c r="D18" t="n">
-        <v>2.506730073044745</v>
+        <v>1.505355527547192</v>
       </c>
       <c r="E18" t="n">
-        <v>30.60643968006017</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>4.871401658173227</v>
+        <v>1.230724024530248</v>
       </c>
       <c r="H18" t="n">
-        <v>16.79464358635857</v>
+        <v>6.859142245290506</v>
       </c>
       <c r="I18" t="n">
-        <v>1.017081886924101</v>
+        <v>16.65877281247657</v>
       </c>
       <c r="J18" t="n">
-        <v>32.94367909271725</v>
+        <v>50.6717876767147</v>
       </c>
       <c r="K18" t="n">
-        <v>26.3203067925695</v>
+        <v>18.166551410641</v>
       </c>
       <c r="L18" t="n">
-        <v>19.37112943365493</v>
+        <v>6.079009784843044</v>
       </c>
       <c r="M18" t="n">
-        <v>25.07916590927756</v>
+        <v>12.30097004315117</v>
       </c>
       <c r="N18" t="n">
-        <v>49.22057838926482</v>
+        <v>5.839088479753844</v>
       </c>
       <c r="O18" t="n">
-        <v>43.96413347640769</v>
+        <v>25.34623726090742</v>
       </c>
       <c r="P18" t="n">
-        <v>35.10381906620682</v>
+        <v>53.00024546658591</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.78064939760698</v>
+        <v>3.484921345522314</v>
       </c>
       <c r="R18" t="n">
-        <v>13.74341876518806</v>
+        <v>29.05300805438821</v>
       </c>
       <c r="S18" t="n">
-        <v>33.37044191827368</v>
+        <v>44.50249647171108</v>
       </c>
       <c r="T18" t="n">
-        <v>6.718270391184797</v>
+        <v>5.49823911048441</v>
       </c>
       <c r="U18" t="n">
-        <v>19.94627148313283</v>
+        <v>18.07452828383428</v>
       </c>
       <c r="V18" t="n">
-        <v>27.59754111848241</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>20.88356040385343</v>
+        <v>20.87750393417134</v>
       </c>
       <c r="X18" t="n">
-        <v>24.36765676780293</v>
+        <v>19.71617976211695</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.16822200014964</v>
+        <v>36.94164178644928</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.170048892483743</v>
+        <v>15.73842690477872</v>
       </c>
       <c r="AA18" t="n">
-        <v>12.8468427299002</v>
+        <v>11.02234262795711</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.94444095628515</v>
+        <v>15.33167234221957</v>
       </c>
       <c r="AC18" t="n">
-        <v>30.99093390877524</v>
+        <v>24.54972563812474</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.889668980500222</v>
+        <v>18.2432836762319</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.867496398889456</v>
+        <v>23.66419237057185</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.44607127335414</v>
+        <v>20.63610046012932</v>
       </c>
       <c r="AG18" t="n">
-        <v>19.0065683281296</v>
+        <v>8.499716409330681</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.63973992667045</v>
+        <v>11.28766946957499</v>
       </c>
       <c r="AI18" t="n">
-        <v>18.29687571025313</v>
+        <v>10.4056901631323</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12.35233779149857</v>
+        <v>7.250205460661205</v>
       </c>
       <c r="AK18" t="n">
-        <v>7.23820658163851</v>
+        <v>9.899440078549404</v>
       </c>
       <c r="AL18" t="n">
-        <v>2.933999716768047</v>
+        <v>3.709878848022059</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.585676947190409</v>
+        <v>4.363906264893519</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.217071466961668</v>
+        <v>4.342746278870274</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.819994893272008</v>
+        <v>6.607234144786362</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.502203130623308</v>
+        <v>1.984075109621861</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.7771710461860446</v>
+        <v>2.504139910893463</v>
       </c>
       <c r="AR18" t="n">
-        <v>4.8580159956863</v>
+        <v>7.496920773885228</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.122509971408993</v>
+        <v>1.309531989943971</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.534027715627917</v>
+        <v>5.796978478580966</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>2.766733198804004</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.968992308965448</v>
+        <v>3.81464338593457</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.4435024344072911</v>
+        <v>3.004940982713014</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.167793856946209</v>
+        <v>1.977599206556678</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>9.300577060229754</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>5.855329916939745</v>
+        <v>24.22990760529864</v>
       </c>
       <c r="E19" t="n">
-        <v>1.722999014288481</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.672543880441897</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>35.07701216106013</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.583671271209329</v>
+        <v>10.66204454124136</v>
       </c>
       <c r="I19" t="n">
-        <v>4.294004499821788</v>
+        <v>8.514732339169765</v>
       </c>
       <c r="J19" t="n">
-        <v>18.14755150316907</v>
+        <v>13.59840042728716</v>
       </c>
       <c r="K19" t="n">
-        <v>46.83311401738396</v>
+        <v>10.65163451602454</v>
       </c>
       <c r="L19" t="n">
-        <v>72.21795911235479</v>
+        <v>21.34000187748384</v>
       </c>
       <c r="M19" t="n">
-        <v>58.69186403872654</v>
+        <v>12.28688992541608</v>
       </c>
       <c r="N19" t="n">
-        <v>82.06334174177451</v>
+        <v>16.63193726098124</v>
       </c>
       <c r="O19" t="n">
-        <v>4.207452456386145</v>
+        <v>21.27350793690939</v>
       </c>
       <c r="P19" t="n">
-        <v>18.73716821597477</v>
+        <v>41.75740186023314</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.509965844352077</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.32203336304251</v>
+        <v>49.8102595586639</v>
       </c>
       <c r="S19" t="n">
-        <v>74.71854859354148</v>
+        <v>49.86568043713173</v>
       </c>
       <c r="T19" t="n">
-        <v>28.09416058463766</v>
+        <v>33.74120238181985</v>
       </c>
       <c r="U19" t="n">
-        <v>42.6563134923857</v>
+        <v>67.83507490320277</v>
       </c>
       <c r="V19" t="n">
-        <v>27.08638970684201</v>
+        <v>30.12379978812899</v>
       </c>
       <c r="W19" t="n">
-        <v>2.617028417079809</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>28.72004894948985</v>
+        <v>20.17643390730913</v>
       </c>
       <c r="Y19" t="n">
-        <v>25.95673231027515</v>
+        <v>23.59166496247433</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.45016374056422</v>
+        <v>3.291275955312894</v>
       </c>
       <c r="AA19" t="n">
-        <v>17.15570115155969</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.924532075687031</v>
+        <v>16.38454733476462</v>
       </c>
       <c r="AC19" t="n">
-        <v>36.82241999759113</v>
+        <v>3.10576018895118</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>6.255027812598519</v>
       </c>
       <c r="AE19" t="n">
-        <v>23.34682860290778</v>
+        <v>1.473710856810269</v>
       </c>
       <c r="AF19" t="n">
-        <v>21.8515024805032</v>
+        <v>4.74040949946352</v>
       </c>
       <c r="AG19" t="n">
-        <v>46.83550418655054</v>
+        <v>17.60518672837534</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.394527557355448</v>
+        <v>7.627761339930847</v>
       </c>
       <c r="AI19" t="n">
-        <v>42.48896330466614</v>
+        <v>4.812922291667335</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>7.081092418359461</v>
       </c>
       <c r="AK19" t="n">
-        <v>35.48839928050376</v>
+        <v>9.548876858439145</v>
       </c>
       <c r="AL19" t="n">
-        <v>4.166970169911789</v>
+        <v>5.671649384448167</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.0207427996285614</v>
+        <v>18.92577742719421</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>10.11490044592495</v>
       </c>
       <c r="AO19" t="n">
-        <v>23.69869225389986</v>
+        <v>73.48556612416297</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>7.310280195535484</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.803469815302719</v>
+        <v>16.50620530626214</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>6.799218437878531</v>
+        <v>17.14036132266675</v>
       </c>
       <c r="AT19" t="n">
-        <v>13.4317619779156</v>
+        <v>15.67538815703967</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.6732739829047594</v>
+        <v>13.34418730146205</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.9190046840921657</v>
+        <v>21.29893877527062</v>
       </c>
       <c r="AX19" t="n">
-        <v>15.61222200174718</v>
+        <v>6.567500341099614</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>17.94225010125836</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>14.86781380498736</v>
+        <v>21.149306271148</v>
       </c>
       <c r="E20" t="n">
-        <v>35.73857806986528</v>
+        <v>14.02669376516319</v>
       </c>
       <c r="F20" t="n">
-        <v>18.63640166504726</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>93.17833993231558</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>17.82925502820979</v>
+        <v>33.16285471152584</v>
       </c>
       <c r="I20" t="n">
-        <v>151.8374759453573</v>
+        <v>2.970341535829853</v>
       </c>
       <c r="J20" t="n">
-        <v>51.71882121577779</v>
+        <v>82.31377350832535</v>
       </c>
       <c r="K20" t="n">
-        <v>44.32728921329716</v>
+        <v>53.13261374504116</v>
       </c>
       <c r="L20" t="n">
-        <v>94.07643233876354</v>
+        <v>184.123524838313</v>
       </c>
       <c r="M20" t="n">
-        <v>36.472375967214</v>
+        <v>43.33428659454115</v>
       </c>
       <c r="N20" t="n">
-        <v>157.1570269080784</v>
+        <v>22.74461960775339</v>
       </c>
       <c r="O20" t="n">
-        <v>75.53225832025066</v>
+        <v>65.21583922482067</v>
       </c>
       <c r="P20" t="n">
-        <v>158.4655053454065</v>
+        <v>89.66712137263795</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.9611225516977</v>
+        <v>38.38584745225047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>64.84877809640486</v>
       </c>
       <c r="S20" t="n">
-        <v>43.16030159918938</v>
+        <v>42.60255410519181</v>
       </c>
       <c r="T20" t="n">
-        <v>87.83096953708689</v>
+        <v>75.20602873334849</v>
       </c>
       <c r="U20" t="n">
-        <v>44.15488194665856</v>
+        <v>26.15639251305807</v>
       </c>
       <c r="V20" t="n">
-        <v>146.7413979061459</v>
+        <v>24.7581600303357</v>
       </c>
       <c r="W20" t="n">
-        <v>53.71386950284846</v>
+        <v>128.5152080012785</v>
       </c>
       <c r="X20" t="n">
-        <v>152.2068987702975</v>
+        <v>37.90922901712718</v>
       </c>
       <c r="Y20" t="n">
-        <v>49.43209031151223</v>
+        <v>42.66687789685716</v>
       </c>
       <c r="Z20" t="n">
-        <v>102.4682030163816</v>
+        <v>35.76798064977991</v>
       </c>
       <c r="AA20" t="n">
-        <v>66.69473452348396</v>
+        <v>106.6191541623703</v>
       </c>
       <c r="AB20" t="n">
-        <v>108.5371436633898</v>
+        <v>94.67153192277277</v>
       </c>
       <c r="AC20" t="n">
-        <v>122.1833319900916</v>
+        <v>102.710942485081</v>
       </c>
       <c r="AD20" t="n">
-        <v>140.6880932084206</v>
+        <v>113.2179695710783</v>
       </c>
       <c r="AE20" t="n">
-        <v>169.481684490748</v>
+        <v>99.62891186376334</v>
       </c>
       <c r="AF20" t="n">
-        <v>86.75532024839612</v>
+        <v>40.58475155187217</v>
       </c>
       <c r="AG20" t="n">
-        <v>108.1541009097022</v>
+        <v>83.14590505039524</v>
       </c>
       <c r="AH20" t="n">
-        <v>21.85703579306004</v>
+        <v>100.3663939385829</v>
       </c>
       <c r="AI20" t="n">
-        <v>141.8011163480847</v>
+        <v>139.3765785302567</v>
       </c>
       <c r="AJ20" t="n">
-        <v>44.96258788349861</v>
+        <v>65.69363756846263</v>
       </c>
       <c r="AK20" t="n">
-        <v>80.91028361350349</v>
+        <v>43.47837229579312</v>
       </c>
       <c r="AL20" t="n">
-        <v>35.41808538316259</v>
+        <v>31.54052093333065</v>
       </c>
       <c r="AM20" t="n">
-        <v>51.23691652332515</v>
+        <v>67.31477960030678</v>
       </c>
       <c r="AN20" t="n">
-        <v>26.14535297432394</v>
+        <v>43.17302225759525</v>
       </c>
       <c r="AO20" t="n">
-        <v>37.54886952102459</v>
+        <v>30.30889564992842</v>
       </c>
       <c r="AP20" t="n">
-        <v>47.19085201886342</v>
+        <v>20.64226947061326</v>
       </c>
       <c r="AQ20" t="n">
-        <v>27.10074321994608</v>
+        <v>36.7878501145914</v>
       </c>
       <c r="AR20" t="n">
-        <v>21.89118329083253</v>
+        <v>28.4158327012052</v>
       </c>
       <c r="AS20" t="n">
-        <v>18.85048670566011</v>
+        <v>17.56559637940316</v>
       </c>
       <c r="AT20" t="n">
-        <v>26.91144634134464</v>
+        <v>25.72141438572551</v>
       </c>
       <c r="AU20" t="n">
-        <v>16.97812167410558</v>
+        <v>19.09159847115362</v>
       </c>
       <c r="AV20" t="n">
-        <v>24.48431200502574</v>
+        <v>27.57903597919544</v>
       </c>
       <c r="AW20" t="n">
-        <v>12.24138861736462</v>
+        <v>22.179140177696</v>
       </c>
       <c r="AX20" t="n">
-        <v>18.76270173978854</v>
+        <v>20.65394215705905</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.783384668188508</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.270598208677831</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>3.973781626081196</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3.282716350561772</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.45522579630696</v>
+        <v>2.269129545303542</v>
       </c>
       <c r="H21" t="n">
-        <v>3.17680986408084</v>
+        <v>2.032626191960576</v>
       </c>
       <c r="I21" t="n">
-        <v>1.050339574608334</v>
+        <v>2.122491654700109</v>
       </c>
       <c r="J21" t="n">
-        <v>5.567235053875796</v>
+        <v>4.575497287309913</v>
       </c>
       <c r="K21" t="n">
-        <v>2.475585232145103</v>
+        <v>1.36604107666295</v>
       </c>
       <c r="L21" t="n">
-        <v>2.459326644530257</v>
+        <v>3.413496649274954</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7515352425190274</v>
+        <v>20.99776254684695</v>
       </c>
       <c r="N21" t="n">
-        <v>5.708092169454845</v>
+        <v>6.741048538089275</v>
       </c>
       <c r="O21" t="n">
-        <v>6.524212385862043</v>
+        <v>11.80678157637825</v>
       </c>
       <c r="P21" t="n">
-        <v>5.627566546376463</v>
+        <v>2.768743957432313</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1.995204128018307</v>
       </c>
       <c r="R21" t="n">
-        <v>4.194506899292799</v>
+        <v>5.029429678067054</v>
       </c>
       <c r="S21" t="n">
-        <v>0.4816620184970066</v>
+        <v>6.467680317969246</v>
       </c>
       <c r="T21" t="n">
-        <v>5.639132070642826</v>
+        <v>0.7545589047140465</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.949690958653131</v>
       </c>
       <c r="V21" t="n">
-        <v>3.386023783861457</v>
+        <v>0.644520982401833</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.448808168960769</v>
       </c>
       <c r="X21" t="n">
-        <v>4.325360439416375</v>
+        <v>4.711208076113468</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.936360205249813</v>
+        <v>5.841367905316645</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.480323805508843</v>
+        <v>5.292520389999773</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.042709434925832</v>
+        <v>4.292795585008628</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.260964553798263</v>
+        <v>5.102738748066782</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.506913639222415</v>
+        <v>4.588922791841715</v>
       </c>
       <c r="AD21" t="n">
-        <v>5.644664734165239</v>
+        <v>3.235486936361867</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.646454026432655</v>
+        <v>1.978103163691421</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.299702948085909</v>
+        <v>6.590150021301842</v>
       </c>
       <c r="AG21" t="n">
-        <v>4.624742064620856</v>
+        <v>6.556690108003774</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.540078191359123</v>
+        <v>7.206620156879993</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.325402986276162</v>
+        <v>10.22831402101353</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6.024186927531797</v>
+        <v>5.468978645489059</v>
       </c>
       <c r="AK21" t="n">
-        <v>9.885145201817096</v>
+        <v>6.828293420632585</v>
       </c>
       <c r="AL21" t="n">
-        <v>3.245885433810693</v>
+        <v>7.005161788448131</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.086381394898234</v>
+        <v>3.958199032797377</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.897012964375449</v>
+        <v>5.289322512853142</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.442844604399374</v>
+        <v>4.079905207513732</v>
       </c>
       <c r="AP21" t="n">
-        <v>6.187032683107866</v>
+        <v>3.440470037167072</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.615215951040797</v>
+        <v>2.924577935352522</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.020531038527624</v>
+        <v>1.910088934489466</v>
       </c>
       <c r="AS21" t="n">
-        <v>6.790221330284355</v>
+        <v>5.13625675925363</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.450654812619971</v>
+        <v>2.179920449811688</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.1595774327559108</v>
+        <v>6.964773518815628</v>
       </c>
       <c r="AV21" t="n">
-        <v>2.675206425496948</v>
+        <v>7.756691805400992</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.434226732614681</v>
+        <v>11.05625419431029</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.289569871988289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>9.201514824553779</v>
+        <v>12.17101274627753</v>
       </c>
       <c r="D22" t="n">
-        <v>8.960808043266457</v>
+        <v>6.253046314719</v>
       </c>
       <c r="E22" t="n">
-        <v>3.179498983672694</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>33.80631527282296</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>19.55001666034425</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.99696688590796</v>
+        <v>2.460257963438134</v>
       </c>
       <c r="I22" t="n">
-        <v>3.980932074987051</v>
+        <v>144.4195144734096</v>
       </c>
       <c r="J22" t="n">
-        <v>173.9777657532899</v>
+        <v>31.63656963804083</v>
       </c>
       <c r="K22" t="n">
-        <v>118.0762061270547</v>
+        <v>97.13489354254598</v>
       </c>
       <c r="L22" t="n">
-        <v>51.35391648570865</v>
+        <v>31.15839412214231</v>
       </c>
       <c r="M22" t="n">
-        <v>79.64382527497798</v>
+        <v>10.85785081538643</v>
       </c>
       <c r="N22" t="n">
-        <v>186.6260208204907</v>
+        <v>45.74025143001651</v>
       </c>
       <c r="O22" t="n">
-        <v>58.57509974424532</v>
+        <v>26.31642844719158</v>
       </c>
       <c r="P22" t="n">
-        <v>56.11821518474905</v>
+        <v>79.08473358181541</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.04132584627931</v>
+        <v>39.33323065595823</v>
       </c>
       <c r="R22" t="n">
-        <v>80.90807178505325</v>
+        <v>44.87525651117316</v>
       </c>
       <c r="S22" t="n">
-        <v>56.46857358268966</v>
+        <v>92.67904826394852</v>
       </c>
       <c r="T22" t="n">
-        <v>66.35350932082719</v>
+        <v>79.56388338511847</v>
       </c>
       <c r="U22" t="n">
-        <v>56.11122304571075</v>
+        <v>48.41040828571258</v>
       </c>
       <c r="V22" t="n">
-        <v>30.06987552427283</v>
+        <v>52.10790516999289</v>
       </c>
       <c r="W22" t="n">
-        <v>58.79536289737966</v>
+        <v>22.22188754120697</v>
       </c>
       <c r="X22" t="n">
-        <v>28.69130866022546</v>
+        <v>29.85604369008065</v>
       </c>
       <c r="Y22" t="n">
-        <v>49.67651965723053</v>
+        <v>53.38104707392596</v>
       </c>
       <c r="Z22" t="n">
-        <v>42.77270389392745</v>
+        <v>45.77899331060828</v>
       </c>
       <c r="AA22" t="n">
-        <v>81.01577657090772</v>
+        <v>51.9590580176308</v>
       </c>
       <c r="AB22" t="n">
-        <v>54.42557915441159</v>
+        <v>32.78603717379912</v>
       </c>
       <c r="AC22" t="n">
-        <v>67.0124817148368</v>
+        <v>114.427087264786</v>
       </c>
       <c r="AD22" t="n">
-        <v>81.6549911788323</v>
+        <v>90.92750625884973</v>
       </c>
       <c r="AE22" t="n">
-        <v>64.97534146003289</v>
+        <v>96.71147000612815</v>
       </c>
       <c r="AF22" t="n">
-        <v>105.8599566719423</v>
+        <v>102.2099694071271</v>
       </c>
       <c r="AG22" t="n">
-        <v>158.2724291850652</v>
+        <v>102.9052701526546</v>
       </c>
       <c r="AH22" t="n">
-        <v>67.80868490448185</v>
+        <v>70.02555211748492</v>
       </c>
       <c r="AI22" t="n">
-        <v>33.71034279364062</v>
+        <v>32.0941375793689</v>
       </c>
       <c r="AJ22" t="n">
-        <v>45.21339590913443</v>
+        <v>67.53265893657758</v>
       </c>
       <c r="AK22" t="n">
-        <v>32.0802468258647</v>
+        <v>76.38448944793907</v>
       </c>
       <c r="AL22" t="n">
-        <v>31.2267754443124</v>
+        <v>36.12196753611607</v>
       </c>
       <c r="AM22" t="n">
-        <v>53.60661390589004</v>
+        <v>8.961043074847977</v>
       </c>
       <c r="AN22" t="n">
-        <v>33.49847215165792</v>
+        <v>13.40052101074713</v>
       </c>
       <c r="AO22" t="n">
-        <v>16.90688252826759</v>
+        <v>14.38612279163437</v>
       </c>
       <c r="AP22" t="n">
-        <v>8.65562400518461</v>
+        <v>22.38273266708498</v>
       </c>
       <c r="AQ22" t="n">
-        <v>24.87462613086488</v>
+        <v>9.366677818769517</v>
       </c>
       <c r="AR22" t="n">
-        <v>6.385976064049116</v>
+        <v>14.89382652347551</v>
       </c>
       <c r="AS22" t="n">
-        <v>13.54487665102553</v>
+        <v>26.35414288013977</v>
       </c>
       <c r="AT22" t="n">
-        <v>9.880809192149533</v>
+        <v>8.231773736933421</v>
       </c>
       <c r="AU22" t="n">
-        <v>11.39066486326212</v>
+        <v>11.3589493938005</v>
       </c>
       <c r="AV22" t="n">
-        <v>9.354578823320855</v>
+        <v>8.306236054019479</v>
       </c>
       <c r="AW22" t="n">
-        <v>17.96254818106954</v>
+        <v>4.152374235405421</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.698965981122461</v>
+        <v>12.33164050781171</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>22.99160497553408</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>15.58083051692404</v>
+        <v>6.261719310327591</v>
       </c>
       <c r="E23" t="n">
-        <v>2.764962779838434</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>41.30859880066528</v>
+        <v>15.06137771326634</v>
       </c>
       <c r="G23" t="n">
-        <v>29.10274663345283</v>
+        <v>10.17479677633592</v>
       </c>
       <c r="H23" t="n">
-        <v>50.08944247043438</v>
+        <v>17.4007117167401</v>
       </c>
       <c r="I23" t="n">
-        <v>31.28087663812775</v>
+        <v>90.24242675895506</v>
       </c>
       <c r="J23" t="n">
-        <v>71.44325677805664</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>245.4227048521285</v>
+        <v>93.99904999754187</v>
       </c>
       <c r="L23" t="n">
-        <v>55.24474140735374</v>
+        <v>117.8974171011013</v>
       </c>
       <c r="M23" t="n">
-        <v>79.48421856214171</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>56.04407981667795</v>
+        <v>37.35616766106698</v>
       </c>
       <c r="O23" t="n">
-        <v>84.65848338306596</v>
+        <v>0.5212880167678797</v>
       </c>
       <c r="P23" t="n">
-        <v>122.743337840017</v>
+        <v>118.8318460727534</v>
       </c>
       <c r="Q23" t="n">
-        <v>27.31358164073299</v>
+        <v>66.42423640202462</v>
       </c>
       <c r="R23" t="n">
-        <v>40.88004906484169</v>
+        <v>2.415020965328122</v>
       </c>
       <c r="S23" t="n">
-        <v>17.61961817828966</v>
+        <v>46.70656412454581</v>
       </c>
       <c r="T23" t="n">
-        <v>116.4022842629987</v>
+        <v>49.09597406179745</v>
       </c>
       <c r="U23" t="n">
-        <v>35.8504045347488</v>
+        <v>37.04572153142901</v>
       </c>
       <c r="V23" t="n">
-        <v>79.41417688018517</v>
+        <v>41.27332282413714</v>
       </c>
       <c r="W23" t="n">
-        <v>20.90917362474424</v>
+        <v>38.79613345881309</v>
       </c>
       <c r="X23" t="n">
-        <v>9.002935653002464</v>
+        <v>54.68659219092195</v>
       </c>
       <c r="Y23" t="n">
-        <v>51.29988177322696</v>
+        <v>51.77152367635459</v>
       </c>
       <c r="Z23" t="n">
-        <v>39.62453959900371</v>
+        <v>36.38511099145997</v>
       </c>
       <c r="AA23" t="n">
-        <v>10.15130647469034</v>
+        <v>39.01453134094369</v>
       </c>
       <c r="AB23" t="n">
-        <v>68.47357958017176</v>
+        <v>65.77899463955387</v>
       </c>
       <c r="AC23" t="n">
-        <v>23.03769812204767</v>
+        <v>93.20810401624499</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.46750506174296</v>
+        <v>47.51483062659899</v>
       </c>
       <c r="AE23" t="n">
-        <v>63.80239015022879</v>
+        <v>34.91453889642707</v>
       </c>
       <c r="AF23" t="n">
-        <v>35.30225956707093</v>
+        <v>51.55448427670554</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.846855419594352</v>
+        <v>36.12326622183732</v>
       </c>
       <c r="AH23" t="n">
-        <v>9.403250522132712</v>
+        <v>11.75040821287838</v>
       </c>
       <c r="AI23" t="n">
-        <v>60.23991303353397</v>
+        <v>37.83497830191421</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11.17944538059673</v>
+        <v>43.15653077935527</v>
       </c>
       <c r="AK23" t="n">
-        <v>20.73261262356313</v>
+        <v>18.64390201170599</v>
       </c>
       <c r="AL23" t="n">
-        <v>55.28482323686394</v>
+        <v>33.72072427291204</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.4271801408819473</v>
+        <v>24.36054507747648</v>
       </c>
       <c r="AN23" t="n">
-        <v>29.50829850179481</v>
+        <v>25.15117758450291</v>
       </c>
       <c r="AO23" t="n">
-        <v>11.09976274004017</v>
+        <v>13.21943199740581</v>
       </c>
       <c r="AP23" t="n">
-        <v>27.50611429194003</v>
+        <v>12.49974492366492</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26.46646928258392</v>
+        <v>17.51003142999547</v>
       </c>
       <c r="AR23" t="n">
-        <v>23.62629298489885</v>
+        <v>41.55914769902554</v>
       </c>
       <c r="AS23" t="n">
-        <v>22.94296274272902</v>
+        <v>25.94109478354031</v>
       </c>
       <c r="AT23" t="n">
-        <v>7.072197041795272</v>
+        <v>26.10672043794496</v>
       </c>
       <c r="AU23" t="n">
-        <v>5.115860349141861</v>
+        <v>42.33948282472937</v>
       </c>
       <c r="AV23" t="n">
-        <v>13.68183817052488</v>
+        <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>25.61997162937687</v>
+        <v>44.0154817806622</v>
       </c>
       <c r="AX23" t="n">
-        <v>35.14889977437436</v>
+        <v>26.83166963792167</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>4.222742191786991</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.064293416518759</v>
+        <v>6.105066181257618</v>
       </c>
       <c r="E24" t="n">
-        <v>3.935792740888718</v>
+        <v>4.830447680035497</v>
       </c>
       <c r="F24" t="n">
-        <v>4.672256494052228</v>
+        <v>4.269900467494311</v>
       </c>
       <c r="G24" t="n">
-        <v>9.799774535105687</v>
+        <v>10.36755731604143</v>
       </c>
       <c r="H24" t="n">
-        <v>4.429165895744473</v>
+        <v>4.940152062656477</v>
       </c>
       <c r="I24" t="n">
-        <v>0.03486152785134733</v>
+        <v>13.49615712764598</v>
       </c>
       <c r="J24" t="n">
-        <v>39.61996005468851</v>
+        <v>33.29122512202824</v>
       </c>
       <c r="K24" t="n">
-        <v>5.738623936725125</v>
+        <v>22.43127897218179</v>
       </c>
       <c r="L24" t="n">
-        <v>28.39504655418703</v>
+        <v>14.5272743354618</v>
       </c>
       <c r="M24" t="n">
-        <v>30.6465283059048</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>90.60920067813996</v>
+        <v>61.73644647717504</v>
       </c>
       <c r="O24" t="n">
-        <v>33.25991759182516</v>
+        <v>44.65845673719112</v>
       </c>
       <c r="P24" t="n">
-        <v>18.72206872949398</v>
+        <v>26.21100072654358</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.96517797060717</v>
+        <v>15.3518858841623</v>
       </c>
       <c r="R24" t="n">
-        <v>33.20845252762156</v>
+        <v>12.59467364332217</v>
       </c>
       <c r="S24" t="n">
-        <v>55.83766060376653</v>
+        <v>36.13837949778014</v>
       </c>
       <c r="T24" t="n">
-        <v>11.50771285387525</v>
+        <v>23.13108249052318</v>
       </c>
       <c r="U24" t="n">
-        <v>13.75393881750033</v>
+        <v>27.62842538649099</v>
       </c>
       <c r="V24" t="n">
-        <v>15.3311617882751</v>
+        <v>3.97346546290169</v>
       </c>
       <c r="W24" t="n">
-        <v>20.32080463245248</v>
+        <v>7.762225763323072</v>
       </c>
       <c r="X24" t="n">
-        <v>13.34785476076687</v>
+        <v>29.81506243113675</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.303012049063708</v>
+        <v>18.80441403745025</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.11764207019845</v>
+        <v>8.980888800356631</v>
       </c>
       <c r="AA24" t="n">
-        <v>15.39923729682802</v>
+        <v>16.73354338489411</v>
       </c>
       <c r="AB24" t="n">
-        <v>25.78803849039348</v>
+        <v>11.33118023824226</v>
       </c>
       <c r="AC24" t="n">
-        <v>14.61090180631741</v>
+        <v>13.74191577132167</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.54840592427054</v>
+        <v>3.100180828947866</v>
       </c>
       <c r="AE24" t="n">
-        <v>13.98512713588491</v>
+        <v>16.64347348127359</v>
       </c>
       <c r="AF24" t="n">
-        <v>15.17946883237883</v>
+        <v>21.82747585793626</v>
       </c>
       <c r="AG24" t="n">
-        <v>21.19612142159384</v>
+        <v>18.02825041936051</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.339857191879057</v>
+        <v>5.171062225213072</v>
       </c>
       <c r="AI24" t="n">
-        <v>25.02860110447852</v>
+        <v>7.769645318527645</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11.19272526829565</v>
+        <v>7.749641744548456</v>
       </c>
       <c r="AK24" t="n">
-        <v>4.359990596866625</v>
+        <v>10.33372913361937</v>
       </c>
       <c r="AL24" t="n">
-        <v>4.318499206221228</v>
+        <v>5.294892478264327</v>
       </c>
       <c r="AM24" t="n">
-        <v>5.604018888134881</v>
+        <v>1.95317088130462</v>
       </c>
       <c r="AN24" t="n">
-        <v>1.900879594456626</v>
+        <v>5.953075091429656</v>
       </c>
       <c r="AO24" t="n">
-        <v>2.874192277975864</v>
+        <v>0.8540605034021469</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.572919625460728</v>
+        <v>5.009199564528846</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.758591403489348</v>
+        <v>2.752771288562147</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.130827265765337</v>
+        <v>3.180688674449829</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.674930243569912</v>
+        <v>3.844897032889293</v>
       </c>
       <c r="AT24" t="n">
-        <v>5.277195447488483</v>
+        <v>1.844746285402152</v>
       </c>
       <c r="AU24" t="n">
-        <v>3.140870368299261</v>
+        <v>1.88764176845068</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.195156553323759</v>
+        <v>0.7097377861719701</v>
       </c>
       <c r="AW24" t="n">
-        <v>2.896622233007673</v>
+        <v>0.541950860469356</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.140599790746885</v>
+        <v>0.5259842280578871</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>2.802703632851257</v>
+        <v>12.78985437352999</v>
       </c>
       <c r="D25" t="n">
-        <v>31.95533229977431</v>
+        <v>7.030360727291983</v>
       </c>
       <c r="E25" t="n">
-        <v>3.134288269021156</v>
+        <v>1.464724886377799</v>
       </c>
       <c r="F25" t="n">
-        <v>5.656902480461907</v>
+        <v>14.2682958326577</v>
       </c>
       <c r="G25" t="n">
-        <v>45.35774821562251</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>41.30245641303726</v>
+        <v>91.33370881513898</v>
       </c>
       <c r="I25" t="n">
-        <v>6.734980285327815</v>
+        <v>20.86589707215659</v>
       </c>
       <c r="J25" t="n">
-        <v>14.90683690355235</v>
+        <v>20.8508402951939</v>
       </c>
       <c r="K25" t="n">
-        <v>3.057706517310845</v>
+        <v>100.1274646131471</v>
       </c>
       <c r="L25" t="n">
-        <v>8.119038527959166</v>
+        <v>22.75214808967796</v>
       </c>
       <c r="M25" t="n">
-        <v>87.06318050001025</v>
+        <v>63.99390567681514</v>
       </c>
       <c r="N25" t="n">
-        <v>54.67874868224337</v>
+        <v>44.75568405906632</v>
       </c>
       <c r="O25" t="n">
-        <v>119.2460620377898</v>
+        <v>22.20501868852087</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>59.57724736653301</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.53289911744429</v>
+        <v>12.73373076746131</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>78.71075777986638</v>
       </c>
       <c r="S25" t="n">
-        <v>28.28910402882819</v>
+        <v>48.38785091675653</v>
       </c>
       <c r="T25" t="n">
-        <v>3.432836399140566</v>
+        <v>19.28445969419467</v>
       </c>
       <c r="U25" t="n">
-        <v>7.639068184201646</v>
+        <v>4.363395436496059</v>
       </c>
       <c r="V25" t="n">
-        <v>22.210178537775</v>
+        <v>44.85336724691607</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>9.96892673469317</v>
       </c>
       <c r="X25" t="n">
-        <v>9.944284496910479</v>
+        <v>36.08486834246445</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>23.5243890325841</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>22.51228994232398</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.17204864508131</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>32.14393425032504</v>
+        <v>17.5134014400286</v>
       </c>
       <c r="AC25" t="n">
-        <v>4.327271777577008</v>
+        <v>1.104144777232675</v>
       </c>
       <c r="AD25" t="n">
-        <v>5.71698594135972</v>
+        <v>15.58282398639542</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.02935475917520036</v>
+        <v>10.81826058044509</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>0.4403477694231674</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>9.688603389024003</v>
+        <v>6.911591536365975</v>
       </c>
       <c r="AI25" t="n">
-        <v>8.505820161613133</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2.847320530541267</v>
+        <v>42.8414353612208</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.1783348403443674</v>
+        <v>1.080523444442223</v>
       </c>
       <c r="AL25" t="n">
-        <v>16.50053881086804</v>
+        <v>6.930028121372589</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>5.937387862062625</v>
       </c>
       <c r="AN25" t="n">
-        <v>9.307896152509233</v>
+        <v>4.429002690050734</v>
       </c>
       <c r="AO25" t="n">
-        <v>6.505939880237805</v>
+        <v>13.67035936387921</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>10.797866825131</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>15.48406697232565</v>
       </c>
       <c r="AR25" t="n">
-        <v>6.911648310083388</v>
+        <v>17.65689799137767</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.252655317513046</v>
+        <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.248597724556237</v>
+        <v>4.861436290498576</v>
       </c>
       <c r="AU25" t="n">
-        <v>1.120655289065746</v>
+        <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>12.12474266933914</v>
+        <v>21.0834783254744</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.307183230234453</v>
+        <v>9.412687000555334</v>
       </c>
       <c r="AX25" t="n">
-        <v>0</v>
+        <v>22.17829782587866</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>32.91708733133585</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>15.92758855496584</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>12.80008585584302</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>10.75498811180014</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>46.59579146452656</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>20.63814464877131</v>
+        <v>44.1549712552738</v>
       </c>
       <c r="I26" t="n">
-        <v>33.7269086181665</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>63.52857257809494</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>132.8834686330005</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>18.44003799531458</v>
+        <v>70.27244434469632</v>
       </c>
       <c r="M26" t="n">
-        <v>62.29218206490658</v>
+        <v>66.93088521530747</v>
       </c>
       <c r="N26" t="n">
-        <v>69.63877527558047</v>
+        <v>103.5787018397809</v>
       </c>
       <c r="O26" t="n">
-        <v>60.67122440745686</v>
+        <v>84.7096311952631</v>
       </c>
       <c r="P26" t="n">
-        <v>34.83659323033095</v>
+        <v>23.35324551960925</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.2520643507476</v>
+        <v>51.90825090394519</v>
       </c>
       <c r="R26" t="n">
-        <v>53.48922836801699</v>
+        <v>103.8895748972756</v>
       </c>
       <c r="S26" t="n">
-        <v>56.05066466759624</v>
+        <v>48.80473481230301</v>
       </c>
       <c r="T26" t="n">
-        <v>52.18707054359457</v>
+        <v>37.75862061185614</v>
       </c>
       <c r="U26" t="n">
-        <v>6.160152045754408</v>
+        <v>98.55785757536395</v>
       </c>
       <c r="V26" t="n">
-        <v>100.4045484147606</v>
+        <v>48.20214094214028</v>
       </c>
       <c r="W26" t="n">
-        <v>122.7067442198322</v>
+        <v>97.04921648033432</v>
       </c>
       <c r="X26" t="n">
-        <v>165.8928621751263</v>
+        <v>106.7847600479288</v>
       </c>
       <c r="Y26" t="n">
-        <v>90.14978598778039</v>
+        <v>52.53201401502699</v>
       </c>
       <c r="Z26" t="n">
-        <v>69.1405565561044</v>
+        <v>61.7118591878607</v>
       </c>
       <c r="AA26" t="n">
-        <v>51.01457530413208</v>
+        <v>122.6615966175629</v>
       </c>
       <c r="AB26" t="n">
-        <v>78.07856718610658</v>
+        <v>114.8974453502635</v>
       </c>
       <c r="AC26" t="n">
-        <v>108.5577523299911</v>
+        <v>52.24768600584723</v>
       </c>
       <c r="AD26" t="n">
-        <v>94.6369976127018</v>
+        <v>102.6493697144526</v>
       </c>
       <c r="AE26" t="n">
-        <v>80.36493920620522</v>
+        <v>147.3843427124628</v>
       </c>
       <c r="AF26" t="n">
-        <v>108.7346076397109</v>
+        <v>145.0545585551181</v>
       </c>
       <c r="AG26" t="n">
-        <v>137.4196563584713</v>
+        <v>59.35752392304413</v>
       </c>
       <c r="AH26" t="n">
-        <v>49.60595263776599</v>
+        <v>91.07962866169231</v>
       </c>
       <c r="AI26" t="n">
-        <v>129.8938636960293</v>
+        <v>115.8331356702788</v>
       </c>
       <c r="AJ26" t="n">
-        <v>232.2247307374417</v>
+        <v>87.51785332165962</v>
       </c>
       <c r="AK26" t="n">
-        <v>29.1169623164068</v>
+        <v>68.34031228735202</v>
       </c>
       <c r="AL26" t="n">
-        <v>37.01463655429585</v>
+        <v>35.76653208143999</v>
       </c>
       <c r="AM26" t="n">
-        <v>27.51862025334851</v>
+        <v>49.80618148199992</v>
       </c>
       <c r="AN26" t="n">
-        <v>34.66783586389005</v>
+        <v>65.65023934545339</v>
       </c>
       <c r="AO26" t="n">
-        <v>32.71023823462767</v>
+        <v>41.59112145929926</v>
       </c>
       <c r="AP26" t="n">
-        <v>16.30676724106863</v>
+        <v>34.58160020343519</v>
       </c>
       <c r="AQ26" t="n">
-        <v>27.22591840324013</v>
+        <v>19.84749254617542</v>
       </c>
       <c r="AR26" t="n">
-        <v>25.74319887385762</v>
+        <v>72.53415410702301</v>
       </c>
       <c r="AS26" t="n">
-        <v>44.58388022364212</v>
+        <v>13.40141672944937</v>
       </c>
       <c r="AT26" t="n">
-        <v>24.10234365031534</v>
+        <v>12.96660858035531</v>
       </c>
       <c r="AU26" t="n">
-        <v>13.4385672226963</v>
+        <v>15.21265738863195</v>
       </c>
       <c r="AV26" t="n">
-        <v>10.85849492972962</v>
+        <v>14.87048974408583</v>
       </c>
       <c r="AW26" t="n">
-        <v>21.34008536025602</v>
+        <v>15.47681375206453</v>
       </c>
       <c r="AX26" t="n">
-        <v>12.23921386336537</v>
+        <v>21.1960573572041</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>2.846220699851742</v>
+        <v>4.936588216903674</v>
       </c>
       <c r="D27" t="n">
-        <v>3.074701734358956</v>
+        <v>2.494550815488568</v>
       </c>
       <c r="E27" t="n">
-        <v>6.168669527813305</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2.494257331160894</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.595834919508753</v>
+        <v>1.561025809131394</v>
       </c>
       <c r="H27" t="n">
-        <v>2.976878179016911</v>
+        <v>7.344291469389014</v>
       </c>
       <c r="I27" t="n">
-        <v>3.932103167306871</v>
+        <v>3.134639084126923</v>
       </c>
       <c r="J27" t="n">
-        <v>5.28778127589944</v>
+        <v>5.456219445423026</v>
       </c>
       <c r="K27" t="n">
-        <v>3.571812799189025</v>
+        <v>0.8333784535074463</v>
       </c>
       <c r="L27" t="n">
-        <v>11.00382922634776</v>
+        <v>4.33029587890812</v>
       </c>
       <c r="M27" t="n">
-        <v>7.1748560646476</v>
+        <v>4.335075227753552</v>
       </c>
       <c r="N27" t="n">
-        <v>2.004529006726951</v>
+        <v>4.436874431409211</v>
       </c>
       <c r="O27" t="n">
-        <v>3.91931323769637</v>
+        <v>6.751677948442177</v>
       </c>
       <c r="P27" t="n">
-        <v>8.796948349698814</v>
+        <v>1.657190765750843</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.35422962925235</v>
+        <v>3.650595740032053</v>
       </c>
       <c r="R27" t="n">
-        <v>3.171734916616004</v>
+        <v>4.337710356414861</v>
       </c>
       <c r="S27" t="n">
-        <v>6.487013793889148</v>
+        <v>6.004193788983683</v>
       </c>
       <c r="T27" t="n">
-        <v>1.862517160940939</v>
+        <v>1.21039438883823</v>
       </c>
       <c r="U27" t="n">
-        <v>3.971420584641268</v>
+        <v>3.292486280443694</v>
       </c>
       <c r="V27" t="n">
-        <v>4.006834187359063</v>
+        <v>4.187219094505958</v>
       </c>
       <c r="W27" t="n">
-        <v>4.901019209855835</v>
+        <v>8.419612983666278</v>
       </c>
       <c r="X27" t="n">
-        <v>5.988577349001462</v>
+        <v>0.5870369572552734</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.025495582351356</v>
+        <v>1.536197536621154</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.935906772659132</v>
+        <v>3.144083203525744</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.836484632971723</v>
+        <v>5.615856361126026</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.592945525268272</v>
+        <v>3.104531595224696</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.961484491923599</v>
+        <v>3.37737702066353</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.216207740114286</v>
+        <v>5.154165720825372</v>
       </c>
       <c r="AE27" t="n">
-        <v>9.079907736005437</v>
+        <v>4.092406817153587</v>
       </c>
       <c r="AF27" t="n">
-        <v>7.78139299940233</v>
+        <v>8.538542064275335</v>
       </c>
       <c r="AG27" t="n">
-        <v>4.49282320023017</v>
+        <v>5.489731942817883</v>
       </c>
       <c r="AH27" t="n">
-        <v>4.723431499720672</v>
+        <v>7.397608937667377</v>
       </c>
       <c r="AI27" t="n">
-        <v>4.130159942732855</v>
+        <v>7.209537058570136</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6.617539842509674</v>
+        <v>4.58538533354921</v>
       </c>
       <c r="AK27" t="n">
-        <v>6.31035047251816</v>
+        <v>5.128358815880571</v>
       </c>
       <c r="AL27" t="n">
-        <v>5.123020256215314</v>
+        <v>7.453928751535546</v>
       </c>
       <c r="AM27" t="n">
-        <v>4.105556648222799</v>
+        <v>7.168342227103869</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.292489560707403</v>
+        <v>6.412691285837262</v>
       </c>
       <c r="AO27" t="n">
-        <v>2.634211710796891</v>
+        <v>2.777922660729299</v>
       </c>
       <c r="AP27" t="n">
-        <v>7.521234860529375</v>
+        <v>2.921780091978803</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.475810064342521</v>
+        <v>2.953583908000445</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.467875657512069</v>
+        <v>4.294716726148205</v>
       </c>
       <c r="AS27" t="n">
-        <v>0</v>
+        <v>4.004759973889174</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.857823084217084</v>
+        <v>2.891172665462479</v>
       </c>
       <c r="AU27" t="n">
-        <v>3.77106603785668</v>
+        <v>3.223115852278249</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.688395378771808</v>
+        <v>3.433461805367521</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.929236660667829</v>
+        <v>2.472809340183188</v>
       </c>
       <c r="AX27" t="n">
-        <v>3.493258770484287</v>
+        <v>2.134015069167484</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>9.30776005712751</v>
+        <v>14.70780486332498</v>
       </c>
       <c r="D28" t="n">
-        <v>11.5902578427409</v>
+        <v>3.027186431724408</v>
       </c>
       <c r="E28" t="n">
-        <v>10.37058766027496</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.508149342382466</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>21.43481933965387</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>10.28749577885699</v>
+        <v>50.75305335459745</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>70.56667267725975</v>
+        <v>221.3070235654202</v>
       </c>
       <c r="K28" t="n">
-        <v>11.50737501891043</v>
+        <v>60.26909142516919</v>
       </c>
       <c r="L28" t="n">
-        <v>134.6381323655397</v>
+        <v>159.6053608460639</v>
       </c>
       <c r="M28" t="n">
-        <v>157.042437149619</v>
+        <v>64.0069551267901</v>
       </c>
       <c r="N28" t="n">
-        <v>32.10531099577602</v>
+        <v>41.91104957826598</v>
       </c>
       <c r="O28" t="n">
-        <v>1.986972276446723</v>
+        <v>35.08289491309604</v>
       </c>
       <c r="P28" t="n">
-        <v>51.40661175567842</v>
+        <v>82.02510697526347</v>
       </c>
       <c r="Q28" t="n">
-        <v>130.5520944667584</v>
+        <v>10.47590609348479</v>
       </c>
       <c r="R28" t="n">
-        <v>66.57752765869763</v>
+        <v>56.62459881043014</v>
       </c>
       <c r="S28" t="n">
-        <v>90.43149096259566</v>
+        <v>27.00346393916965</v>
       </c>
       <c r="T28" t="n">
-        <v>72.86009316708837</v>
+        <v>43.37836345706146</v>
       </c>
       <c r="U28" t="n">
-        <v>172.2818702046828</v>
+        <v>31.26380332236334</v>
       </c>
       <c r="V28" t="n">
-        <v>65.21134349218065</v>
+        <v>19.92440864811846</v>
       </c>
       <c r="W28" t="n">
-        <v>69.30969315091903</v>
+        <v>24.59988486261441</v>
       </c>
       <c r="X28" t="n">
-        <v>66.83235461534701</v>
+        <v>32.11523804909257</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.85381974056375</v>
+        <v>59.63543262214368</v>
       </c>
       <c r="Z28" t="n">
-        <v>27.71951927887888</v>
+        <v>58.28125100105573</v>
       </c>
       <c r="AA28" t="n">
-        <v>39.528463144355</v>
+        <v>79.90248147061381</v>
       </c>
       <c r="AB28" t="n">
-        <v>20.19287981318338</v>
+        <v>81.07312959175553</v>
       </c>
       <c r="AC28" t="n">
-        <v>51.67829756062786</v>
+        <v>134.0265473140553</v>
       </c>
       <c r="AD28" t="n">
-        <v>47.60390376187567</v>
+        <v>22.84699896811719</v>
       </c>
       <c r="AE28" t="n">
-        <v>88.41581871402103</v>
+        <v>39.16076553012958</v>
       </c>
       <c r="AF28" t="n">
-        <v>81.71630016591003</v>
+        <v>100.3093501232595</v>
       </c>
       <c r="AG28" t="n">
-        <v>34.63511637719689</v>
+        <v>39.2014619900293</v>
       </c>
       <c r="AH28" t="n">
-        <v>57.8666145311629</v>
+        <v>42.00907201621788</v>
       </c>
       <c r="AI28" t="n">
-        <v>26.36697607025565</v>
+        <v>22.19468313892176</v>
       </c>
       <c r="AJ28" t="n">
-        <v>33.78683862353765</v>
+        <v>61.81487422755974</v>
       </c>
       <c r="AK28" t="n">
-        <v>68.41971049031919</v>
+        <v>29.04727364187784</v>
       </c>
       <c r="AL28" t="n">
-        <v>31.21114763774945</v>
+        <v>50.73262326433605</v>
       </c>
       <c r="AM28" t="n">
-        <v>18.42806775135642</v>
+        <v>23.77933873790073</v>
       </c>
       <c r="AN28" t="n">
-        <v>22.04208110032463</v>
+        <v>24.0376616224022</v>
       </c>
       <c r="AO28" t="n">
-        <v>21.20430440716558</v>
+        <v>14.64278252948481</v>
       </c>
       <c r="AP28" t="n">
-        <v>9.073783548728382</v>
+        <v>23.26183717396194</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15.3760506525371</v>
+        <v>16.18092362593009</v>
       </c>
       <c r="AR28" t="n">
-        <v>13.0855622248089</v>
+        <v>20.57931264153247</v>
       </c>
       <c r="AS28" t="n">
-        <v>23.4509213499583</v>
+        <v>14.64610298591718</v>
       </c>
       <c r="AT28" t="n">
-        <v>12.53236643249149</v>
+        <v>6.351982774251757</v>
       </c>
       <c r="AU28" t="n">
-        <v>12.76564191133917</v>
+        <v>8.170679931321388</v>
       </c>
       <c r="AV28" t="n">
-        <v>18.87593527132051</v>
+        <v>6.872449337914277</v>
       </c>
       <c r="AW28" t="n">
-        <v>26.08355657528816</v>
+        <v>9.731622254235289</v>
       </c>
       <c r="AX28" t="n">
-        <v>11.74389944680651</v>
+        <v>10.5278163033392</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>12.92392503363888</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>26.07702808343088</v>
+        <v>15.55621936432872</v>
       </c>
       <c r="E29" t="n">
-        <v>21.69189077186725</v>
+        <v>17.23609220256677</v>
       </c>
       <c r="F29" t="n">
-        <v>23.17487545331197</v>
+        <v>2.984426476342301</v>
       </c>
       <c r="G29" t="n">
-        <v>3.092849546481796</v>
+        <v>17.24599160069822</v>
       </c>
       <c r="H29" t="n">
-        <v>16.70845996284053</v>
+        <v>102.3844406739655</v>
       </c>
       <c r="I29" t="n">
-        <v>20.85561385894227</v>
+        <v>8.295726808725657</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>25.46301038585536</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>29.09112018317493</v>
       </c>
       <c r="L29" t="n">
-        <v>39.38379590126411</v>
+        <v>119.5238195880569</v>
       </c>
       <c r="M29" t="n">
-        <v>38.2696115749948</v>
+        <v>91.54276181564782</v>
       </c>
       <c r="N29" t="n">
-        <v>48.25127297042363</v>
+        <v>44.27734661081004</v>
       </c>
       <c r="O29" t="n">
-        <v>9.127410640818825</v>
+        <v>61.09904119180741</v>
       </c>
       <c r="P29" t="n">
-        <v>44.31897206934491</v>
+        <v>46.36408573159545</v>
       </c>
       <c r="Q29" t="n">
-        <v>88.7846102439734</v>
+        <v>17.74131249372258</v>
       </c>
       <c r="R29" t="n">
-        <v>27.7828322916635</v>
+        <v>57.23517440887839</v>
       </c>
       <c r="S29" t="n">
-        <v>71.67977783338053</v>
+        <v>45.30632282473609</v>
       </c>
       <c r="T29" t="n">
-        <v>38.51640155311548</v>
+        <v>39.84315835032715</v>
       </c>
       <c r="U29" t="n">
-        <v>33.85985719588123</v>
+        <v>96.2211043886592</v>
       </c>
       <c r="V29" t="n">
-        <v>89.73236981050378</v>
+        <v>89.41895820698569</v>
       </c>
       <c r="W29" t="n">
-        <v>86.48125112186656</v>
+        <v>115.4200433009447</v>
       </c>
       <c r="X29" t="n">
-        <v>88.99400669306985</v>
+        <v>27.4029522861313</v>
       </c>
       <c r="Y29" t="n">
-        <v>45.25905192947999</v>
+        <v>35.56077772820667</v>
       </c>
       <c r="Z29" t="n">
-        <v>41.39464228895046</v>
+        <v>27.89559006028383</v>
       </c>
       <c r="AA29" t="n">
-        <v>14.05852933838773</v>
+        <v>33.6538017522271</v>
       </c>
       <c r="AB29" t="n">
-        <v>33.72094913137261</v>
+        <v>19.77239513789108</v>
       </c>
       <c r="AC29" t="n">
-        <v>20.04561024868415</v>
+        <v>14.98487160736203</v>
       </c>
       <c r="AD29" t="n">
-        <v>10.0290127696377</v>
+        <v>28.10239272134471</v>
       </c>
       <c r="AE29" t="n">
-        <v>56.3558878868438</v>
+        <v>26.15284332030407</v>
       </c>
       <c r="AF29" t="n">
-        <v>44.57180176888143</v>
+        <v>68.06942835172785</v>
       </c>
       <c r="AG29" t="n">
-        <v>25.95246573585371</v>
+        <v>29.76719281964398</v>
       </c>
       <c r="AH29" t="n">
-        <v>29.5494352904981</v>
+        <v>7.521951481236529</v>
       </c>
       <c r="AI29" t="n">
-        <v>15.90999334055952</v>
+        <v>11.19519477119389</v>
       </c>
       <c r="AJ29" t="n">
-        <v>57.69477495861895</v>
+        <v>9.350792806675379</v>
       </c>
       <c r="AK29" t="n">
-        <v>46.84927970508306</v>
+        <v>9.237620638397486</v>
       </c>
       <c r="AL29" t="n">
-        <v>39.94565639761316</v>
+        <v>28.20659527535055</v>
       </c>
       <c r="AM29" t="n">
-        <v>15.82629909015329</v>
+        <v>20.58667391399969</v>
       </c>
       <c r="AN29" t="n">
-        <v>23.65167195024743</v>
+        <v>34.60496058744376</v>
       </c>
       <c r="AO29" t="n">
-        <v>28.51471931836783</v>
+        <v>23.14550185454538</v>
       </c>
       <c r="AP29" t="n">
-        <v>23.1121586393596</v>
+        <v>40.46474749315218</v>
       </c>
       <c r="AQ29" t="n">
-        <v>18.29174325133386</v>
+        <v>24.81013060966576</v>
       </c>
       <c r="AR29" t="n">
-        <v>24.14515750040089</v>
+        <v>30.05519056512713</v>
       </c>
       <c r="AS29" t="n">
-        <v>15.55377610425102</v>
+        <v>35.33908180801457</v>
       </c>
       <c r="AT29" t="n">
-        <v>27.33177848890005</v>
+        <v>22.96204783611251</v>
       </c>
       <c r="AU29" t="n">
-        <v>0</v>
+        <v>26.54712064053264</v>
       </c>
       <c r="AV29" t="n">
-        <v>29.60638317322068</v>
+        <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>48.65099577611061</v>
+        <v>23.20466865098167</v>
       </c>
       <c r="AX29" t="n">
-        <v>14.79928991970183</v>
+        <v>23.10555243889406</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>2.785582031064319</v>
+        <v>5.080549249605</v>
       </c>
       <c r="D30" t="n">
-        <v>5.365551454742314</v>
+        <v>4.319118595207405</v>
       </c>
       <c r="E30" t="n">
-        <v>5.536739580433499</v>
+        <v>9.587215383620387</v>
       </c>
       <c r="F30" t="n">
-        <v>10.75647810205076</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>14.44883578429154</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>3.440631105792102</v>
+        <v>7.062187236721138</v>
       </c>
       <c r="I30" t="n">
-        <v>10.60877249869818</v>
+        <v>8.653979352928012</v>
       </c>
       <c r="J30" t="n">
-        <v>22.02886835774283</v>
+        <v>11.82188886782771</v>
       </c>
       <c r="K30" t="n">
-        <v>13.50162567418635</v>
+        <v>11.91079658539087</v>
       </c>
       <c r="L30" t="n">
-        <v>17.35657586157285</v>
+        <v>4.250608727305353</v>
       </c>
       <c r="M30" t="n">
-        <v>54.97474590672405</v>
+        <v>25.51804100925271</v>
       </c>
       <c r="N30" t="n">
-        <v>29.81220202907913</v>
+        <v>24.44119995848136</v>
       </c>
       <c r="O30" t="n">
-        <v>60.10716700816777</v>
+        <v>38.47860212636296</v>
       </c>
       <c r="P30" t="n">
-        <v>7.631817854596193</v>
+        <v>12.29859629250464</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.09879451077563</v>
+        <v>7.257542814160461</v>
       </c>
       <c r="R30" t="n">
-        <v>6.213679881654548</v>
+        <v>16.52351861417391</v>
       </c>
       <c r="S30" t="n">
-        <v>41.66622710209732</v>
+        <v>27.85420082381179</v>
       </c>
       <c r="T30" t="n">
-        <v>21.49722366583512</v>
+        <v>29.12978217290622</v>
       </c>
       <c r="U30" t="n">
-        <v>33.393635754785</v>
+        <v>11.88351667200056</v>
       </c>
       <c r="V30" t="n">
-        <v>6.279951020046852</v>
+        <v>8.278575127003457</v>
       </c>
       <c r="W30" t="n">
-        <v>30.39048201360128</v>
+        <v>17.62461302091388</v>
       </c>
       <c r="X30" t="n">
-        <v>11.06331725679721</v>
+        <v>15.91570730665319</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.7033040442526</v>
+        <v>4.381718809195444</v>
       </c>
       <c r="Z30" t="n">
-        <v>5.718213868525233</v>
+        <v>9.132154644380536</v>
       </c>
       <c r="AA30" t="n">
-        <v>30.60078393857687</v>
+        <v>22.48290399997657</v>
       </c>
       <c r="AB30" t="n">
-        <v>21.87082763063428</v>
+        <v>15.56195307963348</v>
       </c>
       <c r="AC30" t="n">
-        <v>12.81364144432486</v>
+        <v>25.11123963068288</v>
       </c>
       <c r="AD30" t="n">
-        <v>44.13855023511476</v>
+        <v>7.314342663384104</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.054255486776048</v>
+        <v>20.34359618308558</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.117070302810741</v>
+        <v>13.16152927441094</v>
       </c>
       <c r="AG30" t="n">
-        <v>16.27481579976154</v>
+        <v>10.67918132059804</v>
       </c>
       <c r="AH30" t="n">
-        <v>10.52059889965936</v>
+        <v>15.3485818631093</v>
       </c>
       <c r="AI30" t="n">
-        <v>10.2585193398542</v>
+        <v>6.65019141596761</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8.406932795401827</v>
+        <v>18.02226203510982</v>
       </c>
       <c r="AK30" t="n">
-        <v>2.83358442908206</v>
+        <v>6.229680359635081</v>
       </c>
       <c r="AL30" t="n">
-        <v>10.26179309782604</v>
+        <v>7.230318457726156</v>
       </c>
       <c r="AM30" t="n">
-        <v>2.928287662233569</v>
+        <v>2.763446222558855</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.866957085247137</v>
+        <v>5.785952737162057</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.380555675782813</v>
+        <v>6.520997070646741</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.80218002547974</v>
+        <v>2.498532371783846</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.189007882901129</v>
+        <v>7.673589790245521</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.774861219491116</v>
+        <v>6.296345802438465</v>
       </c>
       <c r="AS30" t="n">
-        <v>0</v>
+        <v>3.966639727505778</v>
       </c>
       <c r="AT30" t="n">
-        <v>4.766063114825122</v>
+        <v>1.596655232535346</v>
       </c>
       <c r="AU30" t="n">
-        <v>1.123600805369882</v>
+        <v>4.197805773257997</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.7154326911161317</v>
+        <v>1.089992725864796</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.429948779743079</v>
+        <v>5.54679197652329</v>
       </c>
       <c r="AX30" t="n">
-        <v>4.826361576020171</v>
+        <v>1.084870899661029</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>11.32485052826092</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>31.57041912931833</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9260028860858478</v>
+        <v>9.795199480583697</v>
       </c>
       <c r="F31" t="n">
-        <v>13.96448494704723</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>26.95692689600996</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5.927950423016949</v>
       </c>
       <c r="I31" t="n">
-        <v>11.98374036711374</v>
+        <v>10.15182633144768</v>
       </c>
       <c r="J31" t="n">
-        <v>28.81794973710573</v>
+        <v>37.56039907482955</v>
       </c>
       <c r="K31" t="n">
-        <v>32.16946207874506</v>
+        <v>101.2394771443101</v>
       </c>
       <c r="L31" t="n">
-        <v>99.93752847255382</v>
+        <v>73.40092893604161</v>
       </c>
       <c r="M31" t="n">
-        <v>98.76762427896062</v>
+        <v>38.90515008075263</v>
       </c>
       <c r="N31" t="n">
-        <v>71.41057693767216</v>
+        <v>69.14193885792768</v>
       </c>
       <c r="O31" t="n">
-        <v>19.25256455782889</v>
+        <v>32.44183405647911</v>
       </c>
       <c r="P31" t="n">
-        <v>37.09741756658401</v>
+        <v>68.19448017526318</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.37248847835075</v>
+        <v>18.18012760743808</v>
       </c>
       <c r="S31" t="n">
-        <v>16.63813197802348</v>
+        <v>22.74499269844749</v>
       </c>
       <c r="T31" t="n">
-        <v>44.53199046030758</v>
+        <v>11.55527399680272</v>
       </c>
       <c r="U31" t="n">
-        <v>12.4250815369321</v>
+        <v>74.14723779841475</v>
       </c>
       <c r="V31" t="n">
-        <v>19.25993218955927</v>
+        <v>5.201800622770364</v>
       </c>
       <c r="W31" t="n">
-        <v>0.8650173685194602</v>
+        <v>15.20912274186239</v>
       </c>
       <c r="X31" t="n">
-        <v>28.86137478196431</v>
+        <v>1.010943112498549</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.60496392186468</v>
+        <v>41.5408753618591</v>
       </c>
       <c r="Z31" t="n">
-        <v>4.693618833964038</v>
+        <v>16.36173177856801</v>
       </c>
       <c r="AA31" t="n">
-        <v>3.652128503874383</v>
+        <v>8.935981731639208</v>
       </c>
       <c r="AB31" t="n">
-        <v>11.00966307190286</v>
+        <v>32.05706108283987</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.703231723535811</v>
+        <v>33.5883262123582</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.2739412626351962</v>
+        <v>26.89540081279008</v>
       </c>
       <c r="AE31" t="n">
-        <v>18.67364983006517</v>
+        <v>3.280580681013367</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.434623415989724</v>
+        <v>11.12297826966306</v>
       </c>
       <c r="AG31" t="n">
-        <v>29.27292366594425</v>
+        <v>3.806327894029872</v>
       </c>
       <c r="AH31" t="n">
-        <v>7.196365737437804</v>
+        <v>16.81001233698717</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>10.20575288393695</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>7.871384516406959</v>
       </c>
       <c r="AK31" t="n">
-        <v>13.11044124500226</v>
+        <v>4.122981022444426</v>
       </c>
       <c r="AL31" t="n">
-        <v>5.343904634210229</v>
+        <v>10.94895883359878</v>
       </c>
       <c r="AM31" t="n">
-        <v>10.82811794761485</v>
+        <v>7.216693659407291</v>
       </c>
       <c r="AN31" t="n">
-        <v>2.348989024619846</v>
+        <v>25.45717724024573</v>
       </c>
       <c r="AO31" t="n">
-        <v>23.24088725833442</v>
+        <v>17.88490469623273</v>
       </c>
       <c r="AP31" t="n">
-        <v>6.311031825482468</v>
+        <v>3.933498688691945</v>
       </c>
       <c r="AQ31" t="n">
-        <v>3.038277153207383</v>
+        <v>5.008957020942963</v>
       </c>
       <c r="AR31" t="n">
-        <v>3.030284435917299</v>
+        <v>5.10859336378794</v>
       </c>
       <c r="AS31" t="n">
-        <v>15.70443120274785</v>
+        <v>0.09918134636911935</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.584211716901454</v>
+        <v>13.29447564984643</v>
       </c>
       <c r="AU31" t="n">
-        <v>16.91927860625816</v>
+        <v>18.4432753638275</v>
       </c>
       <c r="AV31" t="n">
-        <v>3.852069295001567</v>
+        <v>10.04532245373785</v>
       </c>
       <c r="AW31" t="n">
-        <v>18.79515088115655</v>
+        <v>9.912661103252825</v>
       </c>
       <c r="AX31" t="n">
-        <v>28.64730408457811</v>
+        <v>1.545240343794497</v>
       </c>
     </row>
   </sheetData>

--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_006.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_006.xlsx
@@ -723,7 +723,7 @@
         <v>57.23927248404681</v>
       </c>
       <c r="M2" t="n">
-        <v>93.67378748992519</v>
+        <v>93.67378748992518</v>
       </c>
       <c r="N2" t="n">
         <v>283.549312032958</v>
@@ -732,7 +732,7 @@
         <v>63.82998035332233</v>
       </c>
       <c r="P2" t="n">
-        <v>57.20052057285492</v>
+        <v>57.20052057285493</v>
       </c>
       <c r="Q2" t="n">
         <v>50.67165428026488</v>
@@ -923,7 +923,7 @@
         <v>2.513009533060765</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.041443623180112</v>
+        <v>5.041443623180111</v>
       </c>
       <c r="AD3" t="n">
         <v>1.854091860865082</v>
@@ -956,7 +956,7 @@
         <v>5.99620110019678</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.5657747068983</v>
+        <v>5.565774706898299</v>
       </c>
       <c r="AO3" t="n">
         <v>5.880049331608192</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.429874795593702</v>
+        <v>1.4298747955937</v>
       </c>
       <c r="I4" t="n">
         <v>29.06295205591112</v>
@@ -1158,7 +1158,7 @@
         <v>15.95197841021986</v>
       </c>
       <c r="F5" t="n">
-        <v>15.12698520799647</v>
+        <v>15.12698520799646</v>
       </c>
       <c r="G5" t="n">
         <v>10.57542584668002</v>
@@ -1236,7 +1236,7 @@
         <v>63.69147520981597</v>
       </c>
       <c r="AF5" t="n">
-        <v>32.61195915602474</v>
+        <v>32.61195915602473</v>
       </c>
       <c r="AG5" t="n">
         <v>6.526365175163675</v>
@@ -1328,10 +1328,10 @@
         <v>10.57672958889569</v>
       </c>
       <c r="L6" t="n">
-        <v>9.8551375823572</v>
+        <v>9.855137582357198</v>
       </c>
       <c r="M6" t="n">
-        <v>24.30183563785918</v>
+        <v>24.30183563785917</v>
       </c>
       <c r="N6" t="n">
         <v>15.98902232574414</v>
@@ -1352,7 +1352,7 @@
         <v>60.61522062175329</v>
       </c>
       <c r="T6" t="n">
-        <v>4.558802324450934</v>
+        <v>4.558802324450935</v>
       </c>
       <c r="U6" t="n">
         <v>21.27380913162379</v>
@@ -1406,7 +1406,7 @@
         <v>1.691549072519506</v>
       </c>
       <c r="AL6" t="n">
-        <v>3.124006094475521</v>
+        <v>3.124006094475522</v>
       </c>
       <c r="AM6" t="n">
         <v>7.103007697689667</v>
@@ -1424,7 +1424,7 @@
         <v>3.184211413386837</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.5714497085436768</v>
+        <v>0.5714497085436769</v>
       </c>
       <c r="AS6" t="n">
         <v>12.75088252135837</v>
@@ -1486,7 +1486,7 @@
         <v>35.08533727680209</v>
       </c>
       <c r="N7" t="n">
-        <v>5.244776071992181</v>
+        <v>5.244776071992174</v>
       </c>
       <c r="O7" t="n">
         <v>10.17187760184662</v>
@@ -1558,10 +1558,10 @@
         <v>3.721505521575095</v>
       </c>
       <c r="AL7" t="n">
-        <v>3.791463246699776</v>
+        <v>3.791463246699775</v>
       </c>
       <c r="AM7" t="n">
-        <v>6.235253520833967</v>
+        <v>6.235253520833968</v>
       </c>
       <c r="AN7" t="n">
         <v>21.0905797477748</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>4.43211713966879</v>
+        <v>4.432117139668788</v>
       </c>
       <c r="F8" t="n">
         <v>12.75447646077402</v>
@@ -1778,7 +1778,7 @@
         <v>9.975479735826871</v>
       </c>
       <c r="J9" t="n">
-        <v>6.091541386982309</v>
+        <v>6.091541386982308</v>
       </c>
       <c r="K9" t="n">
         <v>3.903407438075257</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.059486078650341</v>
+        <v>2.059486078650339</v>
       </c>
       <c r="I10" t="n">
         <v>103.3469652525056</v>
@@ -2041,7 +2041,7 @@
         <v>7.938688218822268</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.467968793233778</v>
+        <v>1.467968793233777</v>
       </c>
       <c r="AV10" t="n">
         <v>10.36786724680956</v>
@@ -2157,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.470054537931535</v>
+        <v>8.470054537931533</v>
       </c>
       <c r="AJ11" t="n">
         <v>57.53932169757518</v>
       </c>
       <c r="AK11" t="n">
-        <v>33.44517386416277</v>
+        <v>33.44517386416276</v>
       </c>
       <c r="AL11" t="n">
         <v>26.77316685819893</v>
@@ -2219,7 +2219,7 @@
         <v>0.8601829354174313</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3946454569455041</v>
+        <v>0.3946454569455042</v>
       </c>
       <c r="F12" t="n">
         <v>12.58115463826467</v>
@@ -2345,10 +2345,10 @@
         <v>1.058977268301703</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9704650965247368</v>
+        <v>0.9704650965247369</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.08477404604307687</v>
+        <v>0.08477404604307681</v>
       </c>
       <c r="AW12" t="n">
         <v>5.009892865545601</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>8.380819343582928</v>
+        <v>8.380819343582926</v>
       </c>
       <c r="H13" t="n">
         <v>30.68066034133754</v>
@@ -2547,7 +2547,7 @@
         <v>88.92875851343371</v>
       </c>
       <c r="M14" t="n">
-        <v>48.82946749763269</v>
+        <v>48.8294674976327</v>
       </c>
       <c r="N14" t="n">
         <v>101.6221666630698</v>
@@ -2839,7 +2839,7 @@
         <v>37.02597526288903</v>
       </c>
       <c r="I16" t="n">
-        <v>33.08535554074417</v>
+        <v>33.08535554074416</v>
       </c>
       <c r="J16" t="n">
         <v>163.9290478353138</v>
@@ -2869,16 +2869,16 @@
         <v>35.41196649912317</v>
       </c>
       <c r="S16" t="n">
-        <v>67.04989800493179</v>
+        <v>67.04989800493178</v>
       </c>
       <c r="T16" t="n">
         <v>74.77229092732102</v>
       </c>
       <c r="U16" t="n">
-        <v>47.13139768705958</v>
+        <v>47.13139768705959</v>
       </c>
       <c r="V16" t="n">
-        <v>56.98555122473524</v>
+        <v>56.98555122473523</v>
       </c>
       <c r="W16" t="n">
         <v>109.8816773435073</v>
@@ -2956,10 +2956,10 @@
         <v>10.08964486214243</v>
       </c>
       <c r="AV16" t="n">
-        <v>7.328915852593716</v>
+        <v>7.328915852593715</v>
       </c>
       <c r="AW16" t="n">
-        <v>6.078898303122481</v>
+        <v>6.07889830312248</v>
       </c>
       <c r="AX16" t="n">
         <v>12.57394177344223</v>
@@ -2976,7 +2976,7 @@
         <v>33.60488818606571</v>
       </c>
       <c r="D17" t="n">
-        <v>6.272991313529647</v>
+        <v>6.272991313529646</v>
       </c>
       <c r="E17" t="n">
         <v>1.672390470155086</v>
@@ -3140,7 +3140,7 @@
         <v>1.230724024530248</v>
       </c>
       <c r="H18" t="n">
-        <v>6.859142245290506</v>
+        <v>6.859142245290505</v>
       </c>
       <c r="I18" t="n">
         <v>16.65877281247657</v>
@@ -3158,7 +3158,7 @@
         <v>12.30097004315117</v>
       </c>
       <c r="N18" t="n">
-        <v>5.839088479753844</v>
+        <v>5.839088479753842</v>
       </c>
       <c r="O18" t="n">
         <v>25.34623726090742</v>
@@ -3191,7 +3191,7 @@
         <v>19.71617976211695</v>
       </c>
       <c r="Y18" t="n">
-        <v>36.94164178644928</v>
+        <v>36.94164178644927</v>
       </c>
       <c r="Z18" t="n">
         <v>15.73842690477872</v>
@@ -3260,7 +3260,7 @@
         <v>2.766733198804004</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.81464338593457</v>
+        <v>3.814643385934571</v>
       </c>
       <c r="AW18" t="n">
         <v>3.004940982713014</v>
@@ -3355,7 +3355,7 @@
         <v>16.38454733476462</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.10576018895118</v>
+        <v>3.105760188951181</v>
       </c>
       <c r="AD19" t="n">
         <v>6.255027812598519</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>21.29893877527062</v>
+        <v>21.29893877527063</v>
       </c>
       <c r="AX19" t="n">
         <v>6.567500341099614</v>
@@ -3662,10 +3662,10 @@
         <v>4.588922791841715</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.235486936361867</v>
+        <v>3.235486936361868</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.978103163691421</v>
+        <v>1.97810316369142</v>
       </c>
       <c r="AF21" t="n">
         <v>6.590150021301842</v>
@@ -3778,7 +3778,7 @@
         <v>39.33323065595823</v>
       </c>
       <c r="R22" t="n">
-        <v>44.87525651117316</v>
+        <v>44.87525651117317</v>
       </c>
       <c r="S22" t="n">
         <v>92.67904826394852</v>
@@ -3871,7 +3871,7 @@
         <v>8.306236054019479</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.152374235405421</v>
+        <v>4.152374235405424</v>
       </c>
       <c r="AX22" t="n">
         <v>12.33164050781171</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.261719310327591</v>
+        <v>6.261719310327592</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>37.35616766106698</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5212880167678797</v>
+        <v>0.5212880167678762</v>
       </c>
       <c r="P23" t="n">
         <v>118.8318460727534</v>
@@ -3930,7 +3930,7 @@
         <v>66.42423640202462</v>
       </c>
       <c r="R23" t="n">
-        <v>2.415020965328122</v>
+        <v>2.415020965328118</v>
       </c>
       <c r="S23" t="n">
         <v>46.70656412454581</v>
@@ -4046,7 +4046,7 @@
         <v>4.830447680035497</v>
       </c>
       <c r="F24" t="n">
-        <v>4.269900467494311</v>
+        <v>4.26990046749431</v>
       </c>
       <c r="G24" t="n">
         <v>10.36755731604143</v>
@@ -4160,7 +4160,7 @@
         <v>2.752771288562147</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.180688674449829</v>
+        <v>3.18068867444983</v>
       </c>
       <c r="AS24" t="n">
         <v>3.844897032889293</v>
@@ -4192,7 +4192,7 @@
         <v>12.78985437352999</v>
       </c>
       <c r="D25" t="n">
-        <v>7.030360727291983</v>
+        <v>7.030360727291984</v>
       </c>
       <c r="E25" t="n">
         <v>1.464724886377799</v>
@@ -4267,7 +4267,7 @@
         <v>17.5134014400286</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.104144777232675</v>
+        <v>1.104144777232676</v>
       </c>
       <c r="AD25" t="n">
         <v>15.58282398639542</v>
@@ -4291,13 +4291,13 @@
         <v>42.8414353612208</v>
       </c>
       <c r="AK25" t="n">
-        <v>1.080523444442223</v>
+        <v>1.080523444442224</v>
       </c>
       <c r="AL25" t="n">
         <v>6.930028121372589</v>
       </c>
       <c r="AM25" t="n">
-        <v>5.937387862062625</v>
+        <v>5.937387862062626</v>
       </c>
       <c r="AN25" t="n">
         <v>4.429002690050734</v>
@@ -4377,7 +4377,7 @@
         <v>103.5787018397809</v>
       </c>
       <c r="O26" t="n">
-        <v>84.7096311952631</v>
+        <v>84.70963119526309</v>
       </c>
       <c r="P26" t="n">
         <v>23.35324551960925</v>
@@ -4526,7 +4526,7 @@
         <v>4.335075227753552</v>
       </c>
       <c r="N27" t="n">
-        <v>4.436874431409211</v>
+        <v>4.43687443140921</v>
       </c>
       <c r="O27" t="n">
         <v>6.751677948442177</v>
@@ -4622,7 +4622,7 @@
         <v>4.004759973889174</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.891172665462479</v>
+        <v>2.89117266546248</v>
       </c>
       <c r="AU27" t="n">
         <v>3.223115852278249</v>
@@ -4681,7 +4681,7 @@
         <v>41.91104957826598</v>
       </c>
       <c r="O28" t="n">
-        <v>35.08289491309604</v>
+        <v>35.08289491309603</v>
       </c>
       <c r="P28" t="n">
         <v>82.02510697526347</v>
@@ -4690,13 +4690,13 @@
         <v>10.47590609348479</v>
       </c>
       <c r="R28" t="n">
-        <v>56.62459881043014</v>
+        <v>56.62459881043015</v>
       </c>
       <c r="S28" t="n">
-        <v>27.00346393916965</v>
+        <v>27.00346393916964</v>
       </c>
       <c r="T28" t="n">
-        <v>43.37836345706146</v>
+        <v>43.37836345706145</v>
       </c>
       <c r="U28" t="n">
         <v>31.26380332236334</v>
@@ -4750,7 +4750,7 @@
         <v>29.04727364187784</v>
       </c>
       <c r="AL28" t="n">
-        <v>50.73262326433605</v>
+        <v>50.73262326433606</v>
       </c>
       <c r="AM28" t="n">
         <v>23.77933873790073</v>
@@ -4774,7 +4774,7 @@
         <v>14.64610298591718</v>
       </c>
       <c r="AT28" t="n">
-        <v>6.351982774251757</v>
+        <v>6.351982774251758</v>
       </c>
       <c r="AU28" t="n">
         <v>8.170679931321388</v>
@@ -4821,7 +4821,7 @@
         <v>25.46301038585536</v>
       </c>
       <c r="K29" t="n">
-        <v>29.09112018317493</v>
+        <v>29.09112018317494</v>
       </c>
       <c r="L29" t="n">
         <v>119.5238195880569</v>
@@ -4893,7 +4893,7 @@
         <v>7.521951481236529</v>
       </c>
       <c r="AI29" t="n">
-        <v>11.19519477119389</v>
+        <v>11.1951947711939</v>
       </c>
       <c r="AJ29" t="n">
         <v>9.350792806675379</v>
@@ -5015,7 +5015,7 @@
         <v>15.91570730665319</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.381718809195444</v>
+        <v>4.381718809195445</v>
       </c>
       <c r="Z30" t="n">
         <v>9.132154644380536</v>
@@ -5030,7 +5030,7 @@
         <v>25.11123963068288</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.314342663384104</v>
+        <v>7.314342663384105</v>
       </c>
       <c r="AE30" t="n">
         <v>20.34359618308558</v>
@@ -5072,7 +5072,7 @@
         <v>7.673589790245521</v>
       </c>
       <c r="AR30" t="n">
-        <v>6.296345802438465</v>
+        <v>6.296345802438466</v>
       </c>
       <c r="AS30" t="n">
         <v>3.966639727505778</v>
@@ -5158,7 +5158,7 @@
         <v>74.14723779841475</v>
       </c>
       <c r="V31" t="n">
-        <v>5.201800622770364</v>
+        <v>5.201800622770365</v>
       </c>
       <c r="W31" t="n">
         <v>15.20912274186239</v>
@@ -5200,7 +5200,7 @@
         <v>10.20575288393695</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7.871384516406959</v>
+        <v>7.871384516406958</v>
       </c>
       <c r="AK31" t="n">
         <v>4.122981022444426</v>

--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_006.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_006.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>20.29128355453849</v>
+        <v>15.77023506875848</v>
       </c>
       <c r="D2" t="n">
-        <v>47.32633018671658</v>
+        <v>22.04539269574793</v>
       </c>
       <c r="E2" t="n">
-        <v>20.69728964635975</v>
+        <v>31.73862028957759</v>
       </c>
       <c r="F2" t="n">
-        <v>11.34556126746252</v>
+        <v>15.28298236095478</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>22.45487706383366</v>
+        <v>141.8664654355204</v>
       </c>
       <c r="I2" t="n">
-        <v>4.774282404128893</v>
+        <v>8.604995201049459</v>
       </c>
       <c r="J2" t="n">
-        <v>84.69838043647081</v>
+        <v>72.90190942542303</v>
       </c>
       <c r="K2" t="n">
-        <v>5.221352696974682</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.23927248404681</v>
+        <v>55.48402596061313</v>
       </c>
       <c r="M2" t="n">
-        <v>93.67378748992518</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>283.549312032958</v>
+        <v>72.28503130447298</v>
       </c>
       <c r="O2" t="n">
-        <v>63.82998035332233</v>
+        <v>64.72080273852485</v>
       </c>
       <c r="P2" t="n">
-        <v>57.20052057285493</v>
+        <v>28.33540414952475</v>
       </c>
       <c r="Q2" t="n">
-        <v>50.67165428026488</v>
+        <v>64.59194985424578</v>
       </c>
       <c r="R2" t="n">
-        <v>58.68205684128275</v>
+        <v>100.2842661124461</v>
       </c>
       <c r="S2" t="n">
-        <v>41.43832072646799</v>
+        <v>42.69220959184474</v>
       </c>
       <c r="T2" t="n">
-        <v>43.97025917912669</v>
+        <v>48.75730930216304</v>
       </c>
       <c r="U2" t="n">
-        <v>44.44559507579242</v>
+        <v>83.22279310554424</v>
       </c>
       <c r="V2" t="n">
-        <v>41.04973685919501</v>
+        <v>125.4699584886636</v>
       </c>
       <c r="W2" t="n">
-        <v>42.59941378275188</v>
+        <v>105.826421817893</v>
       </c>
       <c r="X2" t="n">
-        <v>85.54168480519749</v>
+        <v>92.57735414974573</v>
       </c>
       <c r="Y2" t="n">
-        <v>76.38254675751966</v>
+        <v>33.64062348699142</v>
       </c>
       <c r="Z2" t="n">
-        <v>99.85697835717104</v>
+        <v>42.88977086778059</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.48916318216182</v>
+        <v>78.3516881464322</v>
       </c>
       <c r="AB2" t="n">
-        <v>26.41857446239515</v>
+        <v>75.04168090530672</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.4514909485272</v>
+        <v>56.78543525259868</v>
       </c>
       <c r="AD2" t="n">
-        <v>154.691804227657</v>
+        <v>89.96643085029444</v>
       </c>
       <c r="AE2" t="n">
-        <v>161.6822167817024</v>
+        <v>31.15610523570781</v>
       </c>
       <c r="AF2" t="n">
-        <v>177.1317850863682</v>
+        <v>64.71505516626812</v>
       </c>
       <c r="AG2" t="n">
-        <v>77.56329897512978</v>
+        <v>47.6768288891046</v>
       </c>
       <c r="AH2" t="n">
-        <v>80.04078582459117</v>
+        <v>117.018251938899</v>
       </c>
       <c r="AI2" t="n">
-        <v>25.55419218653829</v>
+        <v>6.463427240221435</v>
       </c>
       <c r="AJ2" t="n">
-        <v>87.5792117684819</v>
+        <v>53.12311982206879</v>
       </c>
       <c r="AK2" t="n">
-        <v>55.82397491675992</v>
+        <v>108.3993715129472</v>
       </c>
       <c r="AL2" t="n">
-        <v>84.29318063576684</v>
+        <v>132.3777058910958</v>
       </c>
       <c r="AM2" t="n">
-        <v>16.20795943972929</v>
+        <v>34.31091588829957</v>
       </c>
       <c r="AN2" t="n">
-        <v>26.93276124647591</v>
+        <v>77.977314955205</v>
       </c>
       <c r="AO2" t="n">
-        <v>35.59520472670509</v>
+        <v>28.755860461487</v>
       </c>
       <c r="AP2" t="n">
-        <v>20.80234253635463</v>
+        <v>18.88556527839823</v>
       </c>
       <c r="AQ2" t="n">
-        <v>40.85051449956757</v>
+        <v>20.48137135682487</v>
       </c>
       <c r="AR2" t="n">
-        <v>37.89218585519024</v>
+        <v>22.76192981967896</v>
       </c>
       <c r="AS2" t="n">
-        <v>16.16031906377423</v>
+        <v>25.10167839904724</v>
       </c>
       <c r="AT2" t="n">
-        <v>29.66314460968227</v>
+        <v>16.44350420566406</v>
       </c>
       <c r="AU2" t="n">
-        <v>24.58929091012638</v>
+        <v>65.07208487168533</v>
       </c>
       <c r="AV2" t="n">
-        <v>22.23764346429663</v>
+        <v>20.10916010980855</v>
       </c>
       <c r="AW2" t="n">
-        <v>21.333355701592</v>
+        <v>24.32500614737338</v>
       </c>
       <c r="AX2" t="n">
-        <v>24.48097145181256</v>
+        <v>11.98418429949542</v>
       </c>
     </row>
     <row r="3">
@@ -845,13 +845,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.639903613809284</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.213560915608609</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3.945394277530752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -860,133 +860,133 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.850854144789956</v>
+        <v>0.358811255406139</v>
       </c>
       <c r="I3" t="n">
-        <v>4.205303106218797</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.59837498977949</v>
+        <v>1.598146411178527</v>
       </c>
       <c r="K3" t="n">
-        <v>1.274755252382207</v>
+        <v>2.012867929095073</v>
       </c>
       <c r="L3" t="n">
-        <v>3.135888372714705</v>
+        <v>5.09712017272749</v>
       </c>
       <c r="M3" t="n">
-        <v>1.471544607589011</v>
+        <v>0.1498056138133746</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9268618170290912</v>
+        <v>11.85783905510806</v>
       </c>
       <c r="O3" t="n">
-        <v>5.890016689986766</v>
+        <v>9.022710284104916</v>
       </c>
       <c r="P3" t="n">
-        <v>2.962971091953464</v>
+        <v>8.90494637921039</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7063828751068375</v>
+        <v>3.989971101459252</v>
       </c>
       <c r="R3" t="n">
-        <v>4.597014953363387</v>
+        <v>2.328656187984784</v>
       </c>
       <c r="S3" t="n">
-        <v>3.489915801458454</v>
+        <v>2.850791195351176</v>
       </c>
       <c r="T3" t="n">
-        <v>2.165913641588493</v>
+        <v>3.247294996384755</v>
       </c>
       <c r="U3" t="n">
-        <v>5.419156660258839</v>
+        <v>6.106976080007001</v>
       </c>
       <c r="V3" t="n">
-        <v>2.54353787452763</v>
+        <v>2.477996933403144</v>
       </c>
       <c r="W3" t="n">
-        <v>4.493137400783768</v>
+        <v>6.109957387113578</v>
       </c>
       <c r="X3" t="n">
-        <v>4.54857321482821</v>
+        <v>3.293322063587612</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.474029981691898</v>
+        <v>1.844398662588862</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.816729400414131</v>
+        <v>5.117829578779072</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.122323193016781</v>
+        <v>6.574336908911399</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.513009533060765</v>
+        <v>5.931119569480542</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.041443623180111</v>
+        <v>5.09990838819393</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.854091860865082</v>
+        <v>2.673565493448183</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.919339391290676</v>
+        <v>6.868158089695699</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6950193537304328</v>
+        <v>7.150193219416552</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.754056255629199</v>
+        <v>2.99702607573002</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.682689997212264</v>
+        <v>3.595859369212925</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.544939054142652</v>
+        <v>2.396933065212934</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.614623330809328</v>
+        <v>5.549110730326511</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.172565139892046</v>
+        <v>6.45878709837423</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.801041759078461</v>
+        <v>2.717447426509678</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.99620110019678</v>
+        <v>3.521969513173476</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.565774706898299</v>
+        <v>4.629880885073755</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.880049331608192</v>
+        <v>6.299129085049112</v>
       </c>
       <c r="AP3" t="n">
-        <v>6.872255498326689</v>
+        <v>0.1612814175097359</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.306554340717965</v>
+        <v>5.20376428111127</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.539350528551842</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.562906466523085</v>
+        <v>1.956876891089619</v>
       </c>
       <c r="AT3" t="n">
-        <v>5.502078087205274</v>
+        <v>3.345563703160294</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.998431916488258</v>
+        <v>2.744253144586594</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.145984455909791</v>
+        <v>1.905236660873048</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.077881496914334</v>
+        <v>7.761971983708348</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.579703226526664</v>
+        <v>5.717365939996008</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.16937055676182</v>
+        <v>17.26558957891554</v>
       </c>
       <c r="D4" t="n">
-        <v>13.60754690281939</v>
+        <v>21.53205958199214</v>
       </c>
       <c r="E4" t="n">
-        <v>14.27320610312306</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>16.74720689878791</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.304953243474086</v>
       </c>
       <c r="H4" t="n">
-        <v>1.4298747955937</v>
+        <v>1.55213221668512</v>
       </c>
       <c r="I4" t="n">
-        <v>29.06295205591112</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>135.5607219955135</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>19.31478819417333</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>80.79062630433647</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>47.69356020953791</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>92.49343493428798</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.29820137672122</v>
+        <v>54.59414486047873</v>
       </c>
       <c r="P4" t="n">
-        <v>48.99562196422507</v>
+        <v>21.91452838384298</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4021908050205845</v>
+        <v>45.34666876277706</v>
       </c>
       <c r="R4" t="n">
-        <v>47.5219588231172</v>
+        <v>275.5641782589425</v>
       </c>
       <c r="S4" t="n">
-        <v>29.70350449511466</v>
+        <v>30.83630697940359</v>
       </c>
       <c r="T4" t="n">
-        <v>58.45168763927086</v>
+        <v>14.06203817474009</v>
       </c>
       <c r="U4" t="n">
-        <v>54.97105147165455</v>
+        <v>50.06987547807311</v>
       </c>
       <c r="V4" t="n">
-        <v>3.938108056632608</v>
+        <v>58.3687995867109</v>
       </c>
       <c r="W4" t="n">
-        <v>92.38050064822586</v>
+        <v>69.74524747232668</v>
       </c>
       <c r="X4" t="n">
-        <v>100.3360336972801</v>
+        <v>127.1248584733934</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.11392928815963</v>
+        <v>42.07265865719081</v>
       </c>
       <c r="Z4" t="n">
-        <v>83.39550865350964</v>
+        <v>66.69016511727428</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.97849132822822</v>
+        <v>93.74544725111188</v>
       </c>
       <c r="AB4" t="n">
-        <v>53.99411495661072</v>
+        <v>80.68401799272004</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.51121803509719</v>
+        <v>94.01968976361951</v>
       </c>
       <c r="AD4" t="n">
-        <v>88.67930720297079</v>
+        <v>69.25885637588111</v>
       </c>
       <c r="AE4" t="n">
-        <v>39.94572233515421</v>
+        <v>22.37487803264704</v>
       </c>
       <c r="AF4" t="n">
-        <v>84.74285719116131</v>
+        <v>37.43068537854874</v>
       </c>
       <c r="AG4" t="n">
-        <v>36.03178224728719</v>
+        <v>37.59215303309615</v>
       </c>
       <c r="AH4" t="n">
-        <v>37.52967291238397</v>
+        <v>64.83619767655904</v>
       </c>
       <c r="AI4" t="n">
-        <v>41.01056383094172</v>
+        <v>83.63045048392274</v>
       </c>
       <c r="AJ4" t="n">
-        <v>92.47393521730191</v>
+        <v>60.39018608802345</v>
       </c>
       <c r="AK4" t="n">
-        <v>22.83076970367124</v>
+        <v>96.91431520905493</v>
       </c>
       <c r="AL4" t="n">
-        <v>16.01014617955204</v>
+        <v>98.23378940179158</v>
       </c>
       <c r="AM4" t="n">
-        <v>40.14684894227863</v>
+        <v>20.06865177227851</v>
       </c>
       <c r="AN4" t="n">
-        <v>32.29388211501518</v>
+        <v>19.69377841049851</v>
       </c>
       <c r="AO4" t="n">
-        <v>20.80913617879451</v>
+        <v>18.55433808008323</v>
       </c>
       <c r="AP4" t="n">
-        <v>9.61254475168893</v>
+        <v>8.55728272351781</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13.0027983212912</v>
+        <v>38.82540547575046</v>
       </c>
       <c r="AR4" t="n">
-        <v>25.79304319359258</v>
+        <v>16.62484464547805</v>
       </c>
       <c r="AS4" t="n">
-        <v>15.35927375723094</v>
+        <v>19.99049408953399</v>
       </c>
       <c r="AT4" t="n">
-        <v>18.79030931697124</v>
+        <v>21.04511237412839</v>
       </c>
       <c r="AU4" t="n">
-        <v>11.06082103460164</v>
+        <v>3.627529453229072</v>
       </c>
       <c r="AV4" t="n">
-        <v>6.257507662269148</v>
+        <v>17.26185506259688</v>
       </c>
       <c r="AW4" t="n">
-        <v>12.62565977409231</v>
+        <v>23.39019672373769</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.91456071404452</v>
+        <v>8.425784302449861</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.75142409159652</v>
+        <v>24.33480178960283</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>8.741755671954628</v>
       </c>
       <c r="E5" t="n">
-        <v>15.95197841021986</v>
+        <v>31.6980051762119</v>
       </c>
       <c r="F5" t="n">
-        <v>15.12698520799646</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>10.57542584668002</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>112.4667109480765</v>
+        <v>52.94017136893778</v>
       </c>
       <c r="I5" t="n">
-        <v>36.68588444903092</v>
+        <v>58.4975195161668</v>
       </c>
       <c r="J5" t="n">
-        <v>50.74780213633945</v>
+        <v>12.21690259081086</v>
       </c>
       <c r="K5" t="n">
-        <v>20.08636248691184</v>
+        <v>24.80509584975897</v>
       </c>
       <c r="L5" t="n">
-        <v>91.19737093974636</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>27.58042332422178</v>
+        <v>1.412240238850867</v>
       </c>
       <c r="N5" t="n">
-        <v>78.87536636799314</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>28.15098201688465</v>
       </c>
       <c r="P5" t="n">
-        <v>47.54395910104046</v>
+        <v>5.455147242756301</v>
       </c>
       <c r="Q5" t="n">
-        <v>78.1061047439442</v>
+        <v>31.33739139249286</v>
       </c>
       <c r="R5" t="n">
-        <v>29.804649499812</v>
+        <v>141.3602671182501</v>
       </c>
       <c r="S5" t="n">
-        <v>5.533169400235214</v>
+        <v>29.72630015978085</v>
       </c>
       <c r="T5" t="n">
-        <v>58.98471014403088</v>
+        <v>26.95909775762164</v>
       </c>
       <c r="U5" t="n">
-        <v>156.8732111590461</v>
+        <v>131.0015137677142</v>
       </c>
       <c r="V5" t="n">
-        <v>85.85213712953686</v>
+        <v>105.6218885056053</v>
       </c>
       <c r="W5" t="n">
-        <v>48.41914099520955</v>
+        <v>94.26493199625426</v>
       </c>
       <c r="X5" t="n">
-        <v>31.23559531774936</v>
+        <v>16.40891216259608</v>
       </c>
       <c r="Y5" t="n">
-        <v>73.52297291816566</v>
+        <v>24.56246840289404</v>
       </c>
       <c r="Z5" t="n">
-        <v>33.9273586554866</v>
+        <v>26.79849552023516</v>
       </c>
       <c r="AA5" t="n">
-        <v>32.91375894784268</v>
+        <v>10.81300795110159</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.156168971298923</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>35.35854216753949</v>
+        <v>63.94037312994965</v>
       </c>
       <c r="AD5" t="n">
-        <v>29.21150944318423</v>
+        <v>23.26465808422454</v>
       </c>
       <c r="AE5" t="n">
-        <v>63.69147520981597</v>
+        <v>23.95206255313586</v>
       </c>
       <c r="AF5" t="n">
-        <v>32.61195915602473</v>
+        <v>38.23795131541763</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.526365175163675</v>
+        <v>26.68259982122118</v>
       </c>
       <c r="AH5" t="n">
-        <v>120.8159194911604</v>
+        <v>2.186334122129585</v>
       </c>
       <c r="AI5" t="n">
-        <v>25.70942810790537</v>
+        <v>2.935379313806943</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12.06346697217468</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>24.90064565098638</v>
+        <v>33.13630733810258</v>
       </c>
       <c r="AL5" t="n">
-        <v>30.37654483133221</v>
+        <v>39.24559072398493</v>
       </c>
       <c r="AM5" t="n">
-        <v>7.781401052699975</v>
+        <v>30.37563963366142</v>
       </c>
       <c r="AN5" t="n">
-        <v>25.15085898072602</v>
+        <v>9.254063513034051</v>
       </c>
       <c r="AO5" t="n">
-        <v>19.90798574541268</v>
+        <v>17.53667315131327</v>
       </c>
       <c r="AP5" t="n">
-        <v>32.14586226521412</v>
+        <v>39.1258504538625</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.983212202939264</v>
+        <v>27.06487198170861</v>
       </c>
       <c r="AR5" t="n">
-        <v>22.19819105903358</v>
+        <v>32.48148885255363</v>
       </c>
       <c r="AS5" t="n">
-        <v>17.07116944257349</v>
+        <v>21.59525522943322</v>
       </c>
       <c r="AT5" t="n">
-        <v>37.98846811620245</v>
+        <v>30.73552454538729</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>15.9731483719296</v>
       </c>
       <c r="AV5" t="n">
-        <v>24.60937470372965</v>
+        <v>16.96838504091444</v>
       </c>
       <c r="AW5" t="n">
-        <v>30.06426631939872</v>
+        <v>16.20096102073744</v>
       </c>
       <c r="AX5" t="n">
-        <v>26.69032487932911</v>
+        <v>34.7041884927952</v>
       </c>
     </row>
     <row r="6">
@@ -1307,142 +1307,142 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>17.59258028609849</v>
+        <v>17.63170799148242</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>7.353302520109478</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4.555138463388917</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.072003441344417</v>
+        <v>7.763481895748502</v>
       </c>
       <c r="J6" t="n">
-        <v>11.70240256655913</v>
+        <v>0.1506823386717846</v>
       </c>
       <c r="K6" t="n">
-        <v>10.57672958889569</v>
+        <v>9.806516013548995</v>
       </c>
       <c r="L6" t="n">
-        <v>9.855137582357198</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>24.30183563785917</v>
+        <v>47.72104355081972</v>
       </c>
       <c r="N6" t="n">
-        <v>15.98902232574414</v>
+        <v>18.77949335169121</v>
       </c>
       <c r="O6" t="n">
-        <v>24.24533884018962</v>
+        <v>23.50944808166998</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>23.29554592287894</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.62279272219806</v>
+        <v>31.23324530144652</v>
       </c>
       <c r="R6" t="n">
-        <v>16.83580614581364</v>
+        <v>38.75172564328933</v>
       </c>
       <c r="S6" t="n">
-        <v>60.61522062175329</v>
+        <v>28.10903900663543</v>
       </c>
       <c r="T6" t="n">
-        <v>4.558802324450935</v>
+        <v>18.82260926136208</v>
       </c>
       <c r="U6" t="n">
-        <v>21.27380913162379</v>
+        <v>3.655486806907521</v>
       </c>
       <c r="V6" t="n">
-        <v>10.68140332860465</v>
+        <v>11.69381818401163</v>
       </c>
       <c r="W6" t="n">
-        <v>31.96600845416508</v>
+        <v>21.69156992590484</v>
       </c>
       <c r="X6" t="n">
-        <v>17.41641376054539</v>
+        <v>27.58945926104619</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.99874539742732</v>
+        <v>22.98675124089262</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.10695943641201</v>
+        <v>28.37203797980212</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.22687401953526</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>41.04980003349382</v>
+        <v>7.642852120171518</v>
       </c>
       <c r="AC6" t="n">
-        <v>16.15633148392808</v>
+        <v>11.54267448560941</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.05982926979262</v>
+        <v>10.48594989288335</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.23024086418352</v>
+        <v>22.30199012875572</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.71770354583353</v>
+        <v>12.80580616032507</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.55467102936563</v>
+        <v>5.807350212741017</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.82847218603071</v>
+        <v>11.61800452671999</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.727767605855874</v>
+        <v>9.24965926336778</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6.747778380628972</v>
+        <v>9.700420419916775</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.691549072519506</v>
+        <v>12.06623039322798</v>
       </c>
       <c r="AL6" t="n">
-        <v>3.124006094475522</v>
+        <v>9.011300576494513</v>
       </c>
       <c r="AM6" t="n">
-        <v>7.103007697689667</v>
+        <v>0.8227768881013473</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.457175047368681</v>
+        <v>3.034038453985163</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.618098275361409</v>
+        <v>1.479995101115284</v>
       </c>
       <c r="AP6" t="n">
-        <v>6.030905119123013</v>
+        <v>6.357354517257432</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.184211413386837</v>
+        <v>2.585762308991894</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.5714497085436769</v>
+        <v>7.573799076330267</v>
       </c>
       <c r="AS6" t="n">
-        <v>12.75088252135837</v>
+        <v>8.295068453462942</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.032778407997001</v>
+        <v>4.009140284278192</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.86358467792283</v>
+        <v>0.3403827655273521</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>6.394623160648933</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.327764290198297</v>
+        <v>3.255589795146937</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.539781947759308</v>
+        <v>5.028955688311456</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>25.65947287937801</v>
       </c>
       <c r="D7" t="n">
-        <v>7.722229410904676</v>
+        <v>64.11112326794938</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>34.49822662803424</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>43.74432140846848</v>
       </c>
       <c r="H7" t="n">
-        <v>24.86452543859546</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>19.42214712209919</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.55707617772764</v>
+        <v>4.534851760953806</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6422961817085726</v>
+        <v>40.23972698710063</v>
       </c>
       <c r="L7" t="n">
-        <v>112.4558454010092</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>35.08533727680209</v>
+        <v>42.09162186035326</v>
       </c>
       <c r="N7" t="n">
-        <v>5.244776071992174</v>
+        <v>19.64115412878432</v>
       </c>
       <c r="O7" t="n">
-        <v>10.17187760184662</v>
+        <v>44.81732962757512</v>
       </c>
       <c r="P7" t="n">
-        <v>18.17391502401267</v>
+        <v>101.3418466338384</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.54017590257877</v>
+        <v>92.98400817144831</v>
       </c>
       <c r="R7" t="n">
-        <v>34.34574033407919</v>
+        <v>12.21522507756047</v>
       </c>
       <c r="S7" t="n">
-        <v>57.72472882106356</v>
+        <v>3.974759526500271</v>
       </c>
       <c r="T7" t="n">
-        <v>14.67400271289991</v>
+        <v>76.95935762003204</v>
       </c>
       <c r="U7" t="n">
-        <v>10.29926062995721</v>
+        <v>0.06502878837891402</v>
       </c>
       <c r="V7" t="n">
-        <v>12.22543743203033</v>
+        <v>37.68138771644675</v>
       </c>
       <c r="W7" t="n">
-        <v>17.36372163766632</v>
+        <v>23.70078804729922</v>
       </c>
       <c r="X7" t="n">
-        <v>71.45643340219266</v>
+        <v>37.90937813449655</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.75837874185795</v>
+        <v>38.90291677831585</v>
       </c>
       <c r="Z7" t="n">
-        <v>37.91120041190482</v>
+        <v>15.10882675826725</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.757546713103343</v>
+        <v>2.794010857801731</v>
       </c>
       <c r="AB7" t="n">
-        <v>21.87016527099934</v>
+        <v>15.5532199991863</v>
       </c>
       <c r="AC7" t="n">
-        <v>21.95183974276564</v>
+        <v>12.99961628855828</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.494448983889212</v>
+        <v>5.171265814316904</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.552141255495976</v>
+        <v>1.250159574785034</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>9.049000406257417</v>
       </c>
       <c r="AG7" t="n">
-        <v>20.54918302786512</v>
+        <v>2.078118413718935</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>8.904329341729898</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>57.54546910128251</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.721505521575095</v>
+        <v>3.219416497253351</v>
       </c>
       <c r="AL7" t="n">
-        <v>3.791463246699775</v>
+        <v>17.55963403135463</v>
       </c>
       <c r="AM7" t="n">
-        <v>6.235253520833968</v>
+        <v>17.28924628076331</v>
       </c>
       <c r="AN7" t="n">
-        <v>21.0905797477748</v>
+        <v>21.27767334267029</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.553364787455005</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>21.0188710227632</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.615707571737551</v>
+        <v>2.943740163437093</v>
       </c>
       <c r="AR7" t="n">
-        <v>6.240020724297031</v>
+        <v>17.14644814342975</v>
       </c>
       <c r="AS7" t="n">
-        <v>11.14556300948004</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.832890035602869</v>
+        <v>10.66660357830669</v>
       </c>
       <c r="AU7" t="n">
-        <v>16.41950466093574</v>
+        <v>5.8194454894217</v>
       </c>
       <c r="AV7" t="n">
-        <v>5.833235150082776</v>
+        <v>13.2502153051851</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.673549768177616</v>
+        <v>2.594313541878524</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.150695041814306</v>
+        <v>8.484538049984771</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.78337542475368</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>4.432117139668788</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.75447646077402</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>166.2611658707511</v>
       </c>
       <c r="H8" t="n">
-        <v>23.81832440933522</v>
+        <v>7.550799690848912</v>
       </c>
       <c r="I8" t="n">
-        <v>53.26983613334039</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>34.70191578946569</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>29.21576448041897</v>
+        <v>26.07662332169164</v>
       </c>
       <c r="L8" t="n">
-        <v>192.2589919884511</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>81.339855418526</v>
+        <v>38.46460517223061</v>
       </c>
       <c r="N8" t="n">
-        <v>79.45763116210553</v>
+        <v>16.54274541304486</v>
       </c>
       <c r="O8" t="n">
-        <v>79.26072118857455</v>
+        <v>29.3867763748786</v>
       </c>
       <c r="P8" t="n">
-        <v>15.97030676753361</v>
+        <v>56.64854103250463</v>
       </c>
       <c r="Q8" t="n">
-        <v>22.62784716790799</v>
+        <v>35.71124745095803</v>
       </c>
       <c r="R8" t="n">
-        <v>68.19385483818144</v>
+        <v>134.7296287856526</v>
       </c>
       <c r="S8" t="n">
-        <v>45.43111933867019</v>
+        <v>74.59715730952757</v>
       </c>
       <c r="T8" t="n">
-        <v>28.11384207051131</v>
+        <v>54.2958514080382</v>
       </c>
       <c r="U8" t="n">
-        <v>82.41270492393656</v>
+        <v>58.39345774611033</v>
       </c>
       <c r="V8" t="n">
-        <v>48.89655380607288</v>
+        <v>83.2521287044169</v>
       </c>
       <c r="W8" t="n">
-        <v>101.009686212923</v>
+        <v>23.64492301363427</v>
       </c>
       <c r="X8" t="n">
-        <v>187.0289145405193</v>
+        <v>33.86536128662083</v>
       </c>
       <c r="Y8" t="n">
-        <v>118.8644219280201</v>
+        <v>48.55591345280715</v>
       </c>
       <c r="Z8" t="n">
-        <v>126.8782596800677</v>
+        <v>31.98898976524931</v>
       </c>
       <c r="AA8" t="n">
-        <v>66.47198240419625</v>
+        <v>95.79878379526599</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.8179599914303</v>
+        <v>135.0057986203437</v>
       </c>
       <c r="AC8" t="n">
-        <v>98.76489143121958</v>
+        <v>47.32363201608763</v>
       </c>
       <c r="AD8" t="n">
-        <v>96.05949047178152</v>
+        <v>168.951387009572</v>
       </c>
       <c r="AE8" t="n">
-        <v>130.4689816298324</v>
+        <v>97.68829121366839</v>
       </c>
       <c r="AF8" t="n">
-        <v>172.3026187050501</v>
+        <v>58.62655507524546</v>
       </c>
       <c r="AG8" t="n">
-        <v>201.9428361020425</v>
+        <v>64.92808507814377</v>
       </c>
       <c r="AH8" t="n">
-        <v>160.7233126474601</v>
+        <v>111.8387261388154</v>
       </c>
       <c r="AI8" t="n">
-        <v>94.28938529012952</v>
+        <v>56.10989197876605</v>
       </c>
       <c r="AJ8" t="n">
-        <v>49.36299432793841</v>
+        <v>107.7232253318352</v>
       </c>
       <c r="AK8" t="n">
-        <v>62.99194931947202</v>
+        <v>111.212100303829</v>
       </c>
       <c r="AL8" t="n">
-        <v>127.5805329092707</v>
+        <v>173.3214573846302</v>
       </c>
       <c r="AM8" t="n">
-        <v>37.32938506205464</v>
+        <v>8.871895475352582</v>
       </c>
       <c r="AN8" t="n">
-        <v>26.20414706782828</v>
+        <v>29.23829689750271</v>
       </c>
       <c r="AO8" t="n">
-        <v>25.21511814971671</v>
+        <v>25.02453617470393</v>
       </c>
       <c r="AP8" t="n">
-        <v>26.03874590974367</v>
+        <v>42.57250896984151</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26.45125983310693</v>
+        <v>24.0880586401764</v>
       </c>
       <c r="AR8" t="n">
-        <v>10.76906796286091</v>
+        <v>17.11465518950209</v>
       </c>
       <c r="AS8" t="n">
-        <v>44.40918530705628</v>
+        <v>32.18582405476595</v>
       </c>
       <c r="AT8" t="n">
-        <v>14.52789172175668</v>
+        <v>45.79819780773453</v>
       </c>
       <c r="AU8" t="n">
-        <v>50.72861651111648</v>
+        <v>14.91738916398094</v>
       </c>
       <c r="AV8" t="n">
-        <v>29.89552525447563</v>
+        <v>34.68290119909838</v>
       </c>
       <c r="AW8" t="n">
-        <v>27.4500479152558</v>
+        <v>89.07695314818328</v>
       </c>
       <c r="AX8" t="n">
-        <v>33.18529402231016</v>
+        <v>37.19818187818569</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0184695448805709</v>
+        <v>2.018740596815054</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.326604045376639</v>
+        <v>4.472478496675307</v>
       </c>
       <c r="F9" t="n">
-        <v>3.616166907472909</v>
+        <v>2.349028018863666</v>
       </c>
       <c r="G9" t="n">
-        <v>1.841394334459778</v>
+        <v>2.618865108900516</v>
       </c>
       <c r="H9" t="n">
-        <v>3.176931768695691</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9.975479735826871</v>
+        <v>4.611626242773461</v>
       </c>
       <c r="J9" t="n">
-        <v>6.091541386982308</v>
+        <v>7.057071254798224</v>
       </c>
       <c r="K9" t="n">
-        <v>3.903407438075257</v>
+        <v>3.716927090939779</v>
       </c>
       <c r="L9" t="n">
-        <v>8.511251680665575</v>
+        <v>2.056758332847632</v>
       </c>
       <c r="M9" t="n">
-        <v>21.56048998545901</v>
+        <v>4.564430789947757</v>
       </c>
       <c r="N9" t="n">
-        <v>5.75610468798778</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3.151143081332828</v>
+        <v>10.07661017467821</v>
       </c>
       <c r="P9" t="n">
-        <v>7.66503089117284</v>
+        <v>3.800223555547794</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8382295537396296</v>
+        <v>1.937737082231688</v>
       </c>
       <c r="R9" t="n">
-        <v>2.742314250615677</v>
+        <v>3.593515970629382</v>
       </c>
       <c r="S9" t="n">
-        <v>5.517861088449558</v>
+        <v>2.89203911899836</v>
       </c>
       <c r="T9" t="n">
-        <v>1.778347826870754</v>
+        <v>4.736553630317176</v>
       </c>
       <c r="U9" t="n">
-        <v>6.240440301410722</v>
+        <v>3.668263668828964</v>
       </c>
       <c r="V9" t="n">
-        <v>2.059922187049854</v>
+        <v>2.817716444119537</v>
       </c>
       <c r="W9" t="n">
-        <v>2.563227993305748</v>
+        <v>4.313638359079648</v>
       </c>
       <c r="X9" t="n">
-        <v>7.268050511235419</v>
+        <v>7.425282532677618</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.466626379588172</v>
+        <v>1.523164233794758</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.055761845057896</v>
+        <v>4.655264404343242</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.619035006454466</v>
+        <v>3.335990488142026</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.491140958698917</v>
+        <v>5.995883344638886</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.406759401134021</v>
+        <v>3.176538164561277</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.632268001370063</v>
+        <v>7.975291193195477</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.0746940574622</v>
+        <v>5.171615357614684</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.550170387580458</v>
+        <v>3.930598274269427</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.941829947862491</v>
+        <v>6.402791111195587</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.110850038799114</v>
+        <v>8.932815469533937</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.394776726478717</v>
+        <v>2.98486003771561</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.584698322698842</v>
+        <v>3.666312037641694</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.920251414832064</v>
+        <v>4.185372822094435</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.733094011333585</v>
+        <v>3.355442077530991</v>
       </c>
       <c r="AM9" t="n">
-        <v>3.657416249956211</v>
+        <v>5.519117559253367</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.216734889455505</v>
+        <v>4.476492576251631</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.003217578681233</v>
+        <v>4.168203956495951</v>
       </c>
       <c r="AP9" t="n">
-        <v>6.559772240823626</v>
+        <v>3.077788784414572</v>
       </c>
       <c r="AQ9" t="n">
-        <v>10.2180224107254</v>
+        <v>3.093137714641263</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.981639378166493</v>
+        <v>7.103654494361153</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.417614476497717</v>
+        <v>2.653186435470285</v>
       </c>
       <c r="AT9" t="n">
-        <v>6.487368930763496</v>
+        <v>3.031611750095112</v>
       </c>
       <c r="AU9" t="n">
-        <v>5.009793627493436</v>
+        <v>2.47345642941749</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.148228725929536</v>
+        <v>2.152213502559152</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.029809762993239</v>
+        <v>4.798360018379917</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.785363996657897</v>
+        <v>4.306854332934102</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>16.15063952515257</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14.63966074419022</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>35.82972964389162</v>
       </c>
       <c r="F10" t="n">
-        <v>23.17450774691555</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.059486078650339</v>
+        <v>20.72053015992124</v>
       </c>
       <c r="I10" t="n">
-        <v>103.3469652525056</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.71770615513225</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>8.75419402803378</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>106.2284885936685</v>
+        <v>24.61099035358092</v>
       </c>
       <c r="M10" t="n">
-        <v>48.23542316216486</v>
+        <v>95.01193509305058</v>
       </c>
       <c r="N10" t="n">
-        <v>44.90546880825322</v>
+        <v>46.5001956439953</v>
       </c>
       <c r="O10" t="n">
-        <v>69.11006944163107</v>
+        <v>146.4925753754584</v>
       </c>
       <c r="P10" t="n">
-        <v>13.93710103396162</v>
+        <v>48.7076273579561</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.29776940152971</v>
+        <v>27.37832128715236</v>
       </c>
       <c r="R10" t="n">
-        <v>89.75923994202766</v>
+        <v>104.8968121027924</v>
       </c>
       <c r="S10" t="n">
-        <v>73.02168558280563</v>
+        <v>27.37521057642023</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9643956675153</v>
+        <v>30.90513317237092</v>
       </c>
       <c r="U10" t="n">
-        <v>98.48294144537184</v>
+        <v>130.5498800576046</v>
       </c>
       <c r="V10" t="n">
-        <v>64.83890233919281</v>
+        <v>145.0356848572442</v>
       </c>
       <c r="W10" t="n">
-        <v>86.61925384085511</v>
+        <v>15.95008808129506</v>
       </c>
       <c r="X10" t="n">
-        <v>46.8970944714205</v>
+        <v>54.02466101719101</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.50400857108443</v>
+        <v>36.64371668277398</v>
       </c>
       <c r="Z10" t="n">
-        <v>47.73762711457551</v>
+        <v>77.79913730750991</v>
       </c>
       <c r="AA10" t="n">
-        <v>89.474610929779</v>
+        <v>74.02092368881893</v>
       </c>
       <c r="AB10" t="n">
-        <v>53.04469561640919</v>
+        <v>85.82255085770144</v>
       </c>
       <c r="AC10" t="n">
-        <v>74.29489221626105</v>
+        <v>49.28676283310216</v>
       </c>
       <c r="AD10" t="n">
-        <v>77.30026489782294</v>
+        <v>80.4546634087133</v>
       </c>
       <c r="AE10" t="n">
-        <v>42.2639967126012</v>
+        <v>41.50877840633951</v>
       </c>
       <c r="AF10" t="n">
-        <v>87.88892351244746</v>
+        <v>66.61911462217158</v>
       </c>
       <c r="AG10" t="n">
-        <v>79.05273763782326</v>
+        <v>83.31137437301524</v>
       </c>
       <c r="AH10" t="n">
-        <v>59.85009900231085</v>
+        <v>80.00787564639116</v>
       </c>
       <c r="AI10" t="n">
-        <v>17.83176346202594</v>
+        <v>39.21929405287141</v>
       </c>
       <c r="AJ10" t="n">
-        <v>48.33497485754361</v>
+        <v>91.80060963907732</v>
       </c>
       <c r="AK10" t="n">
-        <v>42.86448028309527</v>
+        <v>21.88643905241448</v>
       </c>
       <c r="AL10" t="n">
-        <v>26.46061481066539</v>
+        <v>91.37604310655513</v>
       </c>
       <c r="AM10" t="n">
-        <v>16.00421451441531</v>
+        <v>4.803713971201987</v>
       </c>
       <c r="AN10" t="n">
-        <v>12.31898806379293</v>
+        <v>34.58439041050597</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.298491980957497</v>
+        <v>22.2203733778875</v>
       </c>
       <c r="AP10" t="n">
-        <v>16.78101164035438</v>
+        <v>36.10763084219415</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8.199708801827242</v>
+        <v>32.20004224249507</v>
       </c>
       <c r="AR10" t="n">
-        <v>9.04517324247772</v>
+        <v>20.23701699945907</v>
       </c>
       <c r="AS10" t="n">
-        <v>23.25255452814693</v>
+        <v>6.943567849850969</v>
       </c>
       <c r="AT10" t="n">
-        <v>7.938688218822268</v>
+        <v>7.607775973961931</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.467968793233777</v>
+        <v>0.1655019147675967</v>
       </c>
       <c r="AV10" t="n">
-        <v>10.36786724680956</v>
+        <v>23.07692263727704</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.23903211071111</v>
+        <v>6.660095450484519</v>
       </c>
       <c r="AX10" t="n">
-        <v>8.702815597540681</v>
+        <v>19.58420871882862</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>23.50984660419897</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>29.43054745011166</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>14.59370825828534</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.396694124748081</v>
       </c>
       <c r="H11" t="n">
-        <v>31.74071899747252</v>
+        <v>6.950074059449133</v>
       </c>
       <c r="I11" t="n">
-        <v>114.8229187883458</v>
+        <v>5.214564420716775</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44849628617996</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>249.4611913823059</v>
+        <v>15.59519791293484</v>
       </c>
       <c r="M11" t="n">
-        <v>36.29015320715092</v>
+        <v>0.4580337884339603</v>
       </c>
       <c r="N11" t="n">
-        <v>11.41833542379655</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>35.86620870018807</v>
+        <v>75.14686613673724</v>
       </c>
       <c r="P11" t="n">
-        <v>36.10209571415849</v>
+        <v>216.7013922740701</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.85875169264394</v>
+        <v>82.96528542058606</v>
       </c>
       <c r="R11" t="n">
-        <v>136.5116466717353</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.91656889351917</v>
+        <v>85.15632068535704</v>
       </c>
       <c r="T11" t="n">
-        <v>64.34854857596737</v>
+        <v>36.13226606260768</v>
       </c>
       <c r="U11" t="n">
-        <v>87.31326438836192</v>
+        <v>211.0043952555596</v>
       </c>
       <c r="V11" t="n">
-        <v>39.38999914499731</v>
+        <v>28.29086585770554</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.44987894401855</v>
+        <v>65.85748268162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>36.41402620729512</v>
+        <v>70.29452889934225</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.75452172416015</v>
+        <v>60.61066357783079</v>
       </c>
       <c r="AA11" t="n">
-        <v>38.71909054024595</v>
+        <v>42.20604841517908</v>
       </c>
       <c r="AB11" t="n">
-        <v>75.85490002608751</v>
+        <v>36.43867548914147</v>
       </c>
       <c r="AC11" t="n">
-        <v>88.98297326838559</v>
+        <v>37.25674717190859</v>
       </c>
       <c r="AD11" t="n">
-        <v>9.715513427462398</v>
+        <v>6.447794275804703</v>
       </c>
       <c r="AE11" t="n">
-        <v>27.61573237536872</v>
+        <v>43.51164377210182</v>
       </c>
       <c r="AF11" t="n">
-        <v>22.14920892687673</v>
+        <v>101.6023331291856</v>
       </c>
       <c r="AG11" t="n">
-        <v>70.54072132443638</v>
+        <v>37.03865625002</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>21.37157848115196</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.470054537931533</v>
+        <v>42.2066029270002</v>
       </c>
       <c r="AJ11" t="n">
-        <v>57.53932169757518</v>
+        <v>36.18639614030524</v>
       </c>
       <c r="AK11" t="n">
-        <v>33.44517386416276</v>
+        <v>18.3371846877172</v>
       </c>
       <c r="AL11" t="n">
-        <v>26.77316685819893</v>
+        <v>14.86478553697475</v>
       </c>
       <c r="AM11" t="n">
-        <v>26.19314217739521</v>
+        <v>6.828310696464252</v>
       </c>
       <c r="AN11" t="n">
-        <v>45.66242095897109</v>
+        <v>32.27447069071867</v>
       </c>
       <c r="AO11" t="n">
-        <v>10.00774651081743</v>
+        <v>18.95732520872697</v>
       </c>
       <c r="AP11" t="n">
-        <v>28.07052196844095</v>
+        <v>31.43050344201558</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>27.9468330914408</v>
       </c>
       <c r="AR11" t="n">
-        <v>22.5164893229836</v>
+        <v>30.10270614809995</v>
       </c>
       <c r="AS11" t="n">
-        <v>17.75543104384148</v>
+        <v>27.80808696023099</v>
       </c>
       <c r="AT11" t="n">
-        <v>33.96864170612331</v>
+        <v>51.3313495033174</v>
       </c>
       <c r="AU11" t="n">
-        <v>35.08976252501287</v>
+        <v>24.05489063952102</v>
       </c>
       <c r="AV11" t="n">
-        <v>33.92505178163938</v>
+        <v>15.22973894967926</v>
       </c>
       <c r="AW11" t="n">
-        <v>9.602206602836819</v>
+        <v>21.77569945084399</v>
       </c>
       <c r="AX11" t="n">
-        <v>35.39433049964732</v>
+        <v>37.25228304522828</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5.452669023736979</v>
+        <v>10.99788945323954</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8601829354174313</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3946454569455042</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>12.58115463826467</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5.713950150030538</v>
+        <v>42.08822752653862</v>
       </c>
       <c r="H12" t="n">
-        <v>32.4568676557671</v>
+        <v>5.540338816938328</v>
       </c>
       <c r="I12" t="n">
-        <v>22.93553477913957</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>19.95041201231145</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>31.04874227133544</v>
+        <v>29.36957401332961</v>
       </c>
       <c r="L12" t="n">
-        <v>43.8202857443957</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>48.71468954129864</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>13.78021381736817</v>
+        <v>28.49296011531592</v>
       </c>
       <c r="O12" t="n">
-        <v>32.70141431797455</v>
+        <v>38.41716632540538</v>
       </c>
       <c r="P12" t="n">
-        <v>88.84659986491623</v>
+        <v>3.481922566642937</v>
       </c>
       <c r="Q12" t="n">
-        <v>17.13942215412735</v>
+        <v>14.60727641054579</v>
       </c>
       <c r="R12" t="n">
-        <v>14.65233947699953</v>
+        <v>13.89484468635163</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2022236258516301</v>
+        <v>127.2554943467491</v>
       </c>
       <c r="T12" t="n">
-        <v>18.05237931688674</v>
+        <v>19.92383253510846</v>
       </c>
       <c r="U12" t="n">
-        <v>10.7701464646432</v>
+        <v>74.99920010145934</v>
       </c>
       <c r="V12" t="n">
-        <v>13.19551117999862</v>
+        <v>4.718194389641148</v>
       </c>
       <c r="W12" t="n">
-        <v>12.9039541512379</v>
+        <v>14.107492451189</v>
       </c>
       <c r="X12" t="n">
-        <v>40.77953012771731</v>
+        <v>75.54921344518456</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.07537915904068</v>
+        <v>12.72096079539049</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.90900336628569</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>16.64985910962855</v>
+        <v>14.37139427793078</v>
       </c>
       <c r="AB12" t="n">
-        <v>5.699655169861373</v>
+        <v>4.448013402102448</v>
       </c>
       <c r="AC12" t="n">
-        <v>22.72858346040643</v>
+        <v>5.100587528908</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.36811902324572</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>28.03798696251406</v>
+        <v>12.27554795123727</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.750228573164943</v>
+        <v>5.840511912479338</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.38158745132808</v>
+        <v>16.53157925011435</v>
       </c>
       <c r="AH12" t="n">
-        <v>30.17686469878997</v>
+        <v>26.22756356502211</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.121659285703094</v>
+        <v>25.06504029501031</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2.7072920109242</v>
+        <v>10.15785007550367</v>
       </c>
       <c r="AK12" t="n">
-        <v>5.36882416136812</v>
+        <v>3.270666005666632</v>
       </c>
       <c r="AL12" t="n">
-        <v>3.542967394991392</v>
+        <v>10.92331148693402</v>
       </c>
       <c r="AM12" t="n">
-        <v>7.860864697514379</v>
+        <v>0.2440469222691916</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.727585936378359</v>
+        <v>0.9998377828961516</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.837018924012799</v>
+        <v>0.3898129797621074</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.485708143060827</v>
+        <v>3.036445483831026</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.905580450414292</v>
+        <v>4.423340886468007</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.131006616353947</v>
+        <v>2.988821407689505</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.704467363546628</v>
+        <v>4.308559551314044</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.058977268301703</v>
+        <v>2.646284198519588</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9704650965247369</v>
+        <v>3.843345411633721</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.08477404604307681</v>
+        <v>1.309801959020481</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.009892865545601</v>
+        <v>0.6013011150299141</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.949304139376187</v>
+        <v>0.6023940258730809</v>
       </c>
     </row>
     <row r="13">
@@ -2368,145 +2368,145 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>23.95650874844753</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>28.06245026023194</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>13.13626530347002</v>
       </c>
       <c r="G13" t="n">
-        <v>8.380819343582926</v>
+        <v>37.29908341314463</v>
       </c>
       <c r="H13" t="n">
-        <v>30.68066034133754</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>28.99561203079868</v>
+        <v>30.38112625211425</v>
       </c>
       <c r="J13" t="n">
-        <v>53.60105796232574</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>100.966683835394</v>
+        <v>34.32378794869582</v>
       </c>
       <c r="L13" t="n">
-        <v>33.14812536360209</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>57.82997621283333</v>
+        <v>5.647501135753293</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.132094519216999</v>
       </c>
       <c r="O13" t="n">
-        <v>115.9999314150718</v>
+        <v>49.80624861848611</v>
       </c>
       <c r="P13" t="n">
-        <v>18.28068213837331</v>
+        <v>8.218616858259967</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.93417386880296</v>
+        <v>31.96642304753538</v>
       </c>
       <c r="R13" t="n">
-        <v>11.60561951981356</v>
+        <v>49.40771842353206</v>
       </c>
       <c r="S13" t="n">
-        <v>41.76072676804609</v>
+        <v>41.29229028534197</v>
       </c>
       <c r="T13" t="n">
-        <v>3.808474966507436</v>
+        <v>142.7220025589111</v>
       </c>
       <c r="U13" t="n">
-        <v>69.08603005767992</v>
+        <v>47.85205217417837</v>
       </c>
       <c r="V13" t="n">
-        <v>18.78222322509153</v>
+        <v>46.75242547678764</v>
       </c>
       <c r="W13" t="n">
-        <v>109.8268278210727</v>
+        <v>62.27800585012222</v>
       </c>
       <c r="X13" t="n">
-        <v>12.67752881326698</v>
+        <v>43.90230501911701</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.20784158361769</v>
+        <v>60.69727222023825</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.13198431221012</v>
+        <v>2.93237195630444</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.760296629984664</v>
+        <v>17.52344083410755</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>13.2923060365117</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.669729001050325</v>
+        <v>16.37400209829006</v>
       </c>
       <c r="AD13" t="n">
-        <v>28.15134329615847</v>
+        <v>10.85370668303386</v>
       </c>
       <c r="AE13" t="n">
-        <v>14.14008884765457</v>
+        <v>19.95152178004004</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.05051512631857</v>
+        <v>8.808882418206561</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.99496784666234</v>
+        <v>31.84827377681769</v>
       </c>
       <c r="AH13" t="n">
-        <v>12.04967487537214</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.366562823559759</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17.26020860563442</v>
+        <v>16.02780506079827</v>
       </c>
       <c r="AK13" t="n">
-        <v>11.05499406665069</v>
+        <v>6.667023261314696</v>
       </c>
       <c r="AL13" t="n">
-        <v>5.163504681309262</v>
+        <v>11.39141706912761</v>
       </c>
       <c r="AM13" t="n">
-        <v>5.777556257721041</v>
+        <v>3.750543763838237</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>6.310493290218185</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.871024160661097</v>
+        <v>36.15345863391784</v>
       </c>
       <c r="AP13" t="n">
-        <v>12.30693502834532</v>
+        <v>13.33351675436706</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16.50004742211424</v>
+        <v>2.404579895476513</v>
       </c>
       <c r="AR13" t="n">
-        <v>8.130747151890358</v>
+        <v>4.751719450304537</v>
       </c>
       <c r="AS13" t="n">
-        <v>3.381603387194945</v>
+        <v>13.12330961699358</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.808401104297604</v>
+        <v>5.143799833802574</v>
       </c>
       <c r="AU13" t="n">
-        <v>4.636529769423222</v>
+        <v>2.816141197229947</v>
       </c>
       <c r="AV13" t="n">
-        <v>4.629952999872325</v>
+        <v>2.93551997973365</v>
       </c>
       <c r="AW13" t="n">
-        <v>9.93233913102805</v>
+        <v>15.10153863873844</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.5525017766102791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>35.63776513515305</v>
+        <v>14.85922304688995</v>
       </c>
       <c r="D14" t="n">
-        <v>19.00465006875891</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>80.39845201277259</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>150.3213738489886</v>
       </c>
       <c r="G14" t="n">
-        <v>57.01027883188377</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>51.27863842865231</v>
       </c>
       <c r="I14" t="n">
-        <v>64.35399145209234</v>
+        <v>42.6154803532182</v>
       </c>
       <c r="J14" t="n">
-        <v>69.53892661457948</v>
+        <v>32.27696294647686</v>
       </c>
       <c r="K14" t="n">
-        <v>61.96819170027791</v>
+        <v>20.12459700058199</v>
       </c>
       <c r="L14" t="n">
-        <v>88.92875851343371</v>
+        <v>25.35585774850371</v>
       </c>
       <c r="M14" t="n">
-        <v>48.8294674976327</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>101.6221666630698</v>
+        <v>12.29112586030377</v>
       </c>
       <c r="O14" t="n">
-        <v>46.86907736642023</v>
+        <v>43.93710140796108</v>
       </c>
       <c r="P14" t="n">
-        <v>95.52388316827853</v>
+        <v>100.5713393683975</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.7149895071714</v>
+        <v>97.82300358437334</v>
       </c>
       <c r="R14" t="n">
-        <v>43.28934397536342</v>
+        <v>164.3906560402226</v>
       </c>
       <c r="S14" t="n">
-        <v>34.48582528689266</v>
+        <v>23.07327068614631</v>
       </c>
       <c r="T14" t="n">
-        <v>104.0531868356076</v>
+        <v>61.10008922014618</v>
       </c>
       <c r="U14" t="n">
-        <v>32.91104921345693</v>
+        <v>78.70119647377639</v>
       </c>
       <c r="V14" t="n">
-        <v>13.68494741497715</v>
+        <v>59.02171188058568</v>
       </c>
       <c r="W14" t="n">
-        <v>90.95419782327993</v>
+        <v>29.64693752508157</v>
       </c>
       <c r="X14" t="n">
-        <v>30.42222281218122</v>
+        <v>50.09775947045539</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.49947697938504</v>
+        <v>32.80756066135355</v>
       </c>
       <c r="Z14" t="n">
-        <v>131.645639824587</v>
+        <v>69.38310617290257</v>
       </c>
       <c r="AA14" t="n">
-        <v>142.531292820252</v>
+        <v>54.31098693552737</v>
       </c>
       <c r="AB14" t="n">
-        <v>264.2233109068004</v>
+        <v>63.30898559039955</v>
       </c>
       <c r="AC14" t="n">
-        <v>110.6399245006983</v>
+        <v>147.3457352240206</v>
       </c>
       <c r="AD14" t="n">
-        <v>181.5112205006178</v>
+        <v>53.72285868827699</v>
       </c>
       <c r="AE14" t="n">
-        <v>103.8367998549058</v>
+        <v>153.1072696302555</v>
       </c>
       <c r="AF14" t="n">
-        <v>145.8657458127251</v>
+        <v>178.9660922285803</v>
       </c>
       <c r="AG14" t="n">
-        <v>102.3590585314698</v>
+        <v>58.81212780258329</v>
       </c>
       <c r="AH14" t="n">
-        <v>134.8618147466181</v>
+        <v>86.19091282848888</v>
       </c>
       <c r="AI14" t="n">
-        <v>55.25113120423048</v>
+        <v>47.18365680446897</v>
       </c>
       <c r="AJ14" t="n">
-        <v>65.38735825232112</v>
+        <v>119.0491295058795</v>
       </c>
       <c r="AK14" t="n">
-        <v>76.26214557969465</v>
+        <v>128.4420003288928</v>
       </c>
       <c r="AL14" t="n">
-        <v>71.05356436891664</v>
+        <v>92.27279777475687</v>
       </c>
       <c r="AM14" t="n">
-        <v>33.02980535705196</v>
+        <v>27.66874307141206</v>
       </c>
       <c r="AN14" t="n">
-        <v>11.87258388223112</v>
+        <v>17.42521233104455</v>
       </c>
       <c r="AO14" t="n">
-        <v>30.51941622783699</v>
+        <v>59.16324709326023</v>
       </c>
       <c r="AP14" t="n">
-        <v>28.46484950168058</v>
+        <v>20.00293408232782</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19.17474140485125</v>
+        <v>37.52908799890657</v>
       </c>
       <c r="AR14" t="n">
-        <v>25.66195693700976</v>
+        <v>45.97600341083689</v>
       </c>
       <c r="AS14" t="n">
-        <v>19.76595247569443</v>
+        <v>12.69665903915794</v>
       </c>
       <c r="AT14" t="n">
-        <v>21.83775734628881</v>
+        <v>23.11615371824794</v>
       </c>
       <c r="AU14" t="n">
-        <v>20.62476731258076</v>
+        <v>13.42994128943365</v>
       </c>
       <c r="AV14" t="n">
-        <v>15.9165456459777</v>
+        <v>21.68715580019239</v>
       </c>
       <c r="AW14" t="n">
-        <v>21.20319078516403</v>
+        <v>32.17860910419625</v>
       </c>
       <c r="AX14" t="n">
-        <v>15.63791534511113</v>
+        <v>29.39694853915507</v>
       </c>
     </row>
     <row r="15">
@@ -2672,145 +2672,145 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.756723581525842</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>5.973192699145501</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.910238860071578</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.650303820185762</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.220820924525143</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1.557051356183904</v>
+        <v>8.468544292233231</v>
       </c>
       <c r="L15" t="n">
-        <v>1.931023004099707</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6446214167308261</v>
+        <v>1.344939938823859</v>
       </c>
       <c r="N15" t="n">
-        <v>3.916825881004844</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3.181287878895587</v>
+        <v>6.005677385029525</v>
       </c>
       <c r="P15" t="n">
-        <v>7.129831346945501</v>
+        <v>2.638536453419002</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.392920961171277</v>
+        <v>5.521679586854708</v>
       </c>
       <c r="R15" t="n">
-        <v>3.310635617589439</v>
+        <v>2.76295827535896</v>
       </c>
       <c r="S15" t="n">
-        <v>2.90852623281167</v>
+        <v>4.175858580373509</v>
       </c>
       <c r="T15" t="n">
-        <v>1.978724171678545</v>
+        <v>2.935329752947217</v>
       </c>
       <c r="U15" t="n">
-        <v>3.951303137009226</v>
+        <v>5.039293544121304</v>
       </c>
       <c r="V15" t="n">
-        <v>2.972055272280534</v>
+        <v>2.033166418968829</v>
       </c>
       <c r="W15" t="n">
-        <v>2.458358311285606</v>
+        <v>3.952038795031235</v>
       </c>
       <c r="X15" t="n">
-        <v>8.33286957980987</v>
+        <v>5.695645966997206</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.215702795302301</v>
+        <v>0.8353625844817532</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.730376291896206</v>
+        <v>2.372200830777252</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.085568451531209</v>
+        <v>1.184592332549733</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.614100540079851</v>
+        <v>3.861417742968665</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.801629021100509</v>
+        <v>6.884434689583313</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.648852618963018</v>
+        <v>4.760275098981712</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.210926731035221</v>
+        <v>5.741293777823092</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.569050007313161</v>
+        <v>9.117332509867143</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.706307994875273</v>
+        <v>6.595655183432267</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.735048765625219</v>
+        <v>4.112707052434249</v>
       </c>
       <c r="AI15" t="n">
-        <v>3.375505243428762</v>
+        <v>4.489179083704687</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.759733040940617</v>
+        <v>1.655605466678105</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.166759335993742</v>
+        <v>5.20813646528699</v>
       </c>
       <c r="AL15" t="n">
-        <v>6.770779487212825</v>
+        <v>5.958811434947307</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.02678863937533</v>
+        <v>3.685784684887367</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.888153086738876</v>
+        <v>2.186423096453052</v>
       </c>
       <c r="AO15" t="n">
-        <v>2.840963963927275</v>
+        <v>2.30409111838444</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.531277533200504</v>
+        <v>4.86274253072895</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.56600207722379</v>
+        <v>4.179948503183704</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.456594278679881</v>
+        <v>3.831012572377906</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.942174309203111</v>
+        <v>4.661591050330951</v>
       </c>
       <c r="AT15" t="n">
-        <v>4.898595640612477</v>
+        <v>2.295750034472645</v>
       </c>
       <c r="AU15" t="n">
-        <v>3.018589039491569</v>
+        <v>3.791169522167016</v>
       </c>
       <c r="AV15" t="n">
-        <v>4.992225334188483</v>
+        <v>1.940456844547459</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.709346092548211</v>
+        <v>4.410406839276767</v>
       </c>
       <c r="AX15" t="n">
-        <v>4.913067758765521</v>
+        <v>4.067093798053285</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>11.30111960670984</v>
+        <v>11.99229871771182</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>147.5449756380228</v>
       </c>
       <c r="E16" t="n">
-        <v>11.32912567919439</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>64.75030196349029</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>37.02597526288903</v>
+        <v>28.39481016462133</v>
       </c>
       <c r="I16" t="n">
-        <v>33.08535554074416</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>163.9290478353138</v>
+        <v>12.99299587175548</v>
       </c>
       <c r="K16" t="n">
-        <v>36.30996692586079</v>
+        <v>50.24979308074506</v>
       </c>
       <c r="L16" t="n">
-        <v>47.42652171295097</v>
+        <v>26.84634004376478</v>
       </c>
       <c r="M16" t="n">
-        <v>55.28856825400655</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>42.99773071747512</v>
+        <v>74.88964424902794</v>
       </c>
       <c r="O16" t="n">
-        <v>10.45693029779584</v>
+        <v>70.42966644549546</v>
       </c>
       <c r="P16" t="n">
-        <v>25.88241830587983</v>
+        <v>81.04347235042938</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.34006631934388</v>
+        <v>138.3331929311281</v>
       </c>
       <c r="R16" t="n">
-        <v>35.41196649912317</v>
+        <v>64.85621198274738</v>
       </c>
       <c r="S16" t="n">
-        <v>67.04989800493178</v>
+        <v>46.76289922010335</v>
       </c>
       <c r="T16" t="n">
-        <v>74.77229092732102</v>
+        <v>97.16612680686085</v>
       </c>
       <c r="U16" t="n">
-        <v>47.13139768705959</v>
+        <v>181.9286319546141</v>
       </c>
       <c r="V16" t="n">
-        <v>56.98555122473523</v>
+        <v>43.72824695510956</v>
       </c>
       <c r="W16" t="n">
-        <v>109.8816773435073</v>
+        <v>61.69463857452857</v>
       </c>
       <c r="X16" t="n">
-        <v>65.63237167131547</v>
+        <v>13.71138323157136</v>
       </c>
       <c r="Y16" t="n">
-        <v>95.74679674679051</v>
+        <v>36.94352827315834</v>
       </c>
       <c r="Z16" t="n">
-        <v>102.4458036553161</v>
+        <v>44.0083614893117</v>
       </c>
       <c r="AA16" t="n">
-        <v>97.34782126121523</v>
+        <v>81.76053595789517</v>
       </c>
       <c r="AB16" t="n">
-        <v>64.08444679043761</v>
+        <v>33.26152395288861</v>
       </c>
       <c r="AC16" t="n">
-        <v>52.34893100072374</v>
+        <v>103.4454980781315</v>
       </c>
       <c r="AD16" t="n">
-        <v>104.3826369870283</v>
+        <v>34.85300897113707</v>
       </c>
       <c r="AE16" t="n">
-        <v>120.132569596968</v>
+        <v>37.36814873237334</v>
       </c>
       <c r="AF16" t="n">
-        <v>91.37748201194529</v>
+        <v>66.77555532104014</v>
       </c>
       <c r="AG16" t="n">
-        <v>69.71273005927866</v>
+        <v>61.66751786131095</v>
       </c>
       <c r="AH16" t="n">
-        <v>41.56069108958325</v>
+        <v>130.7019178747829</v>
       </c>
       <c r="AI16" t="n">
-        <v>125.7951088356908</v>
+        <v>25.36678581794277</v>
       </c>
       <c r="AJ16" t="n">
-        <v>109.270414123093</v>
+        <v>31.14001012060201</v>
       </c>
       <c r="AK16" t="n">
-        <v>74.08558680981496</v>
+        <v>57.242670597611</v>
       </c>
       <c r="AL16" t="n">
-        <v>38.59478323800028</v>
+        <v>149.1109217829991</v>
       </c>
       <c r="AM16" t="n">
-        <v>22.44057038130081</v>
+        <v>23.24413673945531</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.291457379105097</v>
+        <v>7.436091493560252</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.91949147891874</v>
+        <v>8.08321790193351</v>
       </c>
       <c r="AP16" t="n">
-        <v>9.544045882369701</v>
+        <v>18.74602219689882</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19.98876906323381</v>
+        <v>6.480057568610294</v>
       </c>
       <c r="AR16" t="n">
-        <v>18.79595166801136</v>
+        <v>46.06283694174667</v>
       </c>
       <c r="AS16" t="n">
-        <v>19.63067454700778</v>
+        <v>16.18959035591061</v>
       </c>
       <c r="AT16" t="n">
-        <v>5.552003665328074</v>
+        <v>32.72166897383907</v>
       </c>
       <c r="AU16" t="n">
-        <v>10.08964486214243</v>
+        <v>8.361307256992331</v>
       </c>
       <c r="AV16" t="n">
-        <v>7.328915852593715</v>
+        <v>27.64244835989963</v>
       </c>
       <c r="AW16" t="n">
-        <v>6.07889830312248</v>
+        <v>10.34992322774843</v>
       </c>
       <c r="AX16" t="n">
-        <v>12.57394177344223</v>
+        <v>3.750756060761983</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>33.60488818606571</v>
+        <v>99.63330277171848</v>
       </c>
       <c r="D17" t="n">
-        <v>6.272991313529646</v>
+        <v>18.20895930204646</v>
       </c>
       <c r="E17" t="n">
-        <v>1.672390470155086</v>
+        <v>52.95071424458501</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>55.88958947709297</v>
       </c>
       <c r="G17" t="n">
-        <v>65.71309035177194</v>
+        <v>19.73993041295169</v>
       </c>
       <c r="H17" t="n">
-        <v>22.97221636977496</v>
+        <v>4.228640425520712</v>
       </c>
       <c r="I17" t="n">
-        <v>42.44283382258409</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6.977414904380211</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>39.64851839642338</v>
       </c>
       <c r="L17" t="n">
-        <v>16.68654618454686</v>
+        <v>71.04815275361288</v>
       </c>
       <c r="M17" t="n">
-        <v>47.90524212803896</v>
+        <v>26.77569318016728</v>
       </c>
       <c r="N17" t="n">
-        <v>109.7994009731523</v>
+        <v>47.88545913162729</v>
       </c>
       <c r="O17" t="n">
-        <v>52.14336191048282</v>
+        <v>58.53190063900247</v>
       </c>
       <c r="P17" t="n">
-        <v>196.5112548225196</v>
+        <v>8.853217380191399</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.83472533518463</v>
+        <v>30.96672927168964</v>
       </c>
       <c r="R17" t="n">
-        <v>28.80156344062319</v>
+        <v>1.888448129028706</v>
       </c>
       <c r="S17" t="n">
-        <v>43.72971661777463</v>
+        <v>2.489986595981641</v>
       </c>
       <c r="T17" t="n">
-        <v>106.8925567789659</v>
+        <v>146.3580003081599</v>
       </c>
       <c r="U17" t="n">
-        <v>70.91312793524192</v>
+        <v>15.70243666510439</v>
       </c>
       <c r="V17" t="n">
-        <v>79.96259348152742</v>
+        <v>54.66533038977971</v>
       </c>
       <c r="W17" t="n">
-        <v>59.91159661665915</v>
+        <v>125.0250774523709</v>
       </c>
       <c r="X17" t="n">
-        <v>98.19299565369781</v>
+        <v>34.93431961864333</v>
       </c>
       <c r="Y17" t="n">
-        <v>87.55761332682283</v>
+        <v>24.89173235541812</v>
       </c>
       <c r="Z17" t="n">
-        <v>41.97837898580649</v>
+        <v>70.62348143755629</v>
       </c>
       <c r="AA17" t="n">
-        <v>17.28693074433385</v>
+        <v>34.98737221686692</v>
       </c>
       <c r="AB17" t="n">
-        <v>47.30792888185334</v>
+        <v>69.68678427435373</v>
       </c>
       <c r="AC17" t="n">
-        <v>21.70310231751917</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.604393931249513</v>
+        <v>25.74827721383274</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.86424159389696</v>
+        <v>166.5035014781895</v>
       </c>
       <c r="AF17" t="n">
-        <v>19.34035004488842</v>
+        <v>25.31507338925143</v>
       </c>
       <c r="AG17" t="n">
-        <v>29.60897074810087</v>
+        <v>4.130941165197516</v>
       </c>
       <c r="AH17" t="n">
-        <v>15.5240181343043</v>
+        <v>49.01270938960664</v>
       </c>
       <c r="AI17" t="n">
-        <v>28.33918072999527</v>
+        <v>22.43291668691588</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19.07159244490245</v>
+        <v>34.45991719048541</v>
       </c>
       <c r="AK17" t="n">
-        <v>18.07445530960023</v>
+        <v>47.83632547021765</v>
       </c>
       <c r="AL17" t="n">
-        <v>18.72440871792311</v>
+        <v>23.57362546019995</v>
       </c>
       <c r="AM17" t="n">
-        <v>25.51802373680332</v>
+        <v>23.06819081426384</v>
       </c>
       <c r="AN17" t="n">
-        <v>11.64973481017384</v>
+        <v>6.79448239856228</v>
       </c>
       <c r="AO17" t="n">
-        <v>20.22042296675441</v>
+        <v>27.41456808559355</v>
       </c>
       <c r="AP17" t="n">
-        <v>26.96224358123</v>
+        <v>53.55795444613132</v>
       </c>
       <c r="AQ17" t="n">
-        <v>31.00297498946368</v>
+        <v>17.89411105835942</v>
       </c>
       <c r="AR17" t="n">
-        <v>10.04891346440076</v>
+        <v>11.61320633287118</v>
       </c>
       <c r="AS17" t="n">
-        <v>20.79666721388764</v>
+        <v>30.51063214656385</v>
       </c>
       <c r="AT17" t="n">
-        <v>43.60225759336582</v>
+        <v>20.81484967920092</v>
       </c>
       <c r="AU17" t="n">
-        <v>16.02224350711413</v>
+        <v>15.04668111423881</v>
       </c>
       <c r="AV17" t="n">
-        <v>9.674509218806026</v>
+        <v>19.72924347750877</v>
       </c>
       <c r="AW17" t="n">
-        <v>25.97078263480746</v>
+        <v>3.907357954364703</v>
       </c>
       <c r="AX17" t="n">
-        <v>37.90765795738577</v>
+        <v>40.10730053395673</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>10.37358063505314</v>
+        <v>8.782231201114673</v>
       </c>
       <c r="D18" t="n">
-        <v>1.505355527547192</v>
+        <v>14.3677031222899</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>6.750874846347413</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>15.69739926358915</v>
       </c>
       <c r="G18" t="n">
-        <v>1.230724024530248</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>6.859142245290505</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.65877281247657</v>
+        <v>7.005632204751254</v>
       </c>
       <c r="J18" t="n">
-        <v>50.6717876767147</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>18.166551410641</v>
+        <v>17.08741747445489</v>
       </c>
       <c r="L18" t="n">
-        <v>6.079009784843044</v>
+        <v>0.6748343467355049</v>
       </c>
       <c r="M18" t="n">
-        <v>12.30097004315117</v>
+        <v>0.08940825329074187</v>
       </c>
       <c r="N18" t="n">
-        <v>5.839088479753842</v>
+        <v>46.19134014448</v>
       </c>
       <c r="O18" t="n">
-        <v>25.34623726090742</v>
+        <v>84.1421935734287</v>
       </c>
       <c r="P18" t="n">
-        <v>53.00024546658591</v>
+        <v>14.18110034408295</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.484921345522314</v>
+        <v>41.82402638854626</v>
       </c>
       <c r="R18" t="n">
-        <v>29.05300805438821</v>
+        <v>6.865423800942112</v>
       </c>
       <c r="S18" t="n">
-        <v>44.50249647171108</v>
+        <v>22.46530117274301</v>
       </c>
       <c r="T18" t="n">
-        <v>5.49823911048441</v>
+        <v>13.52098877385177</v>
       </c>
       <c r="U18" t="n">
-        <v>18.07452828383428</v>
+        <v>21.43199601644096</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>9.393458682783724</v>
       </c>
       <c r="W18" t="n">
-        <v>20.87750393417134</v>
+        <v>26.00554533390085</v>
       </c>
       <c r="X18" t="n">
-        <v>19.71617976211695</v>
+        <v>11.34480573021907</v>
       </c>
       <c r="Y18" t="n">
-        <v>36.94164178644927</v>
+        <v>26.33723323119589</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.73842690477872</v>
+        <v>19.82478703532392</v>
       </c>
       <c r="AA18" t="n">
-        <v>11.02234262795711</v>
+        <v>9.050691925357524</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.33167234221957</v>
+        <v>20.72792360046667</v>
       </c>
       <c r="AC18" t="n">
-        <v>24.54972563812474</v>
+        <v>21.82971552568566</v>
       </c>
       <c r="AD18" t="n">
-        <v>18.2432836762319</v>
+        <v>9.577491082215337</v>
       </c>
       <c r="AE18" t="n">
-        <v>23.66419237057185</v>
+        <v>20.20617893362174</v>
       </c>
       <c r="AF18" t="n">
-        <v>20.63610046012932</v>
+        <v>6.029629518844017</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.499716409330681</v>
+        <v>24.97802116120027</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.28766946957499</v>
+        <v>14.74848956453285</v>
       </c>
       <c r="AI18" t="n">
-        <v>10.4056901631323</v>
+        <v>10.76894349214853</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7.250205460661205</v>
+        <v>14.70881125435109</v>
       </c>
       <c r="AK18" t="n">
-        <v>9.899440078549404</v>
+        <v>11.33675569452277</v>
       </c>
       <c r="AL18" t="n">
-        <v>3.709878848022059</v>
+        <v>4.698061752367131</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.363906264893519</v>
+        <v>4.038722865882603</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.342746278870274</v>
+        <v>2.931459048034956</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.607234144786362</v>
+        <v>4.438884239817516</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.984075109621861</v>
+        <v>7.804270850767155</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.504139910893463</v>
+        <v>0.5108248659109803</v>
       </c>
       <c r="AR18" t="n">
-        <v>7.496920773885228</v>
+        <v>3.132774806820268</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.309531989943971</v>
+        <v>2.921620736811721</v>
       </c>
       <c r="AT18" t="n">
-        <v>5.796978478580966</v>
+        <v>1.504143728622544</v>
       </c>
       <c r="AU18" t="n">
-        <v>2.766733198804004</v>
+        <v>1.713383593871342</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.814643385934571</v>
+        <v>2.664940650014482</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.004940982713014</v>
+        <v>2.195697110527968</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.977599206556678</v>
+        <v>4.917659001249633</v>
       </c>
     </row>
     <row r="19">
@@ -3280,145 +3280,145 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24.22990760529864</v>
+        <v>22.15581252177983</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>16.20968823633644</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>55.96979385505006</v>
       </c>
       <c r="H19" t="n">
-        <v>10.66204454124136</v>
+        <v>6.763020804589033</v>
       </c>
       <c r="I19" t="n">
-        <v>8.514732339169765</v>
+        <v>1.079466179907988</v>
       </c>
       <c r="J19" t="n">
-        <v>13.59840042728716</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>10.65163451602454</v>
+        <v>82.30899031874387</v>
       </c>
       <c r="L19" t="n">
-        <v>21.34000187748384</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>12.28688992541608</v>
+        <v>19.6234987720883</v>
       </c>
       <c r="N19" t="n">
-        <v>16.63193726098124</v>
+        <v>28.36316300065173</v>
       </c>
       <c r="O19" t="n">
-        <v>21.27350793690939</v>
+        <v>16.20629838141782</v>
       </c>
       <c r="P19" t="n">
-        <v>41.75740186023314</v>
+        <v>14.78045995128244</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>26.33014417532981</v>
       </c>
       <c r="R19" t="n">
-        <v>49.8102595586639</v>
+        <v>4.935148855765314</v>
       </c>
       <c r="S19" t="n">
-        <v>49.86568043713173</v>
+        <v>0.7371012628352256</v>
       </c>
       <c r="T19" t="n">
-        <v>33.74120238181985</v>
+        <v>42.13875840776792</v>
       </c>
       <c r="U19" t="n">
-        <v>67.83507490320277</v>
+        <v>33.18230898541751</v>
       </c>
       <c r="V19" t="n">
-        <v>30.12379978812899</v>
+        <v>32.19958751599085</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>20.17643390730913</v>
+        <v>3.914725423907928</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.59166496247433</v>
+        <v>6.908290999273129</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.291275955312894</v>
+        <v>11.0031206646972</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>22.38070686555017</v>
       </c>
       <c r="AB19" t="n">
-        <v>16.38454733476462</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.105760188951181</v>
+        <v>19.41789449970119</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.255027812598519</v>
+        <v>8.03897850036258</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.473710856810269</v>
+        <v>18.68951743986952</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.74040949946352</v>
+        <v>16.51385043905273</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.60518672837534</v>
+        <v>13.90203055238148</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.627761339930847</v>
+        <v>0.8096391300868593</v>
       </c>
       <c r="AI19" t="n">
-        <v>4.812922291667335</v>
+        <v>9.533110209623826</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7.081092418359461</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>9.548876858439145</v>
+        <v>15.55490638146177</v>
       </c>
       <c r="AL19" t="n">
-        <v>5.671649384448167</v>
+        <v>9.946991963720491</v>
       </c>
       <c r="AM19" t="n">
-        <v>18.92577742719421</v>
+        <v>8.074811672641871</v>
       </c>
       <c r="AN19" t="n">
-        <v>10.11490044592495</v>
+        <v>2.414719200428651</v>
       </c>
       <c r="AO19" t="n">
-        <v>73.48556612416297</v>
+        <v>1.788014886208825</v>
       </c>
       <c r="AP19" t="n">
-        <v>7.310280195535484</v>
+        <v>23.14315502362168</v>
       </c>
       <c r="AQ19" t="n">
-        <v>16.50620530626214</v>
+        <v>0.05022296232308388</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>2.987509331303003</v>
       </c>
       <c r="AS19" t="n">
-        <v>17.14036132266675</v>
+        <v>1.664284099613793</v>
       </c>
       <c r="AT19" t="n">
-        <v>15.67538815703967</v>
+        <v>1.44797431903104</v>
       </c>
       <c r="AU19" t="n">
-        <v>13.34418730146205</v>
+        <v>5.548420156599714</v>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>3.690922662455662</v>
       </c>
       <c r="AW19" t="n">
-        <v>21.29893877527063</v>
+        <v>12.37650573862553</v>
       </c>
       <c r="AX19" t="n">
-        <v>6.567500341099614</v>
+        <v>3.521688824942931</v>
       </c>
     </row>
     <row r="20">
@@ -3432,145 +3432,145 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>21.149306271148</v>
+        <v>34.23009340100041</v>
       </c>
       <c r="E20" t="n">
-        <v>14.02669376516319</v>
+        <v>48.48562078247593</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>13.86183954226366</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>23.84945584495417</v>
       </c>
       <c r="H20" t="n">
-        <v>33.16285471152584</v>
+        <v>152.2238824506217</v>
       </c>
       <c r="I20" t="n">
-        <v>2.970341535829853</v>
+        <v>21.70441918615511</v>
       </c>
       <c r="J20" t="n">
-        <v>82.31377350832535</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>53.13261374504116</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>184.123524838313</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>43.33428659454115</v>
+        <v>7.517347293250712</v>
       </c>
       <c r="N20" t="n">
-        <v>22.74461960775339</v>
+        <v>59.68071883103395</v>
       </c>
       <c r="O20" t="n">
-        <v>65.21583922482067</v>
+        <v>53.2771290063487</v>
       </c>
       <c r="P20" t="n">
-        <v>89.66712137263795</v>
+        <v>32.05865312013211</v>
       </c>
       <c r="Q20" t="n">
-        <v>38.38584745225047</v>
+        <v>44.49275361931915</v>
       </c>
       <c r="R20" t="n">
-        <v>64.84877809640486</v>
+        <v>63.28215220510471</v>
       </c>
       <c r="S20" t="n">
-        <v>42.60255410519181</v>
+        <v>135.9654013820867</v>
       </c>
       <c r="T20" t="n">
-        <v>75.20602873334849</v>
+        <v>60.82329235900603</v>
       </c>
       <c r="U20" t="n">
-        <v>26.15639251305807</v>
+        <v>75.54851259768475</v>
       </c>
       <c r="V20" t="n">
-        <v>24.7581600303357</v>
+        <v>92.07224741104365</v>
       </c>
       <c r="W20" t="n">
-        <v>128.5152080012785</v>
+        <v>73.11715445083478</v>
       </c>
       <c r="X20" t="n">
-        <v>37.90922901712718</v>
+        <v>52.30312296299403</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.66687789685716</v>
+        <v>55.98491528029611</v>
       </c>
       <c r="Z20" t="n">
-        <v>35.76798064977991</v>
+        <v>61.38174860946084</v>
       </c>
       <c r="AA20" t="n">
-        <v>106.6191541623703</v>
+        <v>127.4469217438864</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.67153192277277</v>
+        <v>40.409950038449</v>
       </c>
       <c r="AC20" t="n">
-        <v>102.710942485081</v>
+        <v>107.312473385874</v>
       </c>
       <c r="AD20" t="n">
-        <v>113.2179695710783</v>
+        <v>85.40501345942147</v>
       </c>
       <c r="AE20" t="n">
-        <v>99.62891186376334</v>
+        <v>86.88724656327342</v>
       </c>
       <c r="AF20" t="n">
-        <v>40.58475155187217</v>
+        <v>112.6607941102117</v>
       </c>
       <c r="AG20" t="n">
-        <v>83.14590505039524</v>
+        <v>117.9966864152414</v>
       </c>
       <c r="AH20" t="n">
-        <v>100.3663939385829</v>
+        <v>137.01203222084</v>
       </c>
       <c r="AI20" t="n">
-        <v>139.3765785302567</v>
+        <v>122.8446349912328</v>
       </c>
       <c r="AJ20" t="n">
-        <v>65.69363756846263</v>
+        <v>137.6658049469424</v>
       </c>
       <c r="AK20" t="n">
-        <v>43.47837229579312</v>
+        <v>121.877083605085</v>
       </c>
       <c r="AL20" t="n">
-        <v>31.54052093333065</v>
+        <v>123.6927195444663</v>
       </c>
       <c r="AM20" t="n">
-        <v>67.31477960030678</v>
+        <v>32.62133411943676</v>
       </c>
       <c r="AN20" t="n">
-        <v>43.17302225759525</v>
+        <v>19.20364951495453</v>
       </c>
       <c r="AO20" t="n">
-        <v>30.30889564992842</v>
+        <v>26.27461332226414</v>
       </c>
       <c r="AP20" t="n">
-        <v>20.64226947061326</v>
+        <v>16.51422958358129</v>
       </c>
       <c r="AQ20" t="n">
-        <v>36.7878501145914</v>
+        <v>19.94063300357815</v>
       </c>
       <c r="AR20" t="n">
-        <v>28.4158327012052</v>
+        <v>47.03689159244748</v>
       </c>
       <c r="AS20" t="n">
-        <v>17.56559637940316</v>
+        <v>15.94694896730277</v>
       </c>
       <c r="AT20" t="n">
-        <v>25.72141438572551</v>
+        <v>17.11600559962276</v>
       </c>
       <c r="AU20" t="n">
-        <v>19.09159847115362</v>
+        <v>22.6762489708829</v>
       </c>
       <c r="AV20" t="n">
-        <v>27.57903597919544</v>
+        <v>15.64124531102681</v>
       </c>
       <c r="AW20" t="n">
-        <v>22.179140177696</v>
+        <v>56.05964882189443</v>
       </c>
       <c r="AX20" t="n">
-        <v>20.65394215705905</v>
+        <v>22.68558986400409</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.9430009964054731</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>6.735073181350146</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.269129545303542</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.032626191960576</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.122491654700109</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.575497287309913</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.36604107666295</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3.413496649274954</v>
+        <v>1.727975021534269</v>
       </c>
       <c r="M21" t="n">
-        <v>20.99776254684695</v>
+        <v>5.398667728366612</v>
       </c>
       <c r="N21" t="n">
-        <v>6.741048538089275</v>
+        <v>3.814942106150199</v>
       </c>
       <c r="O21" t="n">
-        <v>11.80678157637825</v>
+        <v>4.501975834636029</v>
       </c>
       <c r="P21" t="n">
-        <v>2.768743957432313</v>
+        <v>4.585267854832866</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.995204128018307</v>
+        <v>3.174764118020755</v>
       </c>
       <c r="R21" t="n">
-        <v>5.029429678067054</v>
+        <v>1.177223498972228</v>
       </c>
       <c r="S21" t="n">
-        <v>6.467680317969246</v>
+        <v>5.617318536665509</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7545589047140465</v>
+        <v>4.396537864112687</v>
       </c>
       <c r="U21" t="n">
-        <v>1.949690958653131</v>
+        <v>3.692706110997875</v>
       </c>
       <c r="V21" t="n">
-        <v>0.644520982401833</v>
+        <v>3.905750427826066</v>
       </c>
       <c r="W21" t="n">
-        <v>2.448808168960769</v>
+        <v>3.715983837129541</v>
       </c>
       <c r="X21" t="n">
-        <v>4.711208076113468</v>
+        <v>5.312760560562135</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.841367905316645</v>
+        <v>8.082366536463304</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.292520389999773</v>
+        <v>6.445740316502234</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.292795585008628</v>
+        <v>5.99879177817484</v>
       </c>
       <c r="AB21" t="n">
-        <v>5.102738748066782</v>
+        <v>3.324867234163143</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.588922791841715</v>
+        <v>6.762200454745006</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.235486936361868</v>
+        <v>2.304597693119532</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.97810316369142</v>
+        <v>3.550643456944831</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.590150021301842</v>
+        <v>7.019267729865022</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.556690108003774</v>
+        <v>4.64816469726555</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.206620156879993</v>
+        <v>6.246195370523099</v>
       </c>
       <c r="AI21" t="n">
-        <v>10.22831402101353</v>
+        <v>12.91468748348437</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.468978645489059</v>
+        <v>7.936364292753477</v>
       </c>
       <c r="AK21" t="n">
-        <v>6.828293420632585</v>
+        <v>5.885625639749072</v>
       </c>
       <c r="AL21" t="n">
-        <v>7.005161788448131</v>
+        <v>5.127326825379726</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.958199032797377</v>
+        <v>3.076476966344124</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.289322512853142</v>
+        <v>7.203845698400498</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.079905207513732</v>
+        <v>1.350980314890968</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.440470037167072</v>
+        <v>7.719119711576188</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.924577935352522</v>
+        <v>3.027197472896614</v>
       </c>
       <c r="AR21" t="n">
-        <v>1.910088934489466</v>
+        <v>4.246725430846594</v>
       </c>
       <c r="AS21" t="n">
-        <v>5.13625675925363</v>
+        <v>4.437856597256831</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.179920449811688</v>
+        <v>2.204293679621109</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.964773518815628</v>
+        <v>2.301649421058038</v>
       </c>
       <c r="AV21" t="n">
-        <v>7.756691805400992</v>
+        <v>4.299247489788999</v>
       </c>
       <c r="AW21" t="n">
-        <v>11.05625419431029</v>
+        <v>3.094263211784125</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>2.035313350088499</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>12.17101274627753</v>
+        <v>26.92961728487813</v>
       </c>
       <c r="D22" t="n">
-        <v>6.253046314719</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.09426298520729</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>18.01248780888724</v>
       </c>
       <c r="H22" t="n">
-        <v>2.460257963438134</v>
+        <v>16.05762072039242</v>
       </c>
       <c r="I22" t="n">
-        <v>144.4195144734096</v>
+        <v>23.48614449073315</v>
       </c>
       <c r="J22" t="n">
-        <v>31.63656963804083</v>
+        <v>6.111709116786249</v>
       </c>
       <c r="K22" t="n">
-        <v>97.13489354254598</v>
+        <v>42.1370339794851</v>
       </c>
       <c r="L22" t="n">
-        <v>31.15839412214231</v>
+        <v>12.78014201743995</v>
       </c>
       <c r="M22" t="n">
-        <v>10.85785081538643</v>
+        <v>101.791024017364</v>
       </c>
       <c r="N22" t="n">
-        <v>45.74025143001651</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>26.31642844719158</v>
+        <v>47.52881576383835</v>
       </c>
       <c r="P22" t="n">
-        <v>79.08473358181541</v>
+        <v>48.10724518763897</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.33323065595823</v>
+        <v>88.98870399138298</v>
       </c>
       <c r="R22" t="n">
-        <v>44.87525651117317</v>
+        <v>37.03573624377159</v>
       </c>
       <c r="S22" t="n">
-        <v>92.67904826394852</v>
+        <v>5.16190902476686</v>
       </c>
       <c r="T22" t="n">
-        <v>79.56388338511847</v>
+        <v>108.5314944276127</v>
       </c>
       <c r="U22" t="n">
-        <v>48.41040828571258</v>
+        <v>117.1268819300836</v>
       </c>
       <c r="V22" t="n">
-        <v>52.10790516999289</v>
+        <v>39.07306621268255</v>
       </c>
       <c r="W22" t="n">
-        <v>22.22188754120697</v>
+        <v>62.58396485210957</v>
       </c>
       <c r="X22" t="n">
-        <v>29.85604369008065</v>
+        <v>60.72520605558799</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.38104707392596</v>
+        <v>39.22038308866627</v>
       </c>
       <c r="Z22" t="n">
-        <v>45.77899331060828</v>
+        <v>75.79418963040743</v>
       </c>
       <c r="AA22" t="n">
-        <v>51.9590580176308</v>
+        <v>116.6156909565228</v>
       </c>
       <c r="AB22" t="n">
-        <v>32.78603717379912</v>
+        <v>44.37492774617763</v>
       </c>
       <c r="AC22" t="n">
-        <v>114.427087264786</v>
+        <v>48.02077477422873</v>
       </c>
       <c r="AD22" t="n">
-        <v>90.92750625884973</v>
+        <v>71.20559400288595</v>
       </c>
       <c r="AE22" t="n">
-        <v>96.71147000612815</v>
+        <v>36.93831929314894</v>
       </c>
       <c r="AF22" t="n">
-        <v>102.2099694071271</v>
+        <v>83.66542323646873</v>
       </c>
       <c r="AG22" t="n">
-        <v>102.9052701526546</v>
+        <v>44.34107224863884</v>
       </c>
       <c r="AH22" t="n">
-        <v>70.02555211748492</v>
+        <v>105.3850773938304</v>
       </c>
       <c r="AI22" t="n">
-        <v>32.0941375793689</v>
+        <v>23.83717674245588</v>
       </c>
       <c r="AJ22" t="n">
-        <v>67.53265893657758</v>
+        <v>40.54493583656068</v>
       </c>
       <c r="AK22" t="n">
-        <v>76.38448944793907</v>
+        <v>33.06812587258354</v>
       </c>
       <c r="AL22" t="n">
-        <v>36.12196753611607</v>
+        <v>74.96868000722492</v>
       </c>
       <c r="AM22" t="n">
-        <v>8.961043074847977</v>
+        <v>21.51836523658958</v>
       </c>
       <c r="AN22" t="n">
-        <v>13.40052101074713</v>
+        <v>29.40583567271597</v>
       </c>
       <c r="AO22" t="n">
-        <v>14.38612279163437</v>
+        <v>13.06138432966659</v>
       </c>
       <c r="AP22" t="n">
-        <v>22.38273266708498</v>
+        <v>11.99335311318603</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9.366677818769517</v>
+        <v>11.02929852194618</v>
       </c>
       <c r="AR22" t="n">
-        <v>14.89382652347551</v>
+        <v>9.129389350666182</v>
       </c>
       <c r="AS22" t="n">
-        <v>26.35414288013977</v>
+        <v>4.367743381363208</v>
       </c>
       <c r="AT22" t="n">
-        <v>8.231773736933421</v>
+        <v>33.0251355842566</v>
       </c>
       <c r="AU22" t="n">
-        <v>11.3589493938005</v>
+        <v>4.842970166139594</v>
       </c>
       <c r="AV22" t="n">
-        <v>8.306236054019479</v>
+        <v>8.985769393107239</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.152374235405424</v>
+        <v>11.88258806425108</v>
       </c>
       <c r="AX22" t="n">
-        <v>12.33164050781171</v>
+        <v>21.39207282611902</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>36.39128641033091</v>
       </c>
       <c r="D23" t="n">
-        <v>6.261719310327592</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>27.16497852376066</v>
       </c>
       <c r="F23" t="n">
-        <v>15.06137771326634</v>
+        <v>6.025354863679016</v>
       </c>
       <c r="G23" t="n">
-        <v>10.17479677633592</v>
+        <v>10.56328060600179</v>
       </c>
       <c r="H23" t="n">
-        <v>17.4007117167401</v>
+        <v>26.23851713808019</v>
       </c>
       <c r="I23" t="n">
-        <v>90.24242675895506</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>93.99904999754187</v>
+        <v>21.79173669775354</v>
       </c>
       <c r="L23" t="n">
-        <v>117.8974171011013</v>
+        <v>40.50775387002793</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>44.3195683123304</v>
       </c>
       <c r="N23" t="n">
-        <v>37.35616766106698</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5212880167678762</v>
+        <v>15.59703151461792</v>
       </c>
       <c r="P23" t="n">
-        <v>118.8318460727534</v>
+        <v>46.55423911745704</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.42423640202462</v>
+        <v>50.76055795960298</v>
       </c>
       <c r="R23" t="n">
-        <v>2.415020965328118</v>
+        <v>37.21752392228762</v>
       </c>
       <c r="S23" t="n">
-        <v>46.70656412454581</v>
+        <v>33.93783495016443</v>
       </c>
       <c r="T23" t="n">
-        <v>49.09597406179745</v>
+        <v>23.64731951246166</v>
       </c>
       <c r="U23" t="n">
-        <v>37.04572153142901</v>
+        <v>54.10671963331291</v>
       </c>
       <c r="V23" t="n">
-        <v>41.27332282413714</v>
+        <v>83.76034242471363</v>
       </c>
       <c r="W23" t="n">
-        <v>38.79613345881309</v>
+        <v>36.5262622949038</v>
       </c>
       <c r="X23" t="n">
-        <v>54.68659219092195</v>
+        <v>49.86945765588857</v>
       </c>
       <c r="Y23" t="n">
-        <v>51.77152367635459</v>
+        <v>13.74886548580111</v>
       </c>
       <c r="Z23" t="n">
-        <v>36.38511099145997</v>
+        <v>35.10264531964468</v>
       </c>
       <c r="AA23" t="n">
-        <v>39.01453134094369</v>
+        <v>65.26738912580835</v>
       </c>
       <c r="AB23" t="n">
-        <v>65.77899463955387</v>
+        <v>25.00819705732648</v>
       </c>
       <c r="AC23" t="n">
-        <v>93.20810401624499</v>
+        <v>19.86384232862283</v>
       </c>
       <c r="AD23" t="n">
-        <v>47.51483062659899</v>
+        <v>10.05931020560478</v>
       </c>
       <c r="AE23" t="n">
-        <v>34.91453889642707</v>
+        <v>21.32822191373061</v>
       </c>
       <c r="AF23" t="n">
-        <v>51.55448427670554</v>
+        <v>13.10149719645172</v>
       </c>
       <c r="AG23" t="n">
-        <v>36.12326622183732</v>
+        <v>31.77912951334466</v>
       </c>
       <c r="AH23" t="n">
-        <v>11.75040821287838</v>
+        <v>37.69064051148361</v>
       </c>
       <c r="AI23" t="n">
-        <v>37.83497830191421</v>
+        <v>22.40609695911671</v>
       </c>
       <c r="AJ23" t="n">
-        <v>43.15653077935527</v>
+        <v>56.80718611827874</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.64390201170599</v>
+        <v>8.458377506353781</v>
       </c>
       <c r="AL23" t="n">
-        <v>33.72072427291204</v>
+        <v>34.90419976060518</v>
       </c>
       <c r="AM23" t="n">
-        <v>24.36054507747648</v>
+        <v>21.59993060490561</v>
       </c>
       <c r="AN23" t="n">
-        <v>25.15117758450291</v>
+        <v>31.85680981143286</v>
       </c>
       <c r="AO23" t="n">
-        <v>13.21943199740581</v>
+        <v>27.19428710054043</v>
       </c>
       <c r="AP23" t="n">
-        <v>12.49974492366492</v>
+        <v>47.52219111059697</v>
       </c>
       <c r="AQ23" t="n">
-        <v>17.51003142999547</v>
+        <v>18.19011680412257</v>
       </c>
       <c r="AR23" t="n">
-        <v>41.55914769902554</v>
+        <v>61.57443295030477</v>
       </c>
       <c r="AS23" t="n">
-        <v>25.94109478354031</v>
+        <v>5.089123675411519</v>
       </c>
       <c r="AT23" t="n">
-        <v>26.10672043794496</v>
+        <v>36.16216811424569</v>
       </c>
       <c r="AU23" t="n">
-        <v>42.33948282472937</v>
+        <v>14.41500167286961</v>
       </c>
       <c r="AV23" t="n">
-        <v>0</v>
+        <v>25.60214756012123</v>
       </c>
       <c r="AW23" t="n">
-        <v>44.0154817806622</v>
+        <v>25.21055360759315</v>
       </c>
       <c r="AX23" t="n">
-        <v>26.83166963792167</v>
+        <v>43.8621006486192</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8.995380558714746</v>
       </c>
       <c r="D24" t="n">
-        <v>6.105066181257618</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>4.830447680035497</v>
+        <v>27.39885759144215</v>
       </c>
       <c r="F24" t="n">
-        <v>4.26990046749431</v>
+        <v>0.2991218018018675</v>
       </c>
       <c r="G24" t="n">
-        <v>10.36755731604143</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>4.940152062656477</v>
+        <v>4.891682599469214</v>
       </c>
       <c r="I24" t="n">
-        <v>13.49615712764598</v>
+        <v>7.872028747997419</v>
       </c>
       <c r="J24" t="n">
-        <v>33.29122512202824</v>
+        <v>2.368754425197591</v>
       </c>
       <c r="K24" t="n">
-        <v>22.43127897218179</v>
+        <v>18.43679211815275</v>
       </c>
       <c r="L24" t="n">
-        <v>14.5272743354618</v>
+        <v>12.89669332604818</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>12.92228714406713</v>
       </c>
       <c r="N24" t="n">
-        <v>61.73644647717504</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>44.65845673719112</v>
+        <v>23.6661890435106</v>
       </c>
       <c r="P24" t="n">
-        <v>26.21100072654358</v>
+        <v>32.77736944121116</v>
       </c>
       <c r="Q24" t="n">
-        <v>15.3518858841623</v>
+        <v>11.60092510236331</v>
       </c>
       <c r="R24" t="n">
-        <v>12.59467364332217</v>
+        <v>81.69145311940656</v>
       </c>
       <c r="S24" t="n">
-        <v>36.13837949778014</v>
+        <v>7.065780727245429</v>
       </c>
       <c r="T24" t="n">
-        <v>23.13108249052318</v>
+        <v>13.22767803868857</v>
       </c>
       <c r="U24" t="n">
-        <v>27.62842538649099</v>
+        <v>15.46807267715308</v>
       </c>
       <c r="V24" t="n">
-        <v>3.97346546290169</v>
+        <v>14.1988268714817</v>
       </c>
       <c r="W24" t="n">
-        <v>7.762225763323072</v>
+        <v>13.83963463858268</v>
       </c>
       <c r="X24" t="n">
-        <v>29.81506243113675</v>
+        <v>13.76098855828931</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.80441403745025</v>
+        <v>5.711817648103115</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.980888800356631</v>
+        <v>40.88435035241169</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.73354338489411</v>
+        <v>7.581694304824251</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.33118023824226</v>
+        <v>24.72943039181895</v>
       </c>
       <c r="AC24" t="n">
-        <v>13.74191577132167</v>
+        <v>11.88500275769625</v>
       </c>
       <c r="AD24" t="n">
-        <v>3.100180828947866</v>
+        <v>6.874080446118731</v>
       </c>
       <c r="AE24" t="n">
-        <v>16.64347348127359</v>
+        <v>5.758072678057786</v>
       </c>
       <c r="AF24" t="n">
-        <v>21.82747585793626</v>
+        <v>18.2017527300297</v>
       </c>
       <c r="AG24" t="n">
-        <v>18.02825041936051</v>
+        <v>15.05656270725911</v>
       </c>
       <c r="AH24" t="n">
-        <v>5.171062225213072</v>
+        <v>44.11114923145305</v>
       </c>
       <c r="AI24" t="n">
-        <v>7.769645318527645</v>
+        <v>6.535560510154404</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7.749641744548456</v>
+        <v>14.68997293223492</v>
       </c>
       <c r="AK24" t="n">
-        <v>10.33372913361937</v>
+        <v>33.05357255522405</v>
       </c>
       <c r="AL24" t="n">
-        <v>5.294892478264327</v>
+        <v>14.91644286463685</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.95317088130462</v>
+        <v>4.092423334901934</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.953075091429656</v>
+        <v>2.222076331407744</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.8540605034021469</v>
+        <v>4.702027938586872</v>
       </c>
       <c r="AP24" t="n">
-        <v>5.009199564528846</v>
+        <v>9.364176735268543</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.752771288562147</v>
+        <v>2.920304448936299</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.18068867444983</v>
+        <v>1.108041808695285</v>
       </c>
       <c r="AS24" t="n">
-        <v>3.844897032889293</v>
+        <v>2.975247865001397</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.844746285402152</v>
+        <v>1.925502427616483</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.88764176845068</v>
+        <v>1.582319258160709</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.7097377861719701</v>
+        <v>3.777168984884083</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.541950860469356</v>
+        <v>3.070698575745641</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.5259842280578871</v>
+        <v>12.24187075455551</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.78985437352999</v>
+        <v>60.82622683081016</v>
       </c>
       <c r="D25" t="n">
-        <v>7.030360727291984</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.464724886377799</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>14.2682958326577</v>
+        <v>12.94023049712929</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>91.33370881513898</v>
+        <v>3.809031469849194</v>
       </c>
       <c r="I25" t="n">
-        <v>20.86589707215659</v>
+        <v>9.207775321706769</v>
       </c>
       <c r="J25" t="n">
-        <v>20.8508402951939</v>
+        <v>9.721688036822448</v>
       </c>
       <c r="K25" t="n">
-        <v>100.1274646131471</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>22.75214808967796</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>63.99390567681514</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>44.75568405906632</v>
+        <v>22.35351024990027</v>
       </c>
       <c r="O25" t="n">
-        <v>22.20501868852087</v>
+        <v>34.08676567402399</v>
       </c>
       <c r="P25" t="n">
-        <v>59.57724736653301</v>
+        <v>11.0161994851957</v>
       </c>
       <c r="Q25" t="n">
-        <v>12.73373076746131</v>
+        <v>49.73761069736007</v>
       </c>
       <c r="R25" t="n">
-        <v>78.71075777986638</v>
+        <v>42.49438839889377</v>
       </c>
       <c r="S25" t="n">
-        <v>48.38785091675653</v>
+        <v>16.37728984725303</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28445969419467</v>
+        <v>23.08600073913239</v>
       </c>
       <c r="U25" t="n">
-        <v>4.363395436496059</v>
+        <v>39.26464414249728</v>
       </c>
       <c r="V25" t="n">
-        <v>44.85336724691607</v>
+        <v>41.72957483885508</v>
       </c>
       <c r="W25" t="n">
-        <v>9.96892673469317</v>
+        <v>108.8756808571357</v>
       </c>
       <c r="X25" t="n">
-        <v>36.08486834246445</v>
+        <v>38.20580622701035</v>
       </c>
       <c r="Y25" t="n">
-        <v>23.5243890325841</v>
+        <v>48.65445587564963</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.51228994232398</v>
+        <v>20.77530009748016</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>4.246032895773276</v>
       </c>
       <c r="AB25" t="n">
-        <v>17.5134014400286</v>
+        <v>51.94322613627187</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.104144777232676</v>
+        <v>7.312791580454205</v>
       </c>
       <c r="AD25" t="n">
-        <v>15.58282398639542</v>
+        <v>4.756756195127678</v>
       </c>
       <c r="AE25" t="n">
-        <v>10.81826058044509</v>
+        <v>4.654254875177417</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.4403477694231674</v>
+        <v>7.359752288528424</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>23.48295677562671</v>
       </c>
       <c r="AH25" t="n">
-        <v>6.911591536365975</v>
+        <v>16.89884483702904</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>42.8414353612208</v>
+        <v>7.018904033192792</v>
       </c>
       <c r="AK25" t="n">
-        <v>1.080523444442224</v>
+        <v>3.438774836057275</v>
       </c>
       <c r="AL25" t="n">
-        <v>6.930028121372589</v>
+        <v>2.872145429061015</v>
       </c>
       <c r="AM25" t="n">
-        <v>5.937387862062626</v>
+        <v>1.325480083395583</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.429002690050734</v>
+        <v>3.033894764104804</v>
       </c>
       <c r="AO25" t="n">
-        <v>13.67035936387921</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>10.797866825131</v>
+        <v>5.76274580755353</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15.48406697232565</v>
+        <v>0.7230438997312341</v>
       </c>
       <c r="AR25" t="n">
-        <v>17.65689799137767</v>
+        <v>11.72830476564879</v>
       </c>
       <c r="AS25" t="n">
-        <v>0</v>
+        <v>7.420521016199175</v>
       </c>
       <c r="AT25" t="n">
-        <v>4.861436290498576</v>
+        <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>0</v>
+        <v>6.78985510581976</v>
       </c>
       <c r="AV25" t="n">
-        <v>21.0834783254744</v>
+        <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>9.412687000555334</v>
+        <v>10.84376836003889</v>
       </c>
       <c r="AX25" t="n">
-        <v>22.17829782587866</v>
+        <v>30.61710765095338</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>15.32047154782037</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>69.61408873914301</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>20.96888208025585</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>20.6947723114447</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>44.1549712552738</v>
+        <v>10.56913495049474</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>14.39938152535214</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>79.49939570753921</v>
       </c>
       <c r="L26" t="n">
-        <v>70.27244434469632</v>
+        <v>62.94168377085992</v>
       </c>
       <c r="M26" t="n">
-        <v>66.93088521530747</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>103.5787018397809</v>
+        <v>19.65001780557153</v>
       </c>
       <c r="O26" t="n">
-        <v>84.70963119526309</v>
+        <v>48.58340629076662</v>
       </c>
       <c r="P26" t="n">
-        <v>23.35324551960925</v>
+        <v>66.87805112308827</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.90825090394519</v>
+        <v>129.7523046025002</v>
       </c>
       <c r="R26" t="n">
-        <v>103.8895748972756</v>
+        <v>117.8110794865907</v>
       </c>
       <c r="S26" t="n">
-        <v>48.80473481230301</v>
+        <v>178.8107616830686</v>
       </c>
       <c r="T26" t="n">
-        <v>37.75862061185614</v>
+        <v>68.07385790508215</v>
       </c>
       <c r="U26" t="n">
-        <v>98.55785757536395</v>
+        <v>19.78580987281018</v>
       </c>
       <c r="V26" t="n">
-        <v>48.20214094214028</v>
+        <v>134.3949539265074</v>
       </c>
       <c r="W26" t="n">
-        <v>97.04921648033432</v>
+        <v>55.74908244306289</v>
       </c>
       <c r="X26" t="n">
-        <v>106.7847600479288</v>
+        <v>42.83956017404161</v>
       </c>
       <c r="Y26" t="n">
-        <v>52.53201401502699</v>
+        <v>140.4590295295908</v>
       </c>
       <c r="Z26" t="n">
-        <v>61.7118591878607</v>
+        <v>29.71798946951144</v>
       </c>
       <c r="AA26" t="n">
-        <v>122.6615966175629</v>
+        <v>46.696794101707</v>
       </c>
       <c r="AB26" t="n">
-        <v>114.8974453502635</v>
+        <v>91.18962211488403</v>
       </c>
       <c r="AC26" t="n">
-        <v>52.24768600584723</v>
+        <v>140.6707022215959</v>
       </c>
       <c r="AD26" t="n">
-        <v>102.6493697144526</v>
+        <v>220.5600987851093</v>
       </c>
       <c r="AE26" t="n">
-        <v>147.3843427124628</v>
+        <v>49.19680852311784</v>
       </c>
       <c r="AF26" t="n">
-        <v>145.0545585551181</v>
+        <v>94.73543690708411</v>
       </c>
       <c r="AG26" t="n">
-        <v>59.35752392304413</v>
+        <v>111.9972226994009</v>
       </c>
       <c r="AH26" t="n">
-        <v>91.07962866169231</v>
+        <v>50.82354180418887</v>
       </c>
       <c r="AI26" t="n">
-        <v>115.8331356702788</v>
+        <v>42.55344592591347</v>
       </c>
       <c r="AJ26" t="n">
-        <v>87.51785332165962</v>
+        <v>95.4249187477827</v>
       </c>
       <c r="AK26" t="n">
-        <v>68.34031228735202</v>
+        <v>101.3004348019237</v>
       </c>
       <c r="AL26" t="n">
-        <v>35.76653208143999</v>
+        <v>23.11097182978215</v>
       </c>
       <c r="AM26" t="n">
-        <v>49.80618148199992</v>
+        <v>34.01339799127142</v>
       </c>
       <c r="AN26" t="n">
-        <v>65.65023934545339</v>
+        <v>12.94515806231984</v>
       </c>
       <c r="AO26" t="n">
-        <v>41.59112145929926</v>
+        <v>27.23867955110934</v>
       </c>
       <c r="AP26" t="n">
-        <v>34.58160020343519</v>
+        <v>20.98586491300543</v>
       </c>
       <c r="AQ26" t="n">
-        <v>19.84749254617542</v>
+        <v>21.30795890433604</v>
       </c>
       <c r="AR26" t="n">
-        <v>72.53415410702301</v>
+        <v>13.24771553031636</v>
       </c>
       <c r="AS26" t="n">
-        <v>13.40141672944937</v>
+        <v>35.68427496165202</v>
       </c>
       <c r="AT26" t="n">
-        <v>12.96660858035531</v>
+        <v>21.25160057106994</v>
       </c>
       <c r="AU26" t="n">
-        <v>15.21265738863195</v>
+        <v>15.88145620220197</v>
       </c>
       <c r="AV26" t="n">
-        <v>14.87048974408583</v>
+        <v>20.92769128372623</v>
       </c>
       <c r="AW26" t="n">
-        <v>15.47681375206453</v>
+        <v>29.97440691300421</v>
       </c>
       <c r="AX26" t="n">
-        <v>21.1960573572041</v>
+        <v>23.73457320440272</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>4.936588216903674</v>
+        <v>3.430961426665608</v>
       </c>
       <c r="D27" t="n">
-        <v>2.494550815488568</v>
+        <v>4.647343351714386</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>5.761758962862332</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.561025809131394</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>7.344291469389014</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.134639084126923</v>
+        <v>4.043370723666989</v>
       </c>
       <c r="J27" t="n">
-        <v>5.456219445423026</v>
+        <v>4.072010034019163</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8333784535074463</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>4.33029587890812</v>
+        <v>1.335485353711166</v>
       </c>
       <c r="M27" t="n">
-        <v>4.335075227753552</v>
+        <v>0.5493912851280954</v>
       </c>
       <c r="N27" t="n">
-        <v>4.43687443140921</v>
+        <v>1.868457653021389</v>
       </c>
       <c r="O27" t="n">
-        <v>6.751677948442177</v>
+        <v>5.969454523256028</v>
       </c>
       <c r="P27" t="n">
-        <v>1.657190765750843</v>
+        <v>8.273241063146585</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.650595740032053</v>
+        <v>3.378206871537524</v>
       </c>
       <c r="R27" t="n">
-        <v>4.337710356414861</v>
+        <v>4.371892441010365</v>
       </c>
       <c r="S27" t="n">
-        <v>6.004193788983683</v>
+        <v>3.698293338338463</v>
       </c>
       <c r="T27" t="n">
-        <v>1.21039438883823</v>
+        <v>4.084086727370822</v>
       </c>
       <c r="U27" t="n">
-        <v>3.292486280443694</v>
+        <v>2.378669333953258</v>
       </c>
       <c r="V27" t="n">
-        <v>4.187219094505958</v>
+        <v>7.936853972774975</v>
       </c>
       <c r="W27" t="n">
-        <v>8.419612983666278</v>
+        <v>6.135046120086581</v>
       </c>
       <c r="X27" t="n">
-        <v>0.5870369572552734</v>
+        <v>3.328925185264609</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.536197536621154</v>
+        <v>3.564613011624001</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.144083203525744</v>
+        <v>3.648956447806613</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.615856361126026</v>
+        <v>5.732457803663978</v>
       </c>
       <c r="AB27" t="n">
-        <v>3.104531595224696</v>
+        <v>5.373850338885297</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.37737702066353</v>
+        <v>4.201573943430745</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.154165720825372</v>
+        <v>4.550253200138024</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.092406817153587</v>
+        <v>4.15114211833129</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.538542064275335</v>
+        <v>6.105960494328961</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.489731942817883</v>
+        <v>2.433275668889375</v>
       </c>
       <c r="AH27" t="n">
-        <v>7.397608937667377</v>
+        <v>2.933399560367817</v>
       </c>
       <c r="AI27" t="n">
-        <v>7.209537058570136</v>
+        <v>6.929949462251092</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.58538533354921</v>
+        <v>7.62181800910955</v>
       </c>
       <c r="AK27" t="n">
-        <v>5.128358815880571</v>
+        <v>3.299675960890619</v>
       </c>
       <c r="AL27" t="n">
-        <v>7.453928751535546</v>
+        <v>7.609062892475547</v>
       </c>
       <c r="AM27" t="n">
-        <v>7.168342227103869</v>
+        <v>4.52657215698882</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.412691285837262</v>
+        <v>4.727549571112563</v>
       </c>
       <c r="AO27" t="n">
-        <v>2.777922660729299</v>
+        <v>4.162771318039073</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.921780091978803</v>
+        <v>3.296078334266825</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.953583908000445</v>
+        <v>3.456306029376687</v>
       </c>
       <c r="AR27" t="n">
-        <v>4.294716726148205</v>
+        <v>4.813343256473381</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.004759973889174</v>
+        <v>2.657016663373264</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.89117266546248</v>
+        <v>5.719251728553098</v>
       </c>
       <c r="AU27" t="n">
-        <v>3.223115852278249</v>
+        <v>2.418130506868454</v>
       </c>
       <c r="AV27" t="n">
-        <v>3.433461805367521</v>
+        <v>4.465118830257119</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.472809340183188</v>
+        <v>2.723194796860385</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.134015069167484</v>
+        <v>3.545323401251603</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>14.70780486332498</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3.027186431724408</v>
+        <v>13.74160939352849</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.282608821325788</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>50.75305335459745</v>
+        <v>37.45823164871457</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>116.9693039184069</v>
       </c>
       <c r="J28" t="n">
-        <v>221.3070235654202</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>60.26909142516919</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>159.6053608460639</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>64.0069551267901</v>
+        <v>9.243733548203203</v>
       </c>
       <c r="N28" t="n">
-        <v>41.91104957826598</v>
+        <v>3.059404494341798</v>
       </c>
       <c r="O28" t="n">
-        <v>35.08289491309603</v>
+        <v>89.95876445992508</v>
       </c>
       <c r="P28" t="n">
-        <v>82.02510697526347</v>
+        <v>78.11796155694839</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.47590609348479</v>
+        <v>21.36655397359164</v>
       </c>
       <c r="R28" t="n">
-        <v>56.62459881043015</v>
+        <v>79.47890162354845</v>
       </c>
       <c r="S28" t="n">
-        <v>27.00346393916964</v>
+        <v>18.7038847461808</v>
       </c>
       <c r="T28" t="n">
-        <v>43.37836345706145</v>
+        <v>23.65321469382715</v>
       </c>
       <c r="U28" t="n">
-        <v>31.26380332236334</v>
+        <v>208.8181515788139</v>
       </c>
       <c r="V28" t="n">
-        <v>19.92440864811846</v>
+        <v>107.3593132129438</v>
       </c>
       <c r="W28" t="n">
-        <v>24.59988486261441</v>
+        <v>52.92844007694083</v>
       </c>
       <c r="X28" t="n">
-        <v>32.11523804909257</v>
+        <v>26.33086011212673</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.63543262214368</v>
+        <v>88.50160445395662</v>
       </c>
       <c r="Z28" t="n">
-        <v>58.28125100105573</v>
+        <v>12.30776820459526</v>
       </c>
       <c r="AA28" t="n">
-        <v>79.90248147061381</v>
+        <v>57.56373815743983</v>
       </c>
       <c r="AB28" t="n">
-        <v>81.07312959175553</v>
+        <v>62.50671017437365</v>
       </c>
       <c r="AC28" t="n">
-        <v>134.0265473140553</v>
+        <v>87.93751930925683</v>
       </c>
       <c r="AD28" t="n">
-        <v>22.84699896811719</v>
+        <v>73.26541700296718</v>
       </c>
       <c r="AE28" t="n">
-        <v>39.16076553012958</v>
+        <v>19.25614121951676</v>
       </c>
       <c r="AF28" t="n">
-        <v>100.3093501232595</v>
+        <v>40.84069359133622</v>
       </c>
       <c r="AG28" t="n">
-        <v>39.2014619900293</v>
+        <v>6.531379959524189</v>
       </c>
       <c r="AH28" t="n">
-        <v>42.00907201621788</v>
+        <v>93.90137660738625</v>
       </c>
       <c r="AI28" t="n">
-        <v>22.19468313892176</v>
+        <v>42.13130713901635</v>
       </c>
       <c r="AJ28" t="n">
-        <v>61.81487422755974</v>
+        <v>121.3935444988606</v>
       </c>
       <c r="AK28" t="n">
-        <v>29.04727364187784</v>
+        <v>28.25992740621211</v>
       </c>
       <c r="AL28" t="n">
-        <v>50.73262326433606</v>
+        <v>62.19515416142855</v>
       </c>
       <c r="AM28" t="n">
-        <v>23.77933873790073</v>
+        <v>16.05068315557743</v>
       </c>
       <c r="AN28" t="n">
-        <v>24.0376616224022</v>
+        <v>17.28143709191735</v>
       </c>
       <c r="AO28" t="n">
-        <v>14.64278252948481</v>
+        <v>31.18701270772843</v>
       </c>
       <c r="AP28" t="n">
-        <v>23.26183717396194</v>
+        <v>7.505601697594411</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16.18092362593009</v>
+        <v>17.86733122615834</v>
       </c>
       <c r="AR28" t="n">
-        <v>20.57931264153247</v>
+        <v>21.26064991495911</v>
       </c>
       <c r="AS28" t="n">
-        <v>14.64610298591718</v>
+        <v>16.90457573689939</v>
       </c>
       <c r="AT28" t="n">
-        <v>6.351982774251758</v>
+        <v>28.57054853564253</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.170679931321388</v>
+        <v>13.38148460367762</v>
       </c>
       <c r="AV28" t="n">
-        <v>6.872449337914277</v>
+        <v>42.77518203833664</v>
       </c>
       <c r="AW28" t="n">
-        <v>9.731622254235289</v>
+        <v>10.14991614853487</v>
       </c>
       <c r="AX28" t="n">
-        <v>10.5278163033392</v>
+        <v>17.96387614671379</v>
       </c>
     </row>
     <row r="29">
@@ -4800,145 +4800,145 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>15.55621936432872</v>
+        <v>49.58070180374595</v>
       </c>
       <c r="E29" t="n">
-        <v>17.23609220256677</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.984426476342301</v>
+        <v>29.92670137980905</v>
       </c>
       <c r="G29" t="n">
-        <v>17.24599160069822</v>
+        <v>7.049101663260092</v>
       </c>
       <c r="H29" t="n">
-        <v>102.3844406739655</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>8.295726808725657</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>25.46301038585536</v>
+        <v>25.38005802426262</v>
       </c>
       <c r="K29" t="n">
-        <v>29.09112018317494</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>119.5238195880569</v>
+        <v>21.22596624677301</v>
       </c>
       <c r="M29" t="n">
-        <v>91.54276181564782</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>44.27734661081004</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>61.09904119180741</v>
+        <v>39.86369404368229</v>
       </c>
       <c r="P29" t="n">
-        <v>46.36408573159545</v>
+        <v>25.069450773241</v>
       </c>
       <c r="Q29" t="n">
-        <v>17.74131249372258</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>57.23517440887839</v>
+        <v>74.71838251018264</v>
       </c>
       <c r="S29" t="n">
-        <v>45.30632282473609</v>
+        <v>20.14395531944296</v>
       </c>
       <c r="T29" t="n">
-        <v>39.84315835032715</v>
+        <v>149.5419238890537</v>
       </c>
       <c r="U29" t="n">
-        <v>96.2211043886592</v>
+        <v>4.757748217210526</v>
       </c>
       <c r="V29" t="n">
-        <v>89.41895820698569</v>
+        <v>58.51737146923742</v>
       </c>
       <c r="W29" t="n">
-        <v>115.4200433009447</v>
+        <v>38.97294407110368</v>
       </c>
       <c r="X29" t="n">
-        <v>27.4029522861313</v>
+        <v>28.38655956175781</v>
       </c>
       <c r="Y29" t="n">
-        <v>35.56077772820667</v>
+        <v>71.28803908256418</v>
       </c>
       <c r="Z29" t="n">
-        <v>27.89559006028383</v>
+        <v>34.85542414479681</v>
       </c>
       <c r="AA29" t="n">
-        <v>33.6538017522271</v>
+        <v>18.46510757841084</v>
       </c>
       <c r="AB29" t="n">
-        <v>19.77239513789108</v>
+        <v>35.19535501001361</v>
       </c>
       <c r="AC29" t="n">
-        <v>14.98487160736203</v>
+        <v>52.57258708553528</v>
       </c>
       <c r="AD29" t="n">
-        <v>28.10239272134471</v>
+        <v>18.43874511056192</v>
       </c>
       <c r="AE29" t="n">
-        <v>26.15284332030407</v>
+        <v>65.04688133644444</v>
       </c>
       <c r="AF29" t="n">
-        <v>68.06942835172785</v>
+        <v>26.40914433881536</v>
       </c>
       <c r="AG29" t="n">
-        <v>29.76719281964398</v>
+        <v>42.52350857664007</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.521951481236529</v>
+        <v>12.76813218457903</v>
       </c>
       <c r="AI29" t="n">
-        <v>11.1951947711939</v>
+        <v>20.77213050627241</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9.350792806675379</v>
+        <v>14.55122228632402</v>
       </c>
       <c r="AK29" t="n">
-        <v>9.237620638397486</v>
+        <v>24.19027530388108</v>
       </c>
       <c r="AL29" t="n">
-        <v>28.20659527535055</v>
+        <v>78.2763355951755</v>
       </c>
       <c r="AM29" t="n">
-        <v>20.58667391399969</v>
+        <v>32.98563580373737</v>
       </c>
       <c r="AN29" t="n">
-        <v>34.60496058744376</v>
+        <v>5.284240763411228</v>
       </c>
       <c r="AO29" t="n">
-        <v>23.14550185454538</v>
+        <v>36.40406995058773</v>
       </c>
       <c r="AP29" t="n">
-        <v>40.46474749315218</v>
+        <v>27.03937347611894</v>
       </c>
       <c r="AQ29" t="n">
-        <v>24.81013060966576</v>
+        <v>21.30980022399241</v>
       </c>
       <c r="AR29" t="n">
-        <v>30.05519056512713</v>
+        <v>28.93994338365549</v>
       </c>
       <c r="AS29" t="n">
-        <v>35.33908180801457</v>
+        <v>6.934213846713577</v>
       </c>
       <c r="AT29" t="n">
-        <v>22.96204783611251</v>
+        <v>23.6362480488895</v>
       </c>
       <c r="AU29" t="n">
-        <v>26.54712064053264</v>
+        <v>6.415544235405244</v>
       </c>
       <c r="AV29" t="n">
-        <v>0</v>
+        <v>21.9027601047701</v>
       </c>
       <c r="AW29" t="n">
-        <v>23.20466865098167</v>
+        <v>0.01507091361845236</v>
       </c>
       <c r="AX29" t="n">
-        <v>23.10555243889406</v>
+        <v>37.59439053574325</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>5.080549249605</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>4.319118595207405</v>
+        <v>4.745001694991852</v>
       </c>
       <c r="E30" t="n">
-        <v>9.587215383620387</v>
+        <v>9.771533436930206</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>17.45524526915481</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>7.062187236721138</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.653979352928012</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>11.82188886782771</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>11.91079658539087</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>4.250608727305353</v>
+        <v>104.5002888085488</v>
       </c>
       <c r="M30" t="n">
-        <v>25.51804100925271</v>
+        <v>0.5775564222661567</v>
       </c>
       <c r="N30" t="n">
-        <v>24.44119995848136</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>38.47860212636296</v>
+        <v>17.66220519541205</v>
       </c>
       <c r="P30" t="n">
-        <v>12.29859629250464</v>
+        <v>52.91190106612581</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.257542814160461</v>
+        <v>8.785552410552391</v>
       </c>
       <c r="R30" t="n">
-        <v>16.52351861417391</v>
+        <v>17.76467929540144</v>
       </c>
       <c r="S30" t="n">
-        <v>27.85420082381179</v>
+        <v>21.0588773776638</v>
       </c>
       <c r="T30" t="n">
-        <v>29.12978217290622</v>
+        <v>5.892198552227515</v>
       </c>
       <c r="U30" t="n">
-        <v>11.88351667200056</v>
+        <v>26.92580103314502</v>
       </c>
       <c r="V30" t="n">
-        <v>8.278575127003457</v>
+        <v>0.4784792904624169</v>
       </c>
       <c r="W30" t="n">
-        <v>17.62461302091388</v>
+        <v>19.10244740340444</v>
       </c>
       <c r="X30" t="n">
-        <v>15.91570730665319</v>
+        <v>90.46605913702307</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.381718809195445</v>
+        <v>14.32764516727874</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.132154644380536</v>
+        <v>48.55555574671012</v>
       </c>
       <c r="AA30" t="n">
-        <v>22.48290399997657</v>
+        <v>12.92988175145671</v>
       </c>
       <c r="AB30" t="n">
-        <v>15.56195307963348</v>
+        <v>18.18899854402586</v>
       </c>
       <c r="AC30" t="n">
-        <v>25.11123963068288</v>
+        <v>13.19065920549507</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.314342663384105</v>
+        <v>18.57308236109633</v>
       </c>
       <c r="AE30" t="n">
-        <v>20.34359618308558</v>
+        <v>14.83809978792577</v>
       </c>
       <c r="AF30" t="n">
-        <v>13.16152927441094</v>
+        <v>26.48708886873201</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.67918132059804</v>
+        <v>3.301231326789099</v>
       </c>
       <c r="AH30" t="n">
-        <v>15.3485818631093</v>
+        <v>15.55019971576067</v>
       </c>
       <c r="AI30" t="n">
-        <v>6.65019141596761</v>
+        <v>22.56292710307557</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18.02226203510982</v>
+        <v>12.17444630522167</v>
       </c>
       <c r="AK30" t="n">
-        <v>6.229680359635081</v>
+        <v>15.31781661558508</v>
       </c>
       <c r="AL30" t="n">
-        <v>7.230318457726156</v>
+        <v>16.70557280885098</v>
       </c>
       <c r="AM30" t="n">
-        <v>2.763446222558855</v>
+        <v>10.26356453566725</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.785952737162057</v>
+        <v>1.503807446628599</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.520997070646741</v>
+        <v>6.087437105249696</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.498532371783846</v>
+        <v>9.081689135363954</v>
       </c>
       <c r="AQ30" t="n">
-        <v>7.673589790245521</v>
+        <v>7.238351920728031</v>
       </c>
       <c r="AR30" t="n">
-        <v>6.296345802438466</v>
+        <v>1.217618568421182</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.966639727505778</v>
+        <v>1.555362918947944</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.596655232535346</v>
+        <v>3.274697227530686</v>
       </c>
       <c r="AU30" t="n">
-        <v>4.197805773257997</v>
+        <v>6.592738494461657</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.089992725864796</v>
+        <v>0.3788569961230992</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.54679197652329</v>
+        <v>3.184080215197526</v>
       </c>
       <c r="AX30" t="n">
-        <v>1.084870899661029</v>
+        <v>6.492292335916939</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>35.15807661741496</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>9.795199480583697</v>
+        <v>10.72184464560275</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>28.92761408792301</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>21.9170342715973</v>
       </c>
       <c r="H31" t="n">
-        <v>5.927950423016949</v>
+        <v>12.27359034820197</v>
       </c>
       <c r="I31" t="n">
-        <v>10.15182633144768</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>37.56039907482955</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>101.2394771443101</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>73.40092893604161</v>
+        <v>29.37108396282859</v>
       </c>
       <c r="M31" t="n">
-        <v>38.90515008075263</v>
+        <v>17.43149505920611</v>
       </c>
       <c r="N31" t="n">
-        <v>69.14193885792768</v>
+        <v>6.397303297581225</v>
       </c>
       <c r="O31" t="n">
-        <v>32.44183405647911</v>
+        <v>51.28176353962927</v>
       </c>
       <c r="P31" t="n">
-        <v>68.19448017526318</v>
+        <v>11.66533667806981</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>45.82486023947485</v>
       </c>
       <c r="R31" t="n">
-        <v>18.18012760743808</v>
+        <v>24.09027347752483</v>
       </c>
       <c r="S31" t="n">
-        <v>22.74499269844749</v>
+        <v>30.46515354498544</v>
       </c>
       <c r="T31" t="n">
-        <v>11.55527399680272</v>
+        <v>119.0937991600127</v>
       </c>
       <c r="U31" t="n">
-        <v>74.14723779841475</v>
+        <v>12.3234346049367</v>
       </c>
       <c r="V31" t="n">
-        <v>5.201800622770365</v>
+        <v>21.12794071303048</v>
       </c>
       <c r="W31" t="n">
-        <v>15.20912274186239</v>
+        <v>25.99374339731077</v>
       </c>
       <c r="X31" t="n">
-        <v>1.010943112498549</v>
+        <v>16.89623213217565</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.5408753618591</v>
+        <v>53.69232447333611</v>
       </c>
       <c r="Z31" t="n">
-        <v>16.36173177856801</v>
+        <v>10.47061121770678</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.935981731639208</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>32.05706108283987</v>
+        <v>1.342365032395024</v>
       </c>
       <c r="AC31" t="n">
-        <v>33.5883262123582</v>
+        <v>8.077865743857121</v>
       </c>
       <c r="AD31" t="n">
-        <v>26.89540081279008</v>
+        <v>5.408070611836654</v>
       </c>
       <c r="AE31" t="n">
-        <v>3.280580681013367</v>
+        <v>33.21434400632759</v>
       </c>
       <c r="AF31" t="n">
-        <v>11.12297826966306</v>
+        <v>7.328667518394207</v>
       </c>
       <c r="AG31" t="n">
-        <v>3.806327894029872</v>
+        <v>13.08756870861268</v>
       </c>
       <c r="AH31" t="n">
-        <v>16.81001233698717</v>
+        <v>12.51961681392903</v>
       </c>
       <c r="AI31" t="n">
-        <v>10.20575288393695</v>
+        <v>9.233402514093248</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7.871384516406958</v>
+        <v>8.102650067663257</v>
       </c>
       <c r="AK31" t="n">
-        <v>4.122981022444426</v>
+        <v>9.91183408031654</v>
       </c>
       <c r="AL31" t="n">
-        <v>10.94895883359878</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
-        <v>7.216693659407291</v>
+        <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>25.45717724024573</v>
+        <v>3.101561739147062</v>
       </c>
       <c r="AO31" t="n">
-        <v>17.88490469623273</v>
+        <v>3.767098554468967</v>
       </c>
       <c r="AP31" t="n">
-        <v>3.933498688691945</v>
+        <v>17.1381384041506</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5.008957020942963</v>
+        <v>12.13176137823211</v>
       </c>
       <c r="AR31" t="n">
-        <v>5.10859336378794</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.09918134636911935</v>
+        <v>4.030748385362098</v>
       </c>
       <c r="AT31" t="n">
-        <v>13.29447564984643</v>
+        <v>1.763858643001551</v>
       </c>
       <c r="AU31" t="n">
-        <v>18.4432753638275</v>
+        <v>2.389556590495217</v>
       </c>
       <c r="AV31" t="n">
-        <v>10.04532245373785</v>
+        <v>7.132548039659389</v>
       </c>
       <c r="AW31" t="n">
-        <v>9.912661103252825</v>
+        <v>0</v>
       </c>
       <c r="AX31" t="n">
-        <v>1.545240343794497</v>
+        <v>13.38980418734706</v>
       </c>
     </row>
   </sheetData>
